--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
-    <sheet name="Automation QA Dashboard" r:id="rId5" sheetId="3"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId6" sheetId="4"/>
+    <sheet name="Test Results Summary" r:id="rId7" sheetId="5"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="16"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="303">
   <si>
     <t>Test Results Summary - 2025-11-10 12:10:50</t>
   </si>
@@ -402,6 +402,554 @@
   </si>
   <si>
     <t>Cross-Browser Enhanced</t>
+  </si>
+  <si>
+    <t>Test Results Summary - 2025-11-11 10:10:38</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: PASSED (1 run)</t>
+  </si>
+  <si>
+    <t>Total: 2</t>
+  </si>
+  <si>
+    <t>Passed: 2</t>
+  </si>
+  <si>
+    <t>Duration: 51s</t>
+  </si>
+  <si>
+    <t>Cross-Browser Test Feature</t>
+  </si>
+  <si>
+    <t>Time: 10:10:38 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>10:10:38</t>
+  </si>
+  <si>
+    <t>Runner01_KFoneLogin</t>
+  </si>
+  <si>
+    <t>51s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:10:38 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>25.5s</t>
+  </si>
+  <si>
+    <t>2 of 327 (0.6%)</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>2 scenarios</t>
+  </si>
+  <si>
+    <t>2 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:10:38 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 10:27:47</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: ALL_PASSED (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 8</t>
+  </si>
+  <si>
+    <t>Passed: 8</t>
+  </si>
+  <si>
+    <t>Duration: 6m 19s</t>
+  </si>
+  <si>
+    <t>Time: 10:27:47 | Total: 6 | Pass: 6 | Fail: 0</t>
+  </si>
+  <si>
+    <t>10:27:47</t>
+  </si>
+  <si>
+    <t>5m 28s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:27:47 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>47.4s</t>
+  </si>
+  <si>
+    <t>8 of 327 (2.4%)</t>
+  </si>
+  <si>
+    <t>6m 19s</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>8 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:27:47 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 10:31:04</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: ALL_PASSED (3 runs)</t>
+  </si>
+  <si>
+    <t>Total: 15</t>
+  </si>
+  <si>
+    <t>Passed: 15</t>
+  </si>
+  <si>
+    <t>Duration: 8m 6s</t>
+  </si>
+  <si>
+    <t>UI Header Validation</t>
+  </si>
+  <si>
+    <t>Time: 10:31:04 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Header displays KF Talent Suite logo that navigates to KFONE Home page when clicked</t>
+  </si>
+  <si>
+    <t>Verify Header displays Client name and navigates to KFONE Clients page when clicked</t>
+  </si>
+  <si>
+    <t>Navigate to KFONE Home Page</t>
+  </si>
+  <si>
+    <t>Validate User Profile and Logout functionality from Job Mapping UI</t>
+  </si>
+  <si>
+    <t>10:31:04</t>
+  </si>
+  <si>
+    <t>Runner03_ValidateJobmappingHeaderSection</t>
+  </si>
+  <si>
+    <t>1m 47s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:31:04 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>32.4s</t>
+  </si>
+  <si>
+    <t>2 of 55 (3.6%)</t>
+  </si>
+  <si>
+    <t>15 of 327 (4.6%)</t>
+  </si>
+  <si>
+    <t>8m 6s</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>9 scenarios</t>
+  </si>
+  <si>
+    <t>15 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 10:31:04 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 11:17:43</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: FAILED (4 runs)</t>
+  </si>
+  <si>
+    <t>Total: 76</t>
+  </si>
+  <si>
+    <t>Passed: 67</t>
+  </si>
+  <si>
+    <t>Failed: 9</t>
+  </si>
+  <si>
+    <t>Duration: 53m 8s</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 6 | Pass: 6 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 16 | Pass: 15 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in verifying user navigated to KFONE Home Page
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.verify_user_navigated_to_kfone_home_page(PO01_KFoneLogin.java:868)</t>
+  </si>
+  <si>
+    <t>Validate page title and description are properly displayed</t>
+  </si>
+  <si>
+    <t>Validate search bar for organization jobs</t>
+  </si>
+  <si>
+    <t>Validate filter dropdown and available options</t>
+  </si>
+  <si>
+    <t>Verify Add More Jobs button navigation</t>
+  </si>
+  <si>
+    <t>Verify count of job profiles is correctly showing on top of Job Profiles listing table</t>
+  </si>
+  <si>
+    <t>Verify Organization Job details of first profile</t>
+  </si>
+  <si>
+    <t>Verify Profile Details Popup opens on click of Matched Success Profile</t>
+  </si>
+  <si>
+    <t>Verify View Other Matches button is available on each Matched success profile</t>
+  </si>
+  <si>
+    <t>Search for the Job Profile using Job Name Substring</t>
+  </si>
+  <si>
+    <t>Verify Publish Selected button is Enabled and Disabled based on profile selection and deselection respectively</t>
+  </si>
+  <si>
+    <t>Verify job profiles listing table title and headers</t>
+  </si>
+  <si>
+    <t>User can publish matched success profiles</t>
+  </si>
+  <si>
+    <t>Verify view published toggle button functionality to display Unpublished and Published job profiles in the listing table</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>User publishes job profile from the profile details popup</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile moved to View Published screen</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile is displaying as Custom Profile in HCM Sync Profiles screen in PM</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile is displaying in jobs page in Architect Application</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 8 | Pass: 6 | Fail: 2</t>
+  </si>
+  <si>
+    <t>User filters by function and verifies all subfunctions are auto-selected</t>
+  </si>
+  <si>
+    <t>User validates search bar functionality in Functions Subfunctions filter</t>
+  </si>
+  <si>
+    <t>User filters by specific subfunctions within a function</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in clicking Functions / Subfunctions dropdown in Filters...Please Investigate!!!
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.click_on_functions_subfunctions_filters_dropdown_button(PO11_ValidateJobMappingFiltersFunctionality.java:546)</t>
+  </si>
+  <si>
+    <t>User filters by multiple subfunctions within a function</t>
+  </si>
+  <si>
+    <t>User clears individual function subfunction filter using clear(x) button</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 13 | Pass: 7 | Fail: 6</t>
+  </si>
+  <si>
+    <t>Verify Title and Description of HCM Sync Profiles</t>
+  </si>
+  <si>
+    <t>Verify count of job profiles is correctly showing on top of Job Profiles listing table in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Verify Search bar component is available in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Verify available filter options in Filters dropdown</t>
+  </si>
+  <si>
+    <t>Apply and clear KF Grade filter in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: expected [Your profiles are being exported. This may take a few minutes to complete.] but found [Your profiles are being exported. This may take a few minutes to complete]
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at org.testng.Assert.failNotEquals(Assert.java:1578)
+  at org.testng.Assert.assertEqualsImpl(Assert.java:150)
+  at org.testng.Assert.assertEquals(Assert.java:132)
+  at org.testng.Assert.assertEquals(Assert.java:656)</t>
+  </si>
+  <si>
+    <t>Apply and clear Levels filter in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Apply Functions or Subfunctions filter in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Apply Profile Status filter in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Verify job profiles listing table headers in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Verify Sync with HCM button is Enabled and Disabled based on profile selection and deselection respectively in HCM Sync Profiles screen</t>
+  </si>
+  <si>
+    <t>Verify Sync with HCM button functionality and Verify PopUp</t>
+  </si>
+  <si>
+    <t>Time: 11:17:43 | Total: 9 | Pass: 9 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Verify Unpublished Profiles count in Job Mapping Screen BEFORE Publishing Selected Profiles in JAM</t>
+  </si>
+  <si>
+    <t>Verify Published Profiles count in View Published Screen BEFORE Publishing Selected Profiles in JAM</t>
+  </si>
+  <si>
+    <t>Select Loaded Profiles in Job Mapping screen</t>
+  </si>
+  <si>
+    <t>Publish Selected profiles in Job Mapping screen</t>
+  </si>
+  <si>
+    <t>Verify Unpublished Profiles count in Job Mapping Screen AFTER Publishing Selected Profiles in JAM</t>
+  </si>
+  <si>
+    <t>Verify Published Profiles count in View Published Screen AFTER Publishing Selected Profiles in JAM</t>
+  </si>
+  <si>
+    <t>11:17:43</t>
+  </si>
+  <si>
+    <t>Runner01_KFoneLogin, Runner02_ValidateAddMoreJobsFunctionality, Runner04_VerifyJobMappingPageComponents, Runner08_PublishJobFromDetailsPopup, Runner11c_ValidateFunctionSubfunctionFilters, Runner22_ValidateHCMSyncProfilesTab_PM, Runner37_ValidateSelectAndPublishLoadedProfiles_JAM</t>
+  </si>
+  <si>
+    <t>85.0%</t>
+  </si>
+  <si>
+    <t>45m 2s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 11:17:43 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOW</t>
+  </si>
+  <si>
+    <t>88.0%</t>
+  </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>41.9s</t>
+  </si>
+  <si>
+    <t>76 of 327 (23.2%)</t>
+  </si>
+  <si>
+    <t>53m 8s</t>
+  </si>
+  <si>
+    <t>23.2%</t>
+  </si>
+  <si>
+    <t>68 scenarios</t>
+  </si>
+  <si>
+    <t>67 Passed</t>
+  </si>
+  <si>
+    <t>9 Failed</t>
+  </si>
+  <si>
+    <t>RISK ANALYSIS</t>
+  </si>
+  <si>
+    <t>High Risk Features:</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 11:17:43 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 13:21:34</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: FAILED (5 runs)</t>
+  </si>
+  <si>
+    <t>Total: 89</t>
+  </si>
+  <si>
+    <t>Passed: 76</t>
+  </si>
+  <si>
+    <t>Failed: 13</t>
+  </si>
+  <si>
+    <t>Duration: 61m 22s</t>
+  </si>
+  <si>
+    <t>Validate HCM Sync Profiles screen functionality in PM</t>
+  </si>
+  <si>
+    <t>Time: 13:21:34 | Total: 13 | Pass: 9 | Fail: 4</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in clicking First job profile checkbox in HCM Sync Profiles screen in PM...Please Investigate!!!
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO22_ValidateHCMSyncProfilesScreen_PM.click_on_first_profile_checkbox_in_hcm_sync_profiles_tab(PO22_ValidateHCMSyncProfilesScreen_PM.java:1488)</t>
+  </si>
+  <si>
+    <t>13:21:34</t>
+  </si>
+  <si>
+    <t>Runner22_ValidateHCMSyncProfilesTab_PM</t>
+  </si>
+  <si>
+    <t>69.0%</t>
+  </si>
+  <si>
+    <t>8m 14s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 13:21:34 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEDIUM</t>
+  </si>
+  <si>
+    <t>41.4s</t>
+  </si>
+  <si>
+    <t>4 of 55 (7.3%)</t>
+  </si>
+  <si>
+    <t>89 of 327 (27.2%)</t>
+  </si>
+  <si>
+    <t>61m 22s</t>
+  </si>
+  <si>
+    <t>27.2%</t>
+  </si>
+  <si>
+    <t>7.3%</t>
+  </si>
+  <si>
+    <t>61 scenarios</t>
+  </si>
+  <si>
+    <t>13 scenarios</t>
+  </si>
+  <si>
+    <t>76 Passed</t>
+  </si>
+  <si>
+    <t>13 Failed</t>
+  </si>
+  <si>
+    <t>Critical Failures:</t>
+  </si>
+  <si>
+    <t>Login to KFONE Application and Find client with access to Profile Manager Application, Validate HCM Sync Profiles screen functionality in PM</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 13:21:34 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 15:03:19</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: FAILED (6 runs)</t>
+  </si>
+  <si>
+    <t>Total: 102</t>
+  </si>
+  <si>
+    <t>Passed: 88</t>
+  </si>
+  <si>
+    <t>Failed: 14</t>
+  </si>
+  <si>
+    <t>Duration: 68m 5s</t>
+  </si>
+  <si>
+    <t>Time: 15:03:19 | Total: 13 | Pass: 12 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: expected [true] but found [false]
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at org.testng.Assert.failNotEquals(Assert.java:1578)
+  at org.testng.Assert.assertTrue(Assert.java:57)
+  at org.testng.Assert.assertTrue(Assert.java:67)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO22_ValidateHCMSyncProfilesScreen_PM.user_should_verify_sync_with_hcm_button_is_disabled_in_hcm_sync_profiles_tab(PO22_ValidateHCMSyncProfilesScreen_PM.java:1718)</t>
+  </si>
+  <si>
+    <t>15:03:19</t>
+  </si>
+  <si>
+    <t>92.0%</t>
+  </si>
+  <si>
+    <t>6m 43s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 15:03:19 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 15:03:19 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
 </sst>
 </file>
@@ -409,7 +957,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="53">
+  <fonts count="689">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -674,8 +1222,2972 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +4284,16 @@
         <fgColor indexed="44"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -829,7 +4351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="689">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -985,336 +4507,1923 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="21" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="21" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="53.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.7578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.25390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="34.109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.34375" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="25">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s" s="22">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s" s="24">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s" s="26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="30">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="30">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s" s="27">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s" s="28">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s" s="29">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s" s="31">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s" s="31">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="3" max="3" width="14.24609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.99609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="37.40234375" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="14.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.08984375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.5625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="32">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s" s="32">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s" s="32">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s" s="32">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="32">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s" s="32">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s" s="32">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s" s="32">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s" s="33">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s" s="33">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s" s="33">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s" s="33">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="G2" t="n" s="33">
-        <v>6.0</v>
-      </c>
-      <c r="H2" t="n" s="33">
-        <v>6.0</v>
-      </c>
-      <c r="I2" t="n" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="s" s="33">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s" s="33">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s" s="34">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +6432,7 @@
     <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.1640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
@@ -1331,231 +6440,255 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="36">
+      <c r="A1" t="s" s="670">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="37">
-        <v>47</v>
+      <c r="A2" t="s" s="671">
+        <v>301</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="35">
+      <c r="A4" t="s" s="669">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="43">
+      <c r="A5" t="s" s="677">
         <v>49</v>
       </c>
-      <c r="B5" t="s" s="38">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="43">
+      <c r="B5" t="s" s="673">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s" s="677">
         <v>51</v>
       </c>
-      <c r="E5" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s" s="43">
+      <c r="E5" t="s" s="674">
+        <v>247</v>
+      </c>
+      <c r="G5" t="s" s="677">
         <v>53</v>
       </c>
-      <c r="H5" t="s" s="38">
-        <v>54</v>
+      <c r="H5" t="s" s="674">
+        <v>276</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="43">
+      <c r="A6" t="s" s="677">
         <v>55</v>
       </c>
-      <c r="B6" t="s" s="38">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s" s="43">
+      <c r="B6" t="s" s="673">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s" s="677">
         <v>56</v>
       </c>
-      <c r="E6" t="s" s="38">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s" s="43">
+      <c r="E6" t="s" s="675">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s" s="677">
         <v>57</v>
       </c>
-      <c r="H6" t="s" s="42">
+      <c r="H6" t="s" s="676">
         <v>58</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="35">
+      <c r="A8" t="s" s="669">
         <v>59</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="43">
+      <c r="A9" t="s" s="677">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="42">
+      <c r="B9" t="s" s="676">
         <v>61</v>
       </c>
-      <c r="D9" t="s" s="43">
+      <c r="D9" t="s" s="677">
         <v>62</v>
       </c>
-      <c r="E9" t="s" s="42">
+      <c r="E9" t="s" s="676">
         <v>63</v>
       </c>
-      <c r="G9" t="s" s="43">
+      <c r="G9" t="s" s="677">
         <v>64</v>
       </c>
-      <c r="H9" t="s" s="41">
-        <v>65</v>
+      <c r="H9" t="s" s="675">
+        <v>277</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="43">
+      <c r="A10" t="s" s="677">
         <v>66</v>
       </c>
-      <c r="B10" t="s" s="41">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s" s="43">
+      <c r="B10" t="s" s="675">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s" s="677">
         <v>68</v>
       </c>
-      <c r="E10" t="s" s="41">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s" s="43">
+      <c r="E10" t="s" s="675">
+        <v>279</v>
+      </c>
+      <c r="G10" t="s" s="677">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="42">
+      <c r="H10" t="s" s="676">
         <v>71</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="43">
+      <c r="A11" t="s" s="677">
         <v>72</v>
       </c>
-      <c r="B11" t="s" s="42">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s" s="43">
+      <c r="B11" t="s" s="676">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s" s="677">
         <v>73</v>
       </c>
-      <c r="E11" t="s" s="41">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s" s="43">
+      <c r="E11" t="s" s="675">
+        <v>281</v>
+      </c>
+      <c r="G11" t="s" s="677">
         <v>75</v>
       </c>
-      <c r="H11" t="s" s="41">
-        <v>74</v>
+      <c r="H11" t="s" s="675">
+        <v>282</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="35">
+      <c r="A13" t="s" s="669">
         <v>76</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="43">
+      <c r="A14" t="s" s="677">
         <v>77</v>
       </c>
-      <c r="B14" t="s" s="40">
+      <c r="B14" t="s" s="672">
+        <v>283</v>
+      </c>
+      <c r="D14" t="s" s="677">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s" s="673">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="true">
+      <c r="A15" t="s" s="677">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s" s="672">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s" s="677">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s" s="674">
         <v>78</v>
       </c>
-      <c r="D14" t="s" s="43">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s" s="40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="43">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s" s="41">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s" s="43">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s" s="40">
-        <v>78</v>
-      </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="43">
+      <c r="A16" t="s" s="677">
         <v>83</v>
       </c>
-      <c r="B16" t="s" s="38">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s" s="38">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s" s="38">
+      <c r="B16" t="s" s="672">
+        <v>285</v>
+      </c>
+      <c r="D16" t="s" s="675">
+        <v>286</v>
+      </c>
+      <c r="F16" t="s" s="672">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="35">
+      <c r="A18" t="s" s="669">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="43">
+      <c r="A19" t="s" s="677">
         <v>88</v>
       </c>
-      <c r="B19" t="s" s="42">
+      <c r="B19" t="s" s="676">
         <v>89</v>
       </c>
-      <c r="D19" t="s" s="43">
+      <c r="D19" t="s" s="677">
         <v>90</v>
       </c>
-      <c r="E19" t="s" s="38">
+      <c r="E19" t="s" s="672">
         <v>91</v>
       </c>
-      <c r="G19" t="s" s="43">
+      <c r="G19" t="s" s="677">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="38">
+      <c r="H19" t="s" s="672">
         <v>93</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="43">
+      <c r="A20" t="s" s="677">
         <v>94</v>
       </c>
-      <c r="B20" t="s" s="38">
+      <c r="B20" t="s" s="672">
         <v>95</v>
       </c>
-      <c r="D20" t="s" s="43">
+      <c r="D20" t="s" s="677">
         <v>96</v>
       </c>
-      <c r="E20" t="s" s="38">
+      <c r="E20" t="s" s="672">
         <v>97</v>
       </c>
-      <c r="G20" t="s" s="43">
+      <c r="G20" t="s" s="677">
         <v>98</v>
       </c>
-      <c r="H20" t="s" s="39">
+      <c r="H20" t="s" s="673">
         <v>99</v>
       </c>
     </row>
+    <row r="22" ht="18.0" customHeight="true">
+      <c r="A22" t="s" s="669">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" ht="18.0" customHeight="true">
+      <c r="A23" t="s" s="677">
+        <v>287</v>
+      </c>
+      <c r="B23" t="s" s="678">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" ht="18.0" customHeight="true">
+      <c r="A24" t="s" s="677">
+        <v>259</v>
+      </c>
+      <c r="B24" t="s" s="679">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -1574,206 +6707,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="45">
+      <c r="A1" t="s" s="681">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="46">
-        <v>101</v>
+      <c r="A2" t="s" s="682">
+        <v>302</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="44">
+      <c r="A4" t="s" s="680">
         <v>48</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="52">
+      <c r="A5" t="s" s="688">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="50">
+      <c r="B5" t="s" s="686">
         <v>103</v>
       </c>
-      <c r="D5" t="s" s="52">
+      <c r="D5" t="s" s="688">
         <v>104</v>
       </c>
-      <c r="E5" t="s" s="50">
+      <c r="E5" t="s" s="686">
         <v>103</v>
       </c>
-      <c r="G5" t="s" s="52">
+      <c r="G5" t="s" s="688">
         <v>53</v>
       </c>
-      <c r="H5" t="s" s="50">
+      <c r="H5" t="s" s="686">
         <v>105</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="52">
+      <c r="A6" t="s" s="688">
         <v>51</v>
       </c>
-      <c r="B6" t="s" s="50">
+      <c r="B6" t="s" s="686">
         <v>106</v>
       </c>
-      <c r="D6" t="s" s="52">
+      <c r="D6" t="s" s="688">
         <v>56</v>
       </c>
-      <c r="E6" t="s" s="50">
+      <c r="E6" t="s" s="686">
         <v>107</v>
       </c>
-      <c r="G6" t="s" s="52">
+      <c r="G6" t="s" s="688">
         <v>57</v>
       </c>
-      <c r="H6" t="s" s="47">
+      <c r="H6" t="s" s="683">
         <v>108</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="44">
+      <c r="A8" t="s" s="680">
         <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="52">
+      <c r="A9" t="s" s="688">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" t="s" s="687">
         <v>61</v>
       </c>
-      <c r="D9" t="s" s="52">
+      <c r="D9" t="s" s="688">
         <v>62</v>
       </c>
-      <c r="E9" t="s" s="51">
+      <c r="E9" t="s" s="687">
         <v>63</v>
       </c>
-      <c r="G9" t="s" s="52">
+      <c r="G9" t="s" s="688">
         <v>109</v>
       </c>
-      <c r="H9" t="s" s="51">
+      <c r="H9" t="s" s="687">
         <v>110</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="52">
+      <c r="A10" t="s" s="688">
         <v>66</v>
       </c>
-      <c r="B10" t="s" s="50">
+      <c r="B10" t="s" s="686">
         <v>111</v>
       </c>
-      <c r="D10" t="s" s="52">
+      <c r="D10" t="s" s="688">
         <v>112</v>
       </c>
-      <c r="E10" t="s" s="48">
+      <c r="E10" t="s" s="684">
         <v>113</v>
       </c>
-      <c r="G10" t="s" s="52">
+      <c r="G10" t="s" s="688">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="51">
+      <c r="H10" t="s" s="687">
         <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="52">
+      <c r="A11" t="s" s="688">
         <v>72</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" t="s" s="687">
         <v>110</v>
       </c>
-      <c r="D11" t="s" s="52">
+      <c r="D11" t="s" s="688">
         <v>114</v>
       </c>
-      <c r="E11" t="s" s="47">
+      <c r="E11" t="s" s="683">
         <v>115</v>
       </c>
-      <c r="G11" t="s" s="52">
+      <c r="G11" t="s" s="688">
         <v>116</v>
       </c>
-      <c r="H11" t="s" s="50">
+      <c r="H11" t="s" s="686">
         <v>103</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="44">
+      <c r="A13" t="s" s="680">
         <v>117</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="52">
+      <c r="A14" t="s" s="688">
         <v>118</v>
       </c>
-      <c r="B14" t="s" s="51">
+      <c r="B14" t="s" s="687">
         <v>119</v>
       </c>
-      <c r="D14" t="s" s="52">
+      <c r="D14" t="s" s="688">
         <v>120</v>
       </c>
-      <c r="E14" t="s" s="51">
+      <c r="E14" t="s" s="687">
         <v>119</v>
       </c>
-      <c r="G14" t="s" s="52">
+      <c r="G14" t="s" s="688">
         <v>121</v>
       </c>
-      <c r="H14" t="s" s="51">
+      <c r="H14" t="s" s="687">
         <v>119</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="52">
+      <c r="A15" t="s" s="688">
         <v>83</v>
       </c>
-      <c r="B15" t="s" s="47">
+      <c r="B15" t="s" s="683">
         <v>122</v>
       </c>
-      <c r="D15" t="s" s="47">
+      <c r="D15" t="s" s="683">
         <v>85</v>
       </c>
-      <c r="F15" t="s" s="47">
+      <c r="F15" t="s" s="683">
         <v>86</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="44">
+      <c r="A17" t="s" s="680">
         <v>123</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="52">
+      <c r="A18" t="s" s="688">
         <v>124</v>
       </c>
-      <c r="B18" t="s" s="47">
+      <c r="B18" t="s" s="683">
         <v>125</v>
       </c>
-      <c r="D18" t="s" s="52">
+      <c r="D18" t="s" s="688">
         <v>90</v>
       </c>
-      <c r="E18" t="s" s="47">
+      <c r="E18" t="s" s="683">
         <v>95</v>
       </c>
-      <c r="G18" t="s" s="52">
+      <c r="G18" t="s" s="688">
         <v>92</v>
       </c>
-      <c r="H18" t="s" s="48">
+      <c r="H18" t="s" s="684">
         <v>93</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="52">
+      <c r="A19" t="s" s="688">
         <v>126</v>
       </c>
-      <c r="B19" t="s" s="47">
+      <c r="B19" t="s" s="683">
         <v>9</v>
       </c>
-      <c r="D19" t="s" s="52">
+      <c r="D19" t="s" s="688">
         <v>96</v>
       </c>
-      <c r="E19" t="s" s="48">
+      <c r="E19" t="s" s="684">
         <v>127</v>
       </c>
-      <c r="G19" t="s" s="52">
+      <c r="G19" t="s" s="688">
         <v>98</v>
       </c>
-      <c r="H19" t="s" s="48">
+      <c r="H19" t="s" s="684">
         <v>128</v>
       </c>
     </row>
@@ -1788,4 +6921,2779 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="251.67578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s" s="32">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="32">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s" s="32">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s" s="32">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="32">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s" s="32">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s" s="32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="667">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s" s="667">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s" s="667">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="667">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="667">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="667">
+        <v>271</v>
+      </c>
+      <c r="G2" t="n" s="667">
+        <v>13.0</v>
+      </c>
+      <c r="H2" t="n" s="667">
+        <v>12.0</v>
+      </c>
+      <c r="I2" t="n" s="667">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="667">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="667">
+        <v>299</v>
+      </c>
+      <c r="L2" t="s" s="667">
+        <v>300</v>
+      </c>
+      <c r="M2" t="s" s="668">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="580">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s" s="580">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s" s="580">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="580">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s" s="580">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s" s="580">
+        <v>271</v>
+      </c>
+      <c r="G3" t="n" s="580">
+        <v>13.0</v>
+      </c>
+      <c r="H3" t="n" s="580">
+        <v>9.0</v>
+      </c>
+      <c r="I3" t="n" s="580">
+        <v>4.0</v>
+      </c>
+      <c r="J3" t="n" s="580">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="580">
+        <v>272</v>
+      </c>
+      <c r="L3" t="s" s="580">
+        <v>273</v>
+      </c>
+      <c r="M3" t="s" s="581">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="494">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s" s="494">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s" s="494">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="494">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s" s="494">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s" s="494">
+        <v>242</v>
+      </c>
+      <c r="G4" t="n" s="494">
+        <v>61.0</v>
+      </c>
+      <c r="H4" t="n" s="494">
+        <v>52.0</v>
+      </c>
+      <c r="I4" t="n" s="494">
+        <v>9.0</v>
+      </c>
+      <c r="J4" t="n" s="494">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="494">
+        <v>243</v>
+      </c>
+      <c r="L4" t="s" s="494">
+        <v>244</v>
+      </c>
+      <c r="M4" t="s" s="495">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="169">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s" s="169">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s" s="169">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="169">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s" s="169">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s" s="169">
+        <v>174</v>
+      </c>
+      <c r="G5" t="n" s="169">
+        <v>7.0</v>
+      </c>
+      <c r="H5" t="n" s="169">
+        <v>7.0</v>
+      </c>
+      <c r="I5" t="n" s="169">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="169">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s" s="169">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="169">
+        <v>175</v>
+      </c>
+      <c r="M5" t="s" s="170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="114">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s" s="114">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s" s="114">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s" s="114">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="114">
+        <v>43</v>
+      </c>
+      <c r="G6" t="n" s="114">
+        <v>6.0</v>
+      </c>
+      <c r="H6" t="n" s="114">
+        <v>6.0</v>
+      </c>
+      <c r="I6" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="s" s="114">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s" s="114">
+        <v>154</v>
+      </c>
+      <c r="M6" t="s" s="115">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="64">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s" s="64">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s" s="64">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="64">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s" s="64">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s" s="64">
+        <v>138</v>
+      </c>
+      <c r="G7" t="n" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="I7" t="n" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="s" s="64">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s" s="64">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s" s="65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="33">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="33">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="33">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="33">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s" s="33">
+        <v>43</v>
+      </c>
+      <c r="G8" t="n" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="H8" t="n" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="I8" t="n" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="s" s="33">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s" s="33">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s" s="34">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="43.875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="110.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.4296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.25390625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="36.10546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="188.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="53">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="53">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="53">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="53">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="53">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="53">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="57">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s" s="57">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="54">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="55">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="56">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s" s="58">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s" s="58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="62">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="63">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="87">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s" s="87">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="84">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s" s="85">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="86">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s" s="88">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s" s="88">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="92">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s" s="92">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="89">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="90">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="91">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s" s="93">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s" s="93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="97">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="97">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s" s="94">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="95">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="96">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s" s="98">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s" s="98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="102">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s" s="99">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="100">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="101">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s" s="103">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s" s="103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="107">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s" s="107">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s" s="104">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s" s="105">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s" s="106">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s" s="108">
+        <v>152</v>
+      </c>
+      <c r="G12" t="s" s="108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="112">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s" s="112">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="109">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="110">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="111">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s" s="113">
+        <v>152</v>
+      </c>
+      <c r="G13" t="s" s="113">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="137">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="137">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s" s="134">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s" s="135">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="136">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s" s="138">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s" s="138">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="142">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s" s="142">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="139">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="140">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="141">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="143">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s" s="143">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="147">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s" s="147">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s" s="144">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="145">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="146">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="148">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s" s="148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="152">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s" s="152">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s" s="149">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s" s="150">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="153">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s" s="153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="157">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s" s="157">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s" s="154">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s" s="155">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="156">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="158">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s" s="158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="162">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="162">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s" s="159">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="160">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s" s="161">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s" s="163">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s" s="163">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="167">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s" s="167">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s" s="164">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s" s="165">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s" s="166">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s" s="168">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s" s="168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="192">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s" s="192">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s" s="189">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s" s="190">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s" s="191">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s" s="193">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s" s="193">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="197">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="194">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="195">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s" s="196">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s" s="198">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s" s="198">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="202">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s" s="202">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s" s="199">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s" s="200">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s" s="201">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s" s="203">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s" s="203">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="207">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s" s="207">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s" s="204">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="205">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s" s="206">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s" s="208">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s" s="208">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="212">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s" s="212">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s" s="209">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s" s="210">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s" s="211">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s" s="213">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s" s="213">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="217">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s" s="217">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s" s="214">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s" s="215">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s" s="216">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s" s="218">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s" s="218">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="222">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s" s="222">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s" s="219">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s" s="220">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s" s="221">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s" s="223">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s" s="223">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="227">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s" s="227">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s" s="224">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="225">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s" s="226">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s" s="228">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s" s="228">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="232">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s" s="232">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s" s="229">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s" s="230">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s" s="231">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s" s="233">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s" s="233">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="237">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s" s="237">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s" s="234">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s" s="235">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s" s="236">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s" s="238">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s" s="238">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="242">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s" s="242">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s" s="239">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s" s="240">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s" s="241">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s" s="243">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s" s="243">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="247">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s" s="247">
+        <v>196</v>
+      </c>
+      <c r="C32" t="s" s="244">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s" s="245">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s" s="246">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s" s="248">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s" s="248">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="252">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s" s="252">
+        <v>197</v>
+      </c>
+      <c r="C33" t="s" s="249">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s" s="250">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s" s="251">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s" s="253">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s" s="253">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="257">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s" s="257">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s" s="254">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s" s="255">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s" s="256">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s" s="258">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s" s="258">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="262">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s" s="262">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s" s="259">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s" s="260">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s" s="261">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s" s="263">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s" s="263">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="267">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s" s="267">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s" s="264">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s" s="265">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s" s="266">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s" s="268">
+        <v>194</v>
+      </c>
+      <c r="G36" t="s" s="268">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="272">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s" s="272">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s" s="269">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s" s="270">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s" s="271">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s" s="273">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s" s="273">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="277">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s" s="277">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s" s="274">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s" s="275">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s" s="276">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s" s="278">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s" s="278">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="282">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s" s="282">
+        <v>203</v>
+      </c>
+      <c r="C39" t="s" s="279">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s" s="280">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s" s="281">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s" s="283">
+        <v>194</v>
+      </c>
+      <c r="G39" t="s" s="283">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="287">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s" s="287">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s" s="284">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s" s="285">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s" s="286">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s" s="288">
+        <v>194</v>
+      </c>
+      <c r="G40" t="s" s="288">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="292">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s" s="292">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s" s="289">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s" s="290">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s" s="291">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s" s="293">
+        <v>194</v>
+      </c>
+      <c r="G41" t="s" s="293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="297">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s" s="297">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s" s="294">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s" s="295">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s" s="296">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s" s="298">
+        <v>194</v>
+      </c>
+      <c r="G42" t="s" s="298">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="302">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s" s="302">
+        <v>207</v>
+      </c>
+      <c r="C43" t="s" s="299">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s" s="300">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s" s="301">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s" s="303">
+        <v>194</v>
+      </c>
+      <c r="G43" t="s" s="303">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="307">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s" s="307">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s" s="304">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s" s="305">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s" s="306">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s" s="308">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s" s="308">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="312">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s" s="312">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s" s="309">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s" s="310">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s" s="311">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s" s="313">
+        <v>209</v>
+      </c>
+      <c r="G45" t="s" s="313">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="317">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s" s="317">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="314">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s" s="315">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s" s="316">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s" s="318">
+        <v>209</v>
+      </c>
+      <c r="G46" t="s" s="318">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="322">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s" s="322">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s" s="319">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s" s="320">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s" s="321">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s" s="323">
+        <v>209</v>
+      </c>
+      <c r="G47" t="s" s="323">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="327">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s" s="327">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s" s="324">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s" s="325">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s" s="326">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s" s="328">
+        <v>209</v>
+      </c>
+      <c r="G48" t="s" s="328">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="332">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s" s="332">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s" s="329">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s" s="330">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s" s="331">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s" s="333">
+        <v>209</v>
+      </c>
+      <c r="G49" t="s" s="333">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="337">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s" s="337">
+        <v>212</v>
+      </c>
+      <c r="C50" t="s" s="334">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s" s="335">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s" s="336">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s" s="338">
+        <v>209</v>
+      </c>
+      <c r="G50" t="s" s="338">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="342">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s" s="342">
+        <v>213</v>
+      </c>
+      <c r="C51" t="s" s="339">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s" s="340">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s" s="341">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s" s="343">
+        <v>209</v>
+      </c>
+      <c r="G51" t="s" s="343">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="347">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s" s="347">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s" s="344">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s" s="345">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s" s="346">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s" s="348">
+        <v>214</v>
+      </c>
+      <c r="G52" t="s" s="348">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="352">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s" s="352">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s" s="349">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s" s="350">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s" s="351">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s" s="353">
+        <v>214</v>
+      </c>
+      <c r="G53" t="s" s="353">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="357">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s" s="357">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s" s="354">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s" s="355">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s" s="356">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s" s="358">
+        <v>214</v>
+      </c>
+      <c r="G54" t="s" s="358">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="362">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s" s="362">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s" s="359">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s" s="360">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s" s="361">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s" s="363">
+        <v>214</v>
+      </c>
+      <c r="G55" t="s" s="363">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="367">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s" s="367">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s" s="364">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s" s="365">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s" s="366">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s" s="368">
+        <v>214</v>
+      </c>
+      <c r="G56" t="s" s="368">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="372">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s" s="372">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s" s="369">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s" s="370">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s" s="371">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s" s="373">
+        <v>214</v>
+      </c>
+      <c r="G57" t="s" s="373">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="377">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s" s="377">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s" s="374">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s" s="375">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s" s="376">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s" s="378">
+        <v>214</v>
+      </c>
+      <c r="G58" t="s" s="378">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="382">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s" s="382">
+        <v>220</v>
+      </c>
+      <c r="C59" t="s" s="379">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s" s="380">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s" s="381">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s" s="383">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s" s="383">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="387">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s" s="387">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s" s="384">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s" s="385">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s" s="386">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s" s="388">
+        <v>221</v>
+      </c>
+      <c r="G60" t="s" s="388">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="392">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s" s="392">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s" s="389">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s" s="390">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s" s="391">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s" s="393">
+        <v>221</v>
+      </c>
+      <c r="G61" t="s" s="393">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="397">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s" s="397">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s" s="394">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s" s="395">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s" s="396">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s" s="398">
+        <v>221</v>
+      </c>
+      <c r="G62" t="s" s="398">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="402">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s" s="402">
+        <v>223</v>
+      </c>
+      <c r="C63" t="s" s="399">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s" s="400">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s" s="401">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s" s="403">
+        <v>221</v>
+      </c>
+      <c r="G63" t="s" s="403">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="407">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s" s="407">
+        <v>224</v>
+      </c>
+      <c r="C64" t="s" s="404">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s" s="405">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s" s="406">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s" s="408">
+        <v>221</v>
+      </c>
+      <c r="G64" t="s" s="408">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="412">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s" s="412">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s" s="409">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s" s="410">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s" s="411">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s" s="413">
+        <v>221</v>
+      </c>
+      <c r="G65" t="s" s="413">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="417">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s" s="417">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s" s="414">
+        <v>107</v>
+      </c>
+      <c r="D66" t="s" s="415">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s" s="416">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s" s="418">
+        <v>221</v>
+      </c>
+      <c r="G66" t="s" s="418">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="422">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s" s="422">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s" s="419">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s" s="420">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s" s="421">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s" s="423">
+        <v>221</v>
+      </c>
+      <c r="G67" t="s" s="423">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="427">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s" s="427">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s" s="424">
+        <v>107</v>
+      </c>
+      <c r="D68" t="s" s="425">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s" s="426">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s" s="428">
+        <v>221</v>
+      </c>
+      <c r="G68" t="s" s="428">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="432">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s" s="432">
+        <v>230</v>
+      </c>
+      <c r="C69" t="s" s="429">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s" s="430">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s" s="431">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s" s="433">
+        <v>221</v>
+      </c>
+      <c r="G69" t="s" s="433">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="437">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s" s="437">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s" s="434">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s" s="435">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s" s="436">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="438">
+        <v>221</v>
+      </c>
+      <c r="G70" t="s" s="438">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="442">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s" s="442">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s" s="439">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s" s="440">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s" s="441">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s" s="443">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s" s="443">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="447">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s" s="447">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s" s="444">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s" s="445">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s" s="446">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s" s="448">
+        <v>221</v>
+      </c>
+      <c r="G72" t="s" s="448">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="452">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s" s="452">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s" s="449">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s" s="450">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s" s="451">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s" s="453">
+        <v>234</v>
+      </c>
+      <c r="G73" t="s" s="453">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="457">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s" s="457">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s" s="454">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s" s="455">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s" s="456">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s" s="458">
+        <v>234</v>
+      </c>
+      <c r="G74" t="s" s="458">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="462">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s" s="462">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s" s="459">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s" s="460">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s" s="461">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s" s="463">
+        <v>234</v>
+      </c>
+      <c r="G75" t="s" s="463">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="467">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s" s="467">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s" s="464">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s" s="465">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s" s="466">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="468">
+        <v>234</v>
+      </c>
+      <c r="G76" t="s" s="468">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="472">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s" s="472">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s" s="469">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s" s="470">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s" s="471">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s" s="473">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s" s="473">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="477">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s" s="477">
+        <v>237</v>
+      </c>
+      <c r="C78" t="s" s="474">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s" s="475">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s" s="476">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s" s="478">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s" s="478">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="482">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s" s="482">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s" s="479">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s" s="480">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s" s="481">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s" s="483">
+        <v>234</v>
+      </c>
+      <c r="G79" t="s" s="483">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="487">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s" s="487">
+        <v>239</v>
+      </c>
+      <c r="C80" t="s" s="484">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s" s="485">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s" s="486">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s" s="488">
+        <v>234</v>
+      </c>
+      <c r="G80" t="s" s="488">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="492">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s" s="492">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s" s="489">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s" s="490">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s" s="491">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s" s="493">
+        <v>234</v>
+      </c>
+      <c r="G81" t="s" s="493">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="518">
+        <v>267</v>
+      </c>
+      <c r="B82" t="s" s="518">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s" s="515">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s" s="516">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s" s="517">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s" s="519">
+        <v>268</v>
+      </c>
+      <c r="G82" t="s" s="519">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="523">
+        <v>267</v>
+      </c>
+      <c r="B83" t="s" s="523">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s" s="520">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s" s="521">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s" s="522">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s" s="524">
+        <v>268</v>
+      </c>
+      <c r="G83" t="s" s="524">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="528">
+        <v>267</v>
+      </c>
+      <c r="B84" t="s" s="528">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s" s="525">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s" s="526">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s" s="527">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s" s="529">
+        <v>268</v>
+      </c>
+      <c r="G84" t="s" s="529">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="533">
+        <v>267</v>
+      </c>
+      <c r="B85" t="s" s="533">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s" s="530">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s" s="531">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s" s="532">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s" s="534">
+        <v>268</v>
+      </c>
+      <c r="G85" t="s" s="534">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="538">
+        <v>267</v>
+      </c>
+      <c r="B86" t="s" s="538">
+        <v>224</v>
+      </c>
+      <c r="C86" t="s" s="535">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s" s="536">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s" s="537">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s" s="539">
+        <v>268</v>
+      </c>
+      <c r="G86" t="s" s="539">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="543">
+        <v>267</v>
+      </c>
+      <c r="B87" t="s" s="543">
+        <v>225</v>
+      </c>
+      <c r="C87" t="s" s="540">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s" s="541">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s" s="542">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s" s="544">
+        <v>268</v>
+      </c>
+      <c r="G87" t="s" s="544">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="548">
+        <v>267</v>
+      </c>
+      <c r="B88" t="s" s="548">
+        <v>226</v>
+      </c>
+      <c r="C88" t="s" s="545">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s" s="546">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s" s="547">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s" s="549">
+        <v>268</v>
+      </c>
+      <c r="G88" t="s" s="549">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="553">
+        <v>267</v>
+      </c>
+      <c r="B89" t="s" s="553">
+        <v>228</v>
+      </c>
+      <c r="C89" t="s" s="550">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s" s="551">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s" s="554">
+        <v>268</v>
+      </c>
+      <c r="G89" t="s" s="554">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="558">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s" s="558">
+        <v>229</v>
+      </c>
+      <c r="C90" t="s" s="555">
+        <v>107</v>
+      </c>
+      <c r="D90" t="s" s="556">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s" s="557">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s" s="559">
+        <v>268</v>
+      </c>
+      <c r="G90" t="s" s="559">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="563">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s" s="563">
+        <v>230</v>
+      </c>
+      <c r="C91" t="s" s="560">
+        <v>107</v>
+      </c>
+      <c r="D91" t="s" s="561">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s" s="562">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s" s="564">
+        <v>268</v>
+      </c>
+      <c r="G91" t="s" s="564">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="568">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s" s="568">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s" s="565">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s" s="566">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s" s="567">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s" s="569">
+        <v>268</v>
+      </c>
+      <c r="G92" t="s" s="569">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="573">
+        <v>267</v>
+      </c>
+      <c r="B93" t="s" s="573">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s" s="570">
+        <v>107</v>
+      </c>
+      <c r="D93" t="s" s="571">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s" s="572">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s" s="574">
+        <v>268</v>
+      </c>
+      <c r="G93" t="s" s="574">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="578">
+        <v>267</v>
+      </c>
+      <c r="B94" t="s" s="578">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s" s="575">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s" s="576">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s" s="577">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s" s="579">
+        <v>268</v>
+      </c>
+      <c r="G94" t="s" s="579">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="605">
+        <v>267</v>
+      </c>
+      <c r="B95" t="s" s="605">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s" s="602">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s" s="603">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s" s="604">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s" s="606">
+        <v>296</v>
+      </c>
+      <c r="G95" t="s" s="606">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="610">
+        <v>267</v>
+      </c>
+      <c r="B96" t="s" s="610">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s" s="607">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s" s="608">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s" s="609">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s" s="611">
+        <v>296</v>
+      </c>
+      <c r="G96" t="s" s="611">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="615">
+        <v>267</v>
+      </c>
+      <c r="B97" t="s" s="615">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s" s="612">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s" s="613">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s" s="614">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s" s="616">
+        <v>296</v>
+      </c>
+      <c r="G97" t="s" s="616">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="620">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s" s="620">
+        <v>223</v>
+      </c>
+      <c r="C98" t="s" s="617">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s" s="618">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s" s="619">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s" s="621">
+        <v>296</v>
+      </c>
+      <c r="G98" t="s" s="621">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="625">
+        <v>267</v>
+      </c>
+      <c r="B99" t="s" s="625">
+        <v>224</v>
+      </c>
+      <c r="C99" t="s" s="622">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s" s="623">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s" s="624">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s" s="626">
+        <v>296</v>
+      </c>
+      <c r="G99" t="s" s="626">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="630">
+        <v>267</v>
+      </c>
+      <c r="B100" t="s" s="630">
+        <v>225</v>
+      </c>
+      <c r="C100" t="s" s="627">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s" s="628">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s" s="629">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s" s="631">
+        <v>296</v>
+      </c>
+      <c r="G100" t="s" s="631">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="635">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s" s="635">
+        <v>226</v>
+      </c>
+      <c r="C101" t="s" s="632">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s" s="633">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s" s="634">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s" s="636">
+        <v>296</v>
+      </c>
+      <c r="G101" t="s" s="636">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="640">
+        <v>267</v>
+      </c>
+      <c r="B102" t="s" s="640">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s" s="637">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s" s="638">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s" s="639">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s" s="641">
+        <v>296</v>
+      </c>
+      <c r="G102" t="s" s="641">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="645">
+        <v>267</v>
+      </c>
+      <c r="B103" t="s" s="645">
+        <v>229</v>
+      </c>
+      <c r="C103" t="s" s="642">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s" s="643">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s" s="644">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s" s="646">
+        <v>296</v>
+      </c>
+      <c r="G103" t="s" s="646">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="650">
+        <v>267</v>
+      </c>
+      <c r="B104" t="s" s="650">
+        <v>230</v>
+      </c>
+      <c r="C104" t="s" s="647">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s" s="648">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s" s="649">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s" s="651">
+        <v>296</v>
+      </c>
+      <c r="G104" t="s" s="651">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="655">
+        <v>267</v>
+      </c>
+      <c r="B105" t="s" s="655">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s" s="652">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s" s="653">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s" s="654">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s" s="656">
+        <v>296</v>
+      </c>
+      <c r="G105" t="s" s="656">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="660">
+        <v>267</v>
+      </c>
+      <c r="B106" t="s" s="660">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s" s="657">
+        <v>107</v>
+      </c>
+      <c r="D106" t="s" s="658">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s" s="659">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s" s="661">
+        <v>296</v>
+      </c>
+      <c r="G106" t="s" s="661">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="665">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s" s="665">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s" s="662">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s" s="663">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s" s="664">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s" s="666">
+        <v>296</v>
+      </c>
+      <c r="G107" t="s" s="666">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
     <sheet name="Test Results Summary" r:id="rId7" sheetId="5"/>
-    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="16"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="17"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="18"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="19"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="313">
   <si>
     <t>Test Results Summary - 2025-11-10 12:10:50</t>
   </si>
@@ -951,13 +951,43 @@
   <si>
     <t>Generated: 2025-11-11 15:03:19 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-11 16:09:13</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-11]: FAILED (7 runs)</t>
+  </si>
+  <si>
+    <t>Total: 108</t>
+  </si>
+  <si>
+    <t>Passed: 94</t>
+  </si>
+  <si>
+    <t>Duration: 73m 58s</t>
+  </si>
+  <si>
+    <t>Time: 16:09:13 | Total: 6 | Pass: 6 | Fail: 0</t>
+  </si>
+  <si>
+    <t>16:09:13</t>
+  </si>
+  <si>
+    <t>5m 53s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 16:09:13 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-11 16:09:13 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="689">
+  <fonts count="741">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -4069,6 +4099,264 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4351,7 +4639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="689">
+  <cellXfs count="741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -6415,13 +6703,169 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="688" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="13" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="7" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -6440,235 +6884,235 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="670">
+      <c r="A1" t="s" s="722">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="671">
-        <v>301</v>
+      <c r="A2" t="s" s="723">
+        <v>311</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="669">
+      <c r="A4" t="s" s="721">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="677">
+      <c r="A5" t="s" s="729">
         <v>49</v>
       </c>
-      <c r="B5" t="s" s="673">
+      <c r="B5" t="s" s="725">
         <v>275</v>
       </c>
-      <c r="D5" t="s" s="677">
+      <c r="D5" t="s" s="729">
         <v>51</v>
       </c>
-      <c r="E5" t="s" s="674">
+      <c r="E5" t="s" s="726">
         <v>247</v>
       </c>
-      <c r="G5" t="s" s="677">
+      <c r="G5" t="s" s="729">
         <v>53</v>
       </c>
-      <c r="H5" t="s" s="674">
+      <c r="H5" t="s" s="726">
         <v>276</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="677">
+      <c r="A6" t="s" s="729">
         <v>55</v>
       </c>
-      <c r="B6" t="s" s="673">
+      <c r="B6" t="s" s="725">
         <v>243</v>
       </c>
-      <c r="D6" t="s" s="677">
+      <c r="D6" t="s" s="729">
         <v>56</v>
       </c>
-      <c r="E6" t="s" s="675">
+      <c r="E6" t="s" s="727">
         <v>107</v>
       </c>
-      <c r="G6" t="s" s="677">
+      <c r="G6" t="s" s="729">
         <v>57</v>
       </c>
-      <c r="H6" t="s" s="676">
-        <v>58</v>
+      <c r="H6" t="s" s="728">
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="669">
+      <c r="A8" t="s" s="721">
         <v>59</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="677">
+      <c r="A9" t="s" s="729">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="676">
+      <c r="B9" t="s" s="728">
         <v>61</v>
       </c>
-      <c r="D9" t="s" s="677">
+      <c r="D9" t="s" s="729">
         <v>62</v>
       </c>
-      <c r="E9" t="s" s="676">
+      <c r="E9" t="s" s="728">
         <v>63</v>
       </c>
-      <c r="G9" t="s" s="677">
+      <c r="G9" t="s" s="729">
         <v>64</v>
       </c>
-      <c r="H9" t="s" s="675">
+      <c r="H9" t="s" s="727">
         <v>277</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="677">
+      <c r="A10" t="s" s="729">
         <v>66</v>
       </c>
-      <c r="B10" t="s" s="675">
+      <c r="B10" t="s" s="727">
         <v>278</v>
       </c>
-      <c r="D10" t="s" s="677">
+      <c r="D10" t="s" s="729">
         <v>68</v>
       </c>
-      <c r="E10" t="s" s="675">
+      <c r="E10" t="s" s="727">
         <v>279</v>
       </c>
-      <c r="G10" t="s" s="677">
+      <c r="G10" t="s" s="729">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="676">
+      <c r="H10" t="s" s="728">
         <v>71</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="677">
+      <c r="A11" t="s" s="729">
         <v>72</v>
       </c>
-      <c r="B11" t="s" s="676">
+      <c r="B11" t="s" s="728">
         <v>280</v>
       </c>
-      <c r="D11" t="s" s="677">
+      <c r="D11" t="s" s="729">
         <v>73</v>
       </c>
-      <c r="E11" t="s" s="675">
+      <c r="E11" t="s" s="727">
         <v>281</v>
       </c>
-      <c r="G11" t="s" s="677">
+      <c r="G11" t="s" s="729">
         <v>75</v>
       </c>
-      <c r="H11" t="s" s="675">
+      <c r="H11" t="s" s="727">
         <v>282</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="669">
+      <c r="A13" t="s" s="721">
         <v>76</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="677">
+      <c r="A14" t="s" s="729">
         <v>77</v>
       </c>
-      <c r="B14" t="s" s="672">
+      <c r="B14" t="s" s="724">
         <v>283</v>
       </c>
-      <c r="D14" t="s" s="677">
+      <c r="D14" t="s" s="729">
         <v>79</v>
       </c>
-      <c r="E14" t="s" s="673">
+      <c r="E14" t="s" s="725">
         <v>284</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="677">
+      <c r="A15" t="s" s="729">
         <v>81</v>
       </c>
-      <c r="B15" t="s" s="672">
+      <c r="B15" t="s" s="724">
         <v>284</v>
       </c>
-      <c r="D15" t="s" s="677">
+      <c r="D15" t="s" s="729">
         <v>82</v>
       </c>
-      <c r="E15" t="s" s="674">
+      <c r="E15" t="s" s="726">
         <v>78</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="677">
+      <c r="A16" t="s" s="729">
         <v>83</v>
       </c>
-      <c r="B16" t="s" s="672">
+      <c r="B16" t="s" s="724">
         <v>285</v>
       </c>
-      <c r="D16" t="s" s="675">
+      <c r="D16" t="s" s="727">
         <v>286</v>
       </c>
-      <c r="F16" t="s" s="672">
+      <c r="F16" t="s" s="724">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="669">
+      <c r="A18" t="s" s="721">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="677">
+      <c r="A19" t="s" s="729">
         <v>88</v>
       </c>
-      <c r="B19" t="s" s="676">
+      <c r="B19" t="s" s="728">
         <v>89</v>
       </c>
-      <c r="D19" t="s" s="677">
+      <c r="D19" t="s" s="729">
         <v>90</v>
       </c>
-      <c r="E19" t="s" s="672">
+      <c r="E19" t="s" s="724">
         <v>91</v>
       </c>
-      <c r="G19" t="s" s="677">
+      <c r="G19" t="s" s="729">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="672">
+      <c r="H19" t="s" s="724">
         <v>93</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="677">
+      <c r="A20" t="s" s="729">
         <v>94</v>
       </c>
-      <c r="B20" t="s" s="672">
+      <c r="B20" t="s" s="724">
         <v>95</v>
       </c>
-      <c r="D20" t="s" s="677">
+      <c r="D20" t="s" s="729">
         <v>96</v>
       </c>
-      <c r="E20" t="s" s="672">
+      <c r="E20" t="s" s="724">
         <v>97</v>
       </c>
-      <c r="G20" t="s" s="677">
+      <c r="G20" t="s" s="729">
         <v>98</v>
       </c>
-      <c r="H20" t="s" s="673">
+      <c r="H20" t="s" s="725">
         <v>99</v>
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="true">
-      <c r="A22" t="s" s="669">
+      <c r="A22" t="s" s="721">
         <v>258</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="true">
-      <c r="A23" t="s" s="677">
+      <c r="A23" t="s" s="729">
         <v>287</v>
       </c>
-      <c r="B23" t="s" s="678">
+      <c r="B23" t="s" s="730">
         <v>288</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="true">
-      <c r="A24" t="s" s="677">
+      <c r="A24" t="s" s="729">
         <v>259</v>
       </c>
-      <c r="B24" t="s" s="679">
+      <c r="B24" t="s" s="731">
         <v>288</v>
       </c>
     </row>
@@ -6688,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6707,206 +7151,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="681">
+      <c r="A1" t="s" s="733">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="682">
-        <v>302</v>
+      <c r="A2" t="s" s="734">
+        <v>312</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="680">
+      <c r="A4" t="s" s="732">
         <v>48</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="688">
+      <c r="A5" t="s" s="740">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="686">
+      <c r="B5" t="s" s="738">
         <v>103</v>
       </c>
-      <c r="D5" t="s" s="688">
+      <c r="D5" t="s" s="740">
         <v>104</v>
       </c>
-      <c r="E5" t="s" s="686">
+      <c r="E5" t="s" s="738">
         <v>103</v>
       </c>
-      <c r="G5" t="s" s="688">
+      <c r="G5" t="s" s="740">
         <v>53</v>
       </c>
-      <c r="H5" t="s" s="686">
+      <c r="H5" t="s" s="738">
         <v>105</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="688">
+      <c r="A6" t="s" s="740">
         <v>51</v>
       </c>
-      <c r="B6" t="s" s="686">
+      <c r="B6" t="s" s="738">
         <v>106</v>
       </c>
-      <c r="D6" t="s" s="688">
+      <c r="D6" t="s" s="740">
         <v>56</v>
       </c>
-      <c r="E6" t="s" s="686">
+      <c r="E6" t="s" s="738">
         <v>107</v>
       </c>
-      <c r="G6" t="s" s="688">
+      <c r="G6" t="s" s="740">
         <v>57</v>
       </c>
-      <c r="H6" t="s" s="683">
+      <c r="H6" t="s" s="735">
         <v>108</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="680">
+      <c r="A8" t="s" s="732">
         <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="688">
+      <c r="A9" t="s" s="740">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="687">
+      <c r="B9" t="s" s="739">
         <v>61</v>
       </c>
-      <c r="D9" t="s" s="688">
+      <c r="D9" t="s" s="740">
         <v>62</v>
       </c>
-      <c r="E9" t="s" s="687">
+      <c r="E9" t="s" s="739">
         <v>63</v>
       </c>
-      <c r="G9" t="s" s="688">
+      <c r="G9" t="s" s="740">
         <v>109</v>
       </c>
-      <c r="H9" t="s" s="687">
+      <c r="H9" t="s" s="739">
         <v>110</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="688">
+      <c r="A10" t="s" s="740">
         <v>66</v>
       </c>
-      <c r="B10" t="s" s="686">
+      <c r="B10" t="s" s="738">
         <v>111</v>
       </c>
-      <c r="D10" t="s" s="688">
+      <c r="D10" t="s" s="740">
         <v>112</v>
       </c>
-      <c r="E10" t="s" s="684">
+      <c r="E10" t="s" s="736">
         <v>113</v>
       </c>
-      <c r="G10" t="s" s="688">
+      <c r="G10" t="s" s="740">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="687">
+      <c r="H10" t="s" s="739">
         <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="688">
+      <c r="A11" t="s" s="740">
         <v>72</v>
       </c>
-      <c r="B11" t="s" s="687">
+      <c r="B11" t="s" s="739">
         <v>110</v>
       </c>
-      <c r="D11" t="s" s="688">
+      <c r="D11" t="s" s="740">
         <v>114</v>
       </c>
-      <c r="E11" t="s" s="683">
+      <c r="E11" t="s" s="735">
         <v>115</v>
       </c>
-      <c r="G11" t="s" s="688">
+      <c r="G11" t="s" s="740">
         <v>116</v>
       </c>
-      <c r="H11" t="s" s="686">
+      <c r="H11" t="s" s="738">
         <v>103</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="680">
+      <c r="A13" t="s" s="732">
         <v>117</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="688">
+      <c r="A14" t="s" s="740">
         <v>118</v>
       </c>
-      <c r="B14" t="s" s="687">
+      <c r="B14" t="s" s="739">
         <v>119</v>
       </c>
-      <c r="D14" t="s" s="688">
+      <c r="D14" t="s" s="740">
         <v>120</v>
       </c>
-      <c r="E14" t="s" s="687">
+      <c r="E14" t="s" s="739">
         <v>119</v>
       </c>
-      <c r="G14" t="s" s="688">
+      <c r="G14" t="s" s="740">
         <v>121</v>
       </c>
-      <c r="H14" t="s" s="687">
+      <c r="H14" t="s" s="739">
         <v>119</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="688">
+      <c r="A15" t="s" s="740">
         <v>83</v>
       </c>
-      <c r="B15" t="s" s="683">
+      <c r="B15" t="s" s="735">
         <v>122</v>
       </c>
-      <c r="D15" t="s" s="683">
+      <c r="D15" t="s" s="735">
         <v>85</v>
       </c>
-      <c r="F15" t="s" s="683">
+      <c r="F15" t="s" s="735">
         <v>86</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="680">
+      <c r="A17" t="s" s="732">
         <v>123</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="688">
+      <c r="A18" t="s" s="740">
         <v>124</v>
       </c>
-      <c r="B18" t="s" s="683">
+      <c r="B18" t="s" s="735">
         <v>125</v>
       </c>
-      <c r="D18" t="s" s="688">
+      <c r="D18" t="s" s="740">
         <v>90</v>
       </c>
-      <c r="E18" t="s" s="683">
+      <c r="E18" t="s" s="735">
         <v>95</v>
       </c>
-      <c r="G18" t="s" s="688">
+      <c r="G18" t="s" s="740">
         <v>92</v>
       </c>
-      <c r="H18" t="s" s="684">
+      <c r="H18" t="s" s="736">
         <v>93</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="688">
+      <c r="A19" t="s" s="740">
         <v>126</v>
       </c>
-      <c r="B19" t="s" s="683">
+      <c r="B19" t="s" s="735">
         <v>9</v>
       </c>
-      <c r="D19" t="s" s="688">
+      <c r="D19" t="s" s="740">
         <v>96</v>
       </c>
-      <c r="E19" t="s" s="684">
+      <c r="E19" t="s" s="736">
         <v>127</v>
       </c>
-      <c r="G19" t="s" s="688">
+      <c r="G19" t="s" s="740">
         <v>98</v>
       </c>
-      <c r="H19" t="s" s="684">
+      <c r="H19" t="s" s="736">
         <v>128</v>
       </c>
     </row>
@@ -6925,7 +7369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6988,289 +7432,330 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="667">
+      <c r="A2" t="s" s="719">
         <v>136</v>
       </c>
-      <c r="B2" t="s" s="667">
+      <c r="B2" t="s" s="719">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s" s="719">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="719">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="719">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="719">
+        <v>43</v>
+      </c>
+      <c r="G2" t="n" s="719">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n" s="719">
+        <v>6.0</v>
+      </c>
+      <c r="I2" t="n" s="719">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="719">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="719">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s" s="719">
+        <v>310</v>
+      </c>
+      <c r="M2" t="s" s="720">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="667">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s" s="667">
         <v>298</v>
       </c>
-      <c r="C2" t="s" s="667">
+      <c r="C3" t="s" s="667">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="667">
+      <c r="D3" t="s" s="667">
         <v>41</v>
       </c>
-      <c r="E2" t="s" s="667">
+      <c r="E3" t="s" s="667">
         <v>42</v>
       </c>
-      <c r="F2" t="s" s="667">
+      <c r="F3" t="s" s="667">
         <v>271</v>
       </c>
-      <c r="G2" t="n" s="667">
+      <c r="G3" t="n" s="667">
         <v>13.0</v>
       </c>
-      <c r="H2" t="n" s="667">
+      <c r="H3" t="n" s="667">
         <v>12.0</v>
       </c>
-      <c r="I2" t="n" s="667">
+      <c r="I3" t="n" s="667">
         <v>1.0</v>
       </c>
-      <c r="J2" t="n" s="667">
+      <c r="J3" t="n" s="667">
         <v>0.0</v>
       </c>
-      <c r="K2" t="s" s="667">
+      <c r="K3" t="s" s="667">
         <v>299</v>
       </c>
-      <c r="L2" t="s" s="667">
+      <c r="L3" t="s" s="667">
         <v>300</v>
       </c>
-      <c r="M2" t="s" s="668">
+      <c r="M3" t="s" s="668">
         <v>107</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="580">
+    <row r="4">
+      <c r="A4" t="s" s="580">
         <v>136</v>
       </c>
-      <c r="B3" t="s" s="580">
+      <c r="B4" t="s" s="580">
         <v>270</v>
       </c>
-      <c r="C3" t="s" s="580">
+      <c r="C4" t="s" s="580">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="580">
+      <c r="D4" t="s" s="580">
         <v>41</v>
       </c>
-      <c r="E3" t="s" s="580">
+      <c r="E4" t="s" s="580">
         <v>42</v>
       </c>
-      <c r="F3" t="s" s="580">
+      <c r="F4" t="s" s="580">
         <v>271</v>
       </c>
-      <c r="G3" t="n" s="580">
+      <c r="G4" t="n" s="580">
         <v>13.0</v>
       </c>
-      <c r="H3" t="n" s="580">
+      <c r="H4" t="n" s="580">
         <v>9.0</v>
       </c>
-      <c r="I3" t="n" s="580">
+      <c r="I4" t="n" s="580">
         <v>4.0</v>
       </c>
-      <c r="J3" t="n" s="580">
+      <c r="J4" t="n" s="580">
         <v>0.0</v>
       </c>
-      <c r="K3" t="s" s="580">
+      <c r="K4" t="s" s="580">
         <v>272</v>
       </c>
-      <c r="L3" t="s" s="580">
+      <c r="L4" t="s" s="580">
         <v>273</v>
       </c>
-      <c r="M3" t="s" s="581">
+      <c r="M4" t="s" s="581">
         <v>107</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="494">
+    <row r="5">
+      <c r="A5" t="s" s="494">
         <v>136</v>
       </c>
-      <c r="B4" t="s" s="494">
+      <c r="B5" t="s" s="494">
         <v>241</v>
       </c>
-      <c r="C4" t="s" s="494">
+      <c r="C5" t="s" s="494">
         <v>40</v>
       </c>
-      <c r="D4" t="s" s="494">
+      <c r="D5" t="s" s="494">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="494">
+      <c r="E5" t="s" s="494">
         <v>42</v>
       </c>
-      <c r="F4" t="s" s="494">
+      <c r="F5" t="s" s="494">
         <v>242</v>
       </c>
-      <c r="G4" t="n" s="494">
+      <c r="G5" t="n" s="494">
         <v>61.0</v>
       </c>
-      <c r="H4" t="n" s="494">
+      <c r="H5" t="n" s="494">
         <v>52.0</v>
       </c>
-      <c r="I4" t="n" s="494">
+      <c r="I5" t="n" s="494">
         <v>9.0</v>
       </c>
-      <c r="J4" t="n" s="494">
+      <c r="J5" t="n" s="494">
         <v>0.0</v>
       </c>
-      <c r="K4" t="s" s="494">
+      <c r="K5" t="s" s="494">
         <v>243</v>
       </c>
-      <c r="L4" t="s" s="494">
+      <c r="L5" t="s" s="494">
         <v>244</v>
       </c>
-      <c r="M4" t="s" s="495">
+      <c r="M5" t="s" s="495">
         <v>107</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="169">
+    <row r="6">
+      <c r="A6" t="s" s="169">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="169">
+      <c r="B6" t="s" s="169">
         <v>173</v>
       </c>
-      <c r="C5" t="s" s="169">
+      <c r="C6" t="s" s="169">
         <v>40</v>
       </c>
-      <c r="D5" t="s" s="169">
+      <c r="D6" t="s" s="169">
         <v>41</v>
       </c>
-      <c r="E5" t="s" s="169">
+      <c r="E6" t="s" s="169">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="169">
+      <c r="F6" t="s" s="169">
         <v>174</v>
       </c>
-      <c r="G5" t="n" s="169">
+      <c r="G6" t="n" s="169">
         <v>7.0</v>
       </c>
-      <c r="H5" t="n" s="169">
+      <c r="H6" t="n" s="169">
         <v>7.0</v>
       </c>
-      <c r="I5" t="n" s="169">
+      <c r="I6" t="n" s="169">
         <v>0.0</v>
       </c>
-      <c r="J5" t="n" s="169">
+      <c r="J6" t="n" s="169">
         <v>0.0</v>
       </c>
-      <c r="K5" t="s" s="169">
+      <c r="K6" t="s" s="169">
         <v>44</v>
       </c>
-      <c r="L5" t="s" s="169">
+      <c r="L6" t="s" s="169">
         <v>175</v>
       </c>
-      <c r="M5" t="s" s="170">
+      <c r="M6" t="s" s="170">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="114">
+    <row r="7">
+      <c r="A7" t="s" s="114">
         <v>136</v>
       </c>
-      <c r="B6" t="s" s="114">
+      <c r="B7" t="s" s="114">
         <v>153</v>
       </c>
-      <c r="C6" t="s" s="114">
+      <c r="C7" t="s" s="114">
         <v>40</v>
       </c>
-      <c r="D6" t="s" s="114">
+      <c r="D7" t="s" s="114">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="114">
+      <c r="E7" t="s" s="114">
         <v>42</v>
       </c>
-      <c r="F6" t="s" s="114">
+      <c r="F7" t="s" s="114">
         <v>43</v>
       </c>
-      <c r="G6" t="n" s="114">
+      <c r="G7" t="n" s="114">
         <v>6.0</v>
       </c>
-      <c r="H6" t="n" s="114">
+      <c r="H7" t="n" s="114">
         <v>6.0</v>
       </c>
-      <c r="I6" t="n" s="114">
+      <c r="I7" t="n" s="114">
         <v>0.0</v>
       </c>
-      <c r="J6" t="n" s="114">
+      <c r="J7" t="n" s="114">
         <v>0.0</v>
       </c>
-      <c r="K6" t="s" s="114">
+      <c r="K7" t="s" s="114">
         <v>44</v>
       </c>
-      <c r="L6" t="s" s="114">
+      <c r="L7" t="s" s="114">
         <v>154</v>
       </c>
-      <c r="M6" t="s" s="115">
+      <c r="M7" t="s" s="115">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="64">
+    <row r="8">
+      <c r="A8" t="s" s="64">
         <v>136</v>
       </c>
-      <c r="B7" t="s" s="64">
+      <c r="B8" t="s" s="64">
         <v>137</v>
       </c>
-      <c r="C7" t="s" s="64">
+      <c r="C8" t="s" s="64">
         <v>40</v>
       </c>
-      <c r="D7" t="s" s="64">
+      <c r="D8" t="s" s="64">
         <v>41</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E8" t="s" s="64">
         <v>42</v>
       </c>
-      <c r="F7" t="s" s="64">
+      <c r="F8" t="s" s="64">
         <v>138</v>
       </c>
-      <c r="G7" t="n" s="64">
+      <c r="G8" t="n" s="64">
         <v>2.0</v>
       </c>
-      <c r="H7" t="n" s="64">
+      <c r="H8" t="n" s="64">
         <v>2.0</v>
       </c>
-      <c r="I7" t="n" s="64">
+      <c r="I8" t="n" s="64">
         <v>0.0</v>
       </c>
-      <c r="J7" t="n" s="64">
+      <c r="J8" t="n" s="64">
         <v>0.0</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K8" t="s" s="64">
         <v>44</v>
       </c>
-      <c r="L7" t="s" s="64">
+      <c r="L8" t="s" s="64">
         <v>139</v>
       </c>
-      <c r="M7" t="s" s="65">
+      <c r="M8" t="s" s="65">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="33">
+    <row r="9">
+      <c r="A9" t="s" s="33">
         <v>38</v>
       </c>
-      <c r="B8" t="s" s="33">
+      <c r="B9" t="s" s="33">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="33">
+      <c r="C9" t="s" s="33">
         <v>40</v>
       </c>
-      <c r="D8" t="s" s="33">
+      <c r="D9" t="s" s="33">
         <v>41</v>
       </c>
-      <c r="E8" t="s" s="33">
+      <c r="E9" t="s" s="33">
         <v>42</v>
       </c>
-      <c r="F8" t="s" s="33">
+      <c r="F9" t="s" s="33">
         <v>43</v>
       </c>
-      <c r="G8" t="n" s="33">
+      <c r="G9" t="n" s="33">
         <v>6.0</v>
       </c>
-      <c r="H8" t="n" s="33">
+      <c r="H9" t="n" s="33">
         <v>6.0</v>
       </c>
-      <c r="I8" t="n" s="33">
+      <c r="I9" t="n" s="33">
         <v>0.0</v>
       </c>
-      <c r="J8" t="n" s="33">
+      <c r="J9" t="n" s="33">
         <v>0.0</v>
       </c>
-      <c r="K8" t="s" s="33">
+      <c r="K9" t="s" s="33">
         <v>44</v>
       </c>
-      <c r="L8" t="s" s="33">
+      <c r="L9" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="M8" t="s" s="34">
+      <c r="M9" t="s" s="34">
         <v>16</v>
       </c>
     </row>
@@ -7281,13 +7766,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="53.65625"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="110.77734375"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.4296875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.6796875"/>
@@ -7298,18 +7783,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="53">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>294</v>
@@ -7318,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
@@ -9687,6 +10172,144 @@
         <v>296</v>
       </c>
       <c r="G107" t="s" s="666">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="692">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s" s="689">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s" s="690">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s" s="691">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s" s="693">
+        <v>308</v>
+      </c>
+      <c r="G108" t="s" s="693">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="697">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s" s="697">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s" s="694">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s" s="695">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s" s="696">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s" s="698">
+        <v>308</v>
+      </c>
+      <c r="G109" t="s" s="698">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="702">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s" s="702">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s" s="699">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s" s="700">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s" s="701">
+        <v>17</v>
+      </c>
+      <c r="F110" t="s" s="703">
+        <v>308</v>
+      </c>
+      <c r="G110" t="s" s="703">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="707">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s" s="707">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s" s="704">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s" s="705">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s" s="706">
+        <v>17</v>
+      </c>
+      <c r="F111" t="s" s="708">
+        <v>308</v>
+      </c>
+      <c r="G111" t="s" s="708">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="712">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s" s="712">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s" s="709">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s" s="710">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s" s="711">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s" s="713">
+        <v>308</v>
+      </c>
+      <c r="G112" t="s" s="713">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="717">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s" s="717">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s" s="714">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s" s="715">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s" s="716">
+        <v>17</v>
+      </c>
+      <c r="F113" t="s" s="718">
+        <v>308</v>
+      </c>
+      <c r="G113" t="s" s="718">
         <v>19</v>
       </c>
     </row>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -10,8 +10,8 @@
   <sheets>
     <sheet name="Automation Execution History" sheetId="2" r:id="rId1"/>
     <sheet name="Test Results Summary" r:id="rId10" sheetId="37"/>
-    <sheet name="Automation QA Dashboard" r:id="rId8" sheetId="62"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId9" sheetId="63"/>
+    <sheet name="Automation QA Dashboard" r:id="rId8" sheetId="72"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId9" sheetId="73"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:D18"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="460">
   <si>
     <t>Skipped: 0</t>
   </si>
@@ -1367,13 +1367,220 @@
   <si>
     <t>Generated: 2025-11-13 13:09:09 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-13 13:31:20</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-13]: FAILED (14 runs)</t>
+  </si>
+  <si>
+    <t>Total: 112</t>
+  </si>
+  <si>
+    <t>Passed: 78</t>
+  </si>
+  <si>
+    <t>Duration: 67m 15s</t>
+  </si>
+  <si>
+    <t>Time: 13:31:20 | Total: 8 | Pass: 8 | Fail: 0</t>
+  </si>
+  <si>
+    <t>13:31:20</t>
+  </si>
+  <si>
+    <t>4m 37s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 13:31:20 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 13:31:20 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-13 14:47:25</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-13]: FAILED (15 runs)</t>
+  </si>
+  <si>
+    <t>Total: 120</t>
+  </si>
+  <si>
+    <t>Passed: 86</t>
+  </si>
+  <si>
+    <t>Duration: 73m 17s</t>
+  </si>
+  <si>
+    <t>Time: 14:47:25 | Total: 8 | Pass: 8 | Fail: 0</t>
+  </si>
+  <si>
+    <t>14:47:25</t>
+  </si>
+  <si>
+    <t>6m 2s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 14:47:25 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>8 of 326 (2.5%)</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 14:47:25 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-13 14:58:54</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-13]: FAILED (16 runs)</t>
+  </si>
+  <si>
+    <t>Total: 127</t>
+  </si>
+  <si>
+    <t>Passed: 89</t>
+  </si>
+  <si>
+    <t>Failed: 38</t>
+  </si>
+  <si>
+    <t>Duration: 78m 52s</t>
+  </si>
+  <si>
+    <t>Time: 14:58:54 | Total: 7 | Pass: 3 | Fail: 4</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in Validating Job Mapping Profiles Results with applied functions / subfunctions options...Please Investigate!!!
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.validate_job_mapping_profiles_are_correctly_filtered_with_applied_functions_subfunctions_options(PO11_ValidateJobMappingFiltersFunctionality.java:763)</t>
+  </si>
+  <si>
+    <t>User validates search bar and filters by specific subfunctions within a function</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Subfunction 'HR Analytics' not selected after clicking
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.select_one_subfunction_option_inside_function_name_dropdown(PO11_ValidateJobMappingFiltersFunctionality.java:1122)</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Failed to click Functions/Subfunctions dropdown. XPath: //div[@data-testid='dropdown-Functions_SubFunctions'], Element displayed: Element not found, Element enabled: Element not found, Error type: NoSuchElementException, Error message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@data-testid='dropdown-Functions_SubFunctions']"}
+  (Session info: chrome=133.0.6943.127)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [aa43cfb056dadb2cc1b8f00ebeada65a, findElement {value=//div[@data-testid='dropdown-Functions_SubFunctions'], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Users\navee\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53544}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:53544/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: aa43cfb056dadb2cc1b8f00ebeada65a
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.click_on_functions</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in selecting a Function and verifying SubFunctions from Functions / SubFunctions dropdown in Filters...Please Investigate!!!
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.select_a_function_and_verify_all_subfunctions_inside_function_are_selected_automatically(PO11_ValidateJobMappingFiltersFunctionality.java:698)</t>
+  </si>
+  <si>
+    <t>14:58:54</t>
+  </si>
+  <si>
+    <t>43.0%</t>
+  </si>
+  <si>
+    <t>5m 35s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 14:58:54 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 14:58:54 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-13 18:56:32</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-13]: FAILED (17 runs)</t>
+  </si>
+  <si>
+    <t>Total: 134</t>
+  </si>
+  <si>
+    <t>Passed: 96</t>
+  </si>
+  <si>
+    <t>Duration: 85m 21s</t>
+  </si>
+  <si>
+    <t>Time: 18:56:32 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>18:56:32</t>
+  </si>
+  <si>
+    <t>6m 29s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 18:56:32 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 18:56:32 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-13 19:21:31</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-13]: FAILED (18 runs)</t>
+  </si>
+  <si>
+    <t>Total: 141</t>
+  </si>
+  <si>
+    <t>Passed: 103</t>
+  </si>
+  <si>
+    <t>Duration: 93m 4s</t>
+  </si>
+  <si>
+    <t>Time: 19:21:31 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>19:21:31</t>
+  </si>
+  <si>
+    <t>7m 43s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 19:21:31 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-13 19:21:31 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1417" x14ac:knownFonts="1">
+  <fonts count="1749" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7969,6 +8176,1598 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -8281,7 +10080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1419">
+  <cellXfs count="1751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12533,6 +14332,1002 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1416" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1417" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1418" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1419" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1420" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1421" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1422" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1423" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1424" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1425" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1426" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1427" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1428" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1429" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1430" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1431" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1432" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1433" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1434" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1435" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1436" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1437" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1438" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1439" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1440" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1441" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1442" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1443" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1444" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1445" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1446" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1447" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1448" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1449" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1450" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1451" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1452" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1453" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1454" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1455" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1456" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1457" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1458" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1459" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1460" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1461" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1462" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1463" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1464" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1465" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1466" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1467" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1468" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1469" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1470" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1471" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1472" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1473" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1474" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1475" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1476" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1477" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1478" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1479" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1480" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1481" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1482" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1483" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1484" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1485" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1486" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1487" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1488" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1489" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1490" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1491" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1492" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1493" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1494" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1495" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1496" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1497" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1498" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1499" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1500" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1501" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1502" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1503" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1504" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1505" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1506" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1507" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1508" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1509" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1510" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1511" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1512" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1513" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1514" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1515" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1516" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1517" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1518" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1519" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1520" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1521" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1522" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1523" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1524" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1525" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1526" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1527" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1528" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1529" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1530" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1531" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1532" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1533" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1534" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1535" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1536" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1537" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1538" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1539" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1540" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1541" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1542" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1543" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1544" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1545" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1546" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1547" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1548" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1549" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1550" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1551" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1552" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1553" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1554" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1555" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1556" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1557" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1558" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1559" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1560" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1561" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1562" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1563" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1564" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1565" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1566" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1567" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1568" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1569" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1570" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1571" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1572" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1573" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1574" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1575" fillId="11" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1576" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1577" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1578" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1579" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1580" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1581" fillId="11" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1582" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1583" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1584" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1585" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1586" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1587" fillId="11" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1588" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1589" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1590" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1591" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1592" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1593" fillId="11" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1594" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1595" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1596" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1597" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1598" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1599" fillId="11" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1600" fillId="11" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1601" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1602" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1603" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1604" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1605" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1606" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1607" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1608" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1609" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1610" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1611" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1612" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1613" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1614" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1615" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1616" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1617" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1618" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1619" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1620" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1621" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1622" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1623" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1624" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1625" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1626" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1627" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1628" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1629" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1630" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1631" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1632" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1633" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1634" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1635" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1636" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1637" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1638" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1639" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1640" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1641" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1642" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1643" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1644" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1645" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1646" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1647" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1648" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1649" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1650" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1651" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1652" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1653" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1654" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1655" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1656" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1657" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1658" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1659" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1660" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1661" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1662" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1663" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1664" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1665" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1666" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1667" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1668" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1669" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1670" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1671" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1672" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1673" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1674" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1675" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1676" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1677" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1678" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1679" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1680" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1681" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1682" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1683" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1684" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1685" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1686" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1687" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1688" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1689" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1690" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1691" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1692" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1693" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1694" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1695" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1696" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1697" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1698" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1699" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1700" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1701" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1702" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1703" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1704" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1705" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1706" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1707" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1708" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1709" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1710" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1711" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1712" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1713" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1714" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1715" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1716" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1717" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1718" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1719" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1720" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1721" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1722" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1723" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1724" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1725" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1726" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1727" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1728" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1729" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1730" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1731" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1732" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1733" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1734" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1735" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1736" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1737" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1738" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1739" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1740" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1741" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1742" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1743" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1744" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1745" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1746" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1747" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1748" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12849,7 +15644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12912,1191 +15707,1396 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1397">
+      <c r="A2" t="s" s="1729">
         <v>238</v>
       </c>
-      <c r="B2" t="s" s="1397">
+      <c r="B2" t="s" s="1729">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s" s="1729">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="1729">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s" s="1729">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s" s="1729">
+        <v>162</v>
+      </c>
+      <c r="G2" t="n" s="1729">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n" s="1729">
+        <v>7.0</v>
+      </c>
+      <c r="I2" t="n" s="1729">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="1729">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="1729">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s" s="1729">
+        <v>457</v>
+      </c>
+      <c r="M2" t="s" s="1730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1665">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s" s="1665">
+        <v>446</v>
+      </c>
+      <c r="C3" t="s" s="1665">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="1665">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="1665">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="1665">
+        <v>162</v>
+      </c>
+      <c r="G3" t="n" s="1665">
+        <v>7.0</v>
+      </c>
+      <c r="H3" t="n" s="1665">
+        <v>7.0</v>
+      </c>
+      <c r="I3" t="n" s="1665">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="1665">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="1665">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s" s="1665">
+        <v>447</v>
+      </c>
+      <c r="M3" t="s" s="1666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1601">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s" s="1601">
+        <v>434</v>
+      </c>
+      <c r="C4" t="s" s="1601">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="1601">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="1601">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s" s="1601">
+        <v>162</v>
+      </c>
+      <c r="G4" t="n" s="1601">
+        <v>7.0</v>
+      </c>
+      <c r="H4" t="n" s="1601">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="n" s="1601">
+        <v>4.0</v>
+      </c>
+      <c r="J4" t="n" s="1601">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="1601">
+        <v>435</v>
+      </c>
+      <c r="L4" t="s" s="1601">
+        <v>436</v>
+      </c>
+      <c r="M4" t="s" s="1602">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1537">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s" s="1537">
+        <v>415</v>
+      </c>
+      <c r="C5" t="s" s="1537">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="1537">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="1537">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="1537">
+        <v>162</v>
+      </c>
+      <c r="G5" t="n" s="1537">
+        <v>8.0</v>
+      </c>
+      <c r="H5" t="n" s="1537">
+        <v>8.0</v>
+      </c>
+      <c r="I5" t="n" s="1537">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="1537">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s" s="1537">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s" s="1537">
+        <v>416</v>
+      </c>
+      <c r="M5" t="s" s="1538">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1467">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s" s="1467">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s" s="1467">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s" s="1467">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="1467">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="1467">
+        <v>162</v>
+      </c>
+      <c r="G6" t="n" s="1467">
+        <v>8.0</v>
+      </c>
+      <c r="H6" t="n" s="1467">
+        <v>8.0</v>
+      </c>
+      <c r="I6" t="n" s="1467">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="1467">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="s" s="1467">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s" s="1467">
+        <v>406</v>
+      </c>
+      <c r="M6" t="s" s="1468">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1397">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s" s="1397">
         <v>394</v>
       </c>
-      <c r="C2" t="s" s="1397">
+      <c r="C7" t="s" s="1397">
         <v>29</v>
       </c>
-      <c r="D2" t="s" s="1397">
+      <c r="D7" t="s" s="1397">
         <v>30</v>
       </c>
-      <c r="E2" t="s" s="1397">
+      <c r="E7" t="s" s="1397">
         <v>31</v>
       </c>
-      <c r="F2" t="s" s="1397">
+      <c r="F7" t="s" s="1397">
         <v>162</v>
       </c>
-      <c r="G2" t="n" s="1397">
+      <c r="G7" t="n" s="1397">
         <v>8.0</v>
       </c>
-      <c r="H2" t="n" s="1397">
+      <c r="H7" t="n" s="1397">
         <v>3.0</v>
       </c>
-      <c r="I2" t="n" s="1397">
+      <c r="I7" t="n" s="1397">
         <v>5.0</v>
       </c>
-      <c r="J2" t="n" s="1397">
+      <c r="J7" t="n" s="1397">
         <v>0.0</v>
       </c>
-      <c r="K2" t="s" s="1397">
+      <c r="K7" t="s" s="1397">
         <v>395</v>
       </c>
-      <c r="L2" t="s" s="1397">
+      <c r="L7" t="s" s="1397">
         <v>396</v>
       </c>
-      <c r="M2" t="s" s="1398">
+      <c r="M7" t="s" s="1398">
         <v>85</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1327">
+    <row r="8">
+      <c r="A8" t="s" s="1327">
         <v>238</v>
       </c>
-      <c r="B3" t="s" s="1327">
+      <c r="B8" t="s" s="1327">
         <v>380</v>
       </c>
-      <c r="C3" t="s" s="1327">
+      <c r="C8" t="s" s="1327">
         <v>29</v>
       </c>
-      <c r="D3" t="s" s="1327">
+      <c r="D8" t="s" s="1327">
         <v>30</v>
       </c>
-      <c r="E3" t="s" s="1327">
+      <c r="E8" t="s" s="1327">
         <v>31</v>
       </c>
-      <c r="F3" t="s" s="1327">
+      <c r="F8" t="s" s="1327">
         <v>162</v>
       </c>
-      <c r="G3" t="n" s="1327">
+      <c r="G8" t="n" s="1327">
         <v>8.0</v>
       </c>
-      <c r="H3" t="n" s="1327">
+      <c r="H8" t="n" s="1327">
         <v>8.0</v>
       </c>
-      <c r="I3" t="n" s="1327">
+      <c r="I8" t="n" s="1327">
         <v>0.0</v>
       </c>
-      <c r="J3" t="n" s="1327">
+      <c r="J8" t="n" s="1327">
         <v>0.0</v>
       </c>
-      <c r="K3" t="s" s="1327">
+      <c r="K8" t="s" s="1327">
         <v>33</v>
       </c>
-      <c r="L3" t="s" s="1327">
+      <c r="L8" t="s" s="1327">
         <v>381</v>
       </c>
-      <c r="M3" t="s" s="1328">
+      <c r="M8" t="s" s="1328">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="1257">
+    <row r="9">
+      <c r="A9" t="s" s="1257">
         <v>238</v>
       </c>
-      <c r="B4" t="s" s="1257">
+      <c r="B9" t="s" s="1257">
         <v>370</v>
       </c>
-      <c r="C4" t="s" s="1257">
+      <c r="C9" t="s" s="1257">
         <v>29</v>
       </c>
-      <c r="D4" t="s" s="1257">
+      <c r="D9" t="s" s="1257">
         <v>30</v>
       </c>
-      <c r="E4" t="s" s="1257">
+      <c r="E9" t="s" s="1257">
         <v>31</v>
       </c>
-      <c r="F4" t="s" s="1257">
+      <c r="F9" t="s" s="1257">
         <v>162</v>
       </c>
-      <c r="G4" t="n" s="1257">
+      <c r="G9" t="n" s="1257">
         <v>8.0</v>
       </c>
-      <c r="H4" t="n" s="1257">
+      <c r="H9" t="n" s="1257">
         <v>5.0</v>
       </c>
-      <c r="I4" t="n" s="1257">
+      <c r="I9" t="n" s="1257">
         <v>3.0</v>
       </c>
-      <c r="J4" t="n" s="1257">
+      <c r="J9" t="n" s="1257">
         <v>0.0</v>
       </c>
-      <c r="K4" t="s" s="1257">
+      <c r="K9" t="s" s="1257">
         <v>192</v>
       </c>
-      <c r="L4" t="s" s="1257">
+      <c r="L9" t="s" s="1257">
         <v>371</v>
       </c>
-      <c r="M4" t="s" s="1258">
+      <c r="M9" t="s" s="1258">
         <v>85</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1187">
+    <row r="10">
+      <c r="A10" t="s" s="1187">
         <v>238</v>
       </c>
-      <c r="B5" t="s" s="1187">
+      <c r="B10" t="s" s="1187">
         <v>358</v>
       </c>
-      <c r="C5" t="s" s="1187">
+      <c r="C10" t="s" s="1187">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="1187">
+      <c r="D10" t="s" s="1187">
         <v>30</v>
       </c>
-      <c r="E5" t="s" s="1187">
+      <c r="E10" t="s" s="1187">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="1187">
+      <c r="F10" t="s" s="1187">
         <v>162</v>
       </c>
-      <c r="G5" t="n" s="1187">
+      <c r="G10" t="n" s="1187">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n" s="1187">
+      <c r="H10" t="n" s="1187">
         <v>5.0</v>
       </c>
-      <c r="I5" t="n" s="1187">
+      <c r="I10" t="n" s="1187">
         <v>3.0</v>
       </c>
-      <c r="J5" t="n" s="1187">
+      <c r="J10" t="n" s="1187">
         <v>0.0</v>
       </c>
-      <c r="K5" t="s" s="1187">
+      <c r="K10" t="s" s="1187">
         <v>192</v>
       </c>
-      <c r="L5" t="s" s="1187">
+      <c r="L10" t="s" s="1187">
         <v>359</v>
       </c>
-      <c r="M5" t="s" s="1188">
+      <c r="M10" t="s" s="1188">
         <v>85</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1117">
+    <row r="11">
+      <c r="A11" t="s" s="1117">
         <v>238</v>
       </c>
-      <c r="B6" t="s" s="1117">
+      <c r="B11" t="s" s="1117">
         <v>346</v>
       </c>
-      <c r="C6" t="s" s="1117">
+      <c r="C11" t="s" s="1117">
         <v>29</v>
       </c>
-      <c r="D6" t="s" s="1117">
+      <c r="D11" t="s" s="1117">
         <v>30</v>
       </c>
-      <c r="E6" t="s" s="1117">
+      <c r="E11" t="s" s="1117">
         <v>31</v>
       </c>
-      <c r="F6" t="s" s="1117">
+      <c r="F11" t="s" s="1117">
         <v>162</v>
       </c>
-      <c r="G6" t="n" s="1117">
+      <c r="G11" t="n" s="1117">
         <v>8.0</v>
       </c>
-      <c r="H6" t="n" s="1117">
+      <c r="H11" t="n" s="1117">
         <v>5.0</v>
       </c>
-      <c r="I6" t="n" s="1117">
+      <c r="I11" t="n" s="1117">
         <v>3.0</v>
       </c>
-      <c r="J6" t="n" s="1117">
+      <c r="J11" t="n" s="1117">
         <v>0.0</v>
       </c>
-      <c r="K6" t="s" s="1117">
+      <c r="K11" t="s" s="1117">
         <v>192</v>
       </c>
-      <c r="L6" t="s" s="1117">
+      <c r="L11" t="s" s="1117">
         <v>347</v>
       </c>
-      <c r="M6" t="s" s="1118">
+      <c r="M11" t="s" s="1118">
         <v>85</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1047">
+    <row r="12">
+      <c r="A12" t="s" s="1047">
         <v>238</v>
       </c>
-      <c r="B7" t="s" s="1047">
+      <c r="B12" t="s" s="1047">
         <v>336</v>
       </c>
-      <c r="C7" t="s" s="1047">
+      <c r="C12" t="s" s="1047">
         <v>29</v>
       </c>
-      <c r="D7" t="s" s="1047">
+      <c r="D12" t="s" s="1047">
         <v>30</v>
       </c>
-      <c r="E7" t="s" s="1047">
+      <c r="E12" t="s" s="1047">
         <v>31</v>
       </c>
-      <c r="F7" t="s" s="1047">
+      <c r="F12" t="s" s="1047">
         <v>162</v>
       </c>
-      <c r="G7" t="n" s="1047">
+      <c r="G12" t="n" s="1047">
         <v>8.0</v>
       </c>
-      <c r="H7" t="n" s="1047">
+      <c r="H12" t="n" s="1047">
         <v>5.0</v>
       </c>
-      <c r="I7" t="n" s="1047">
+      <c r="I12" t="n" s="1047">
         <v>3.0</v>
       </c>
-      <c r="J7" t="n" s="1047">
+      <c r="J12" t="n" s="1047">
         <v>0.0</v>
       </c>
-      <c r="K7" t="s" s="1047">
+      <c r="K12" t="s" s="1047">
         <v>192</v>
       </c>
-      <c r="L7" t="s" s="1047">
+      <c r="L12" t="s" s="1047">
         <v>337</v>
       </c>
-      <c r="M7" t="s" s="1048">
+      <c r="M12" t="s" s="1048">
         <v>85</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="977">
+    <row r="13">
+      <c r="A13" t="s" s="977">
         <v>238</v>
       </c>
-      <c r="B8" t="s" s="977">
+      <c r="B13" t="s" s="977">
         <v>322</v>
       </c>
-      <c r="C8" t="s" s="977">
+      <c r="C13" t="s" s="977">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="977">
+      <c r="D13" t="s" s="977">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="977">
+      <c r="E13" t="s" s="977">
         <v>31</v>
       </c>
-      <c r="F8" t="s" s="977">
+      <c r="F13" t="s" s="977">
         <v>162</v>
       </c>
-      <c r="G8" t="n" s="977">
+      <c r="G13" t="n" s="977">
         <v>8.0</v>
       </c>
-      <c r="H8" t="n" s="977">
+      <c r="H13" t="n" s="977">
         <v>5.0</v>
       </c>
-      <c r="I8" t="n" s="977">
+      <c r="I13" t="n" s="977">
         <v>3.0</v>
       </c>
-      <c r="J8" t="n" s="977">
+      <c r="J13" t="n" s="977">
         <v>0.0</v>
       </c>
-      <c r="K8" t="s" s="977">
+      <c r="K13" t="s" s="977">
         <v>192</v>
       </c>
-      <c r="L8" t="s" s="977">
+      <c r="L13" t="s" s="977">
         <v>323</v>
       </c>
-      <c r="M8" t="s" s="978">
+      <c r="M13" t="s" s="978">
         <v>85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="907">
+    <row r="14">
+      <c r="A14" t="s" s="907">
         <v>238</v>
       </c>
-      <c r="B9" t="s" s="907">
+      <c r="B14" t="s" s="907">
         <v>309</v>
       </c>
-      <c r="C9" t="s" s="907">
+      <c r="C14" t="s" s="907">
         <v>29</v>
       </c>
-      <c r="D9" t="s" s="907">
+      <c r="D14" t="s" s="907">
         <v>30</v>
       </c>
-      <c r="E9" t="s" s="907">
+      <c r="E14" t="s" s="907">
         <v>31</v>
       </c>
-      <c r="F9" t="s" s="907">
+      <c r="F14" t="s" s="907">
         <v>162</v>
       </c>
-      <c r="G9" t="n" s="907">
+      <c r="G14" t="n" s="907">
         <v>8.0</v>
       </c>
-      <c r="H9" t="n" s="907">
+      <c r="H14" t="n" s="907">
         <v>5.0</v>
       </c>
-      <c r="I9" t="n" s="907">
+      <c r="I14" t="n" s="907">
         <v>3.0</v>
       </c>
-      <c r="J9" t="n" s="907">
+      <c r="J14" t="n" s="907">
         <v>0.0</v>
       </c>
-      <c r="K9" t="s" s="907">
+      <c r="K14" t="s" s="907">
         <v>192</v>
       </c>
-      <c r="L9" t="s" s="907">
+      <c r="L14" t="s" s="907">
         <v>310</v>
       </c>
-      <c r="M9" t="s" s="908">
+      <c r="M14" t="s" s="908">
         <v>85</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="837">
+    <row r="15">
+      <c r="A15" t="s" s="837">
         <v>238</v>
       </c>
-      <c r="B10" t="s" s="837">
+      <c r="B15" t="s" s="837">
         <v>296</v>
       </c>
-      <c r="C10" t="s" s="837">
+      <c r="C15" t="s" s="837">
         <v>29</v>
       </c>
-      <c r="D10" t="s" s="837">
+      <c r="D15" t="s" s="837">
         <v>30</v>
       </c>
-      <c r="E10" t="s" s="837">
+      <c r="E15" t="s" s="837">
         <v>31</v>
       </c>
-      <c r="F10" t="s" s="837">
+      <c r="F15" t="s" s="837">
         <v>162</v>
       </c>
-      <c r="G10" t="n" s="837">
+      <c r="G15" t="n" s="837">
         <v>8.0</v>
       </c>
-      <c r="H10" t="n" s="837">
+      <c r="H15" t="n" s="837">
         <v>5.0</v>
       </c>
-      <c r="I10" t="n" s="837">
+      <c r="I15" t="n" s="837">
         <v>3.0</v>
       </c>
-      <c r="J10" t="n" s="837">
+      <c r="J15" t="n" s="837">
         <v>0.0</v>
       </c>
-      <c r="K10" t="s" s="837">
+      <c r="K15" t="s" s="837">
         <v>192</v>
       </c>
-      <c r="L10" t="s" s="837">
+      <c r="L15" t="s" s="837">
         <v>297</v>
       </c>
-      <c r="M10" t="s" s="838">
+      <c r="M15" t="s" s="838">
         <v>85</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="767">
+    <row r="16">
+      <c r="A16" t="s" s="767">
         <v>238</v>
       </c>
-      <c r="B11" t="s" s="767">
+      <c r="B16" t="s" s="767">
         <v>284</v>
       </c>
-      <c r="C11" t="s" s="767">
+      <c r="C16" t="s" s="767">
         <v>29</v>
       </c>
-      <c r="D11" t="s" s="767">
+      <c r="D16" t="s" s="767">
         <v>30</v>
       </c>
-      <c r="E11" t="s" s="767">
+      <c r="E16" t="s" s="767">
         <v>31</v>
       </c>
-      <c r="F11" t="s" s="767">
+      <c r="F16" t="s" s="767">
         <v>162</v>
       </c>
-      <c r="G11" t="n" s="767">
+      <c r="G16" t="n" s="767">
         <v>8.0</v>
       </c>
-      <c r="H11" t="n" s="767">
+      <c r="H16" t="n" s="767">
         <v>6.0</v>
       </c>
-      <c r="I11" t="n" s="767">
+      <c r="I16" t="n" s="767">
         <v>2.0</v>
       </c>
-      <c r="J11" t="n" s="767">
+      <c r="J16" t="n" s="767">
         <v>0.0</v>
       </c>
-      <c r="K11" t="s" s="767">
+      <c r="K16" t="s" s="767">
         <v>163</v>
       </c>
-      <c r="L11" t="s" s="767">
+      <c r="L16" t="s" s="767">
         <v>240</v>
       </c>
-      <c r="M11" t="s" s="768">
+      <c r="M16" t="s" s="768">
         <v>85</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="697">
+    <row r="17">
+      <c r="A17" t="s" s="697">
         <v>238</v>
       </c>
-      <c r="B12" t="s" s="697">
+      <c r="B17" t="s" s="697">
         <v>271</v>
       </c>
-      <c r="C12" t="s" s="697">
+      <c r="C17" t="s" s="697">
         <v>29</v>
       </c>
-      <c r="D12" t="s" s="697">
+      <c r="D17" t="s" s="697">
         <v>30</v>
       </c>
-      <c r="E12" t="s" s="697">
+      <c r="E17" t="s" s="697">
         <v>31</v>
       </c>
-      <c r="F12" t="s" s="697">
+      <c r="F17" t="s" s="697">
         <v>162</v>
       </c>
-      <c r="G12" t="n" s="697">
+      <c r="G17" t="n" s="697">
         <v>8.0</v>
       </c>
-      <c r="H12" t="n" s="697">
+      <c r="H17" t="n" s="697">
         <v>6.0</v>
       </c>
-      <c r="I12" t="n" s="697">
+      <c r="I17" t="n" s="697">
         <v>2.0</v>
       </c>
-      <c r="J12" t="n" s="697">
+      <c r="J17" t="n" s="697">
         <v>0.0</v>
       </c>
-      <c r="K12" t="s" s="697">
+      <c r="K17" t="s" s="697">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="697">
+      <c r="L17" t="s" s="697">
         <v>272</v>
       </c>
-      <c r="M12" t="s" s="698">
+      <c r="M17" t="s" s="698">
         <v>85</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="627">
+    <row r="18">
+      <c r="A18" t="s" s="627">
         <v>238</v>
       </c>
-      <c r="B13" t="s" s="627">
+      <c r="B18" t="s" s="627">
         <v>258</v>
       </c>
-      <c r="C13" t="s" s="627">
+      <c r="C18" t="s" s="627">
         <v>29</v>
       </c>
-      <c r="D13" t="s" s="627">
+      <c r="D18" t="s" s="627">
         <v>30</v>
       </c>
-      <c r="E13" t="s" s="627">
+      <c r="E18" t="s" s="627">
         <v>31</v>
       </c>
-      <c r="F13" t="s" s="627">
+      <c r="F18" t="s" s="627">
         <v>162</v>
       </c>
-      <c r="G13" t="n" s="627">
+      <c r="G18" t="n" s="627">
         <v>8.0</v>
       </c>
-      <c r="H13" t="n" s="627">
+      <c r="H18" t="n" s="627">
         <v>6.0</v>
       </c>
-      <c r="I13" t="n" s="627">
+      <c r="I18" t="n" s="627">
         <v>2.0</v>
       </c>
-      <c r="J13" t="n" s="627">
+      <c r="J18" t="n" s="627">
         <v>0.0</v>
       </c>
-      <c r="K13" t="s" s="627">
+      <c r="K18" t="s" s="627">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="627">
+      <c r="L18" t="s" s="627">
         <v>259</v>
       </c>
-      <c r="M13" t="s" s="628">
+      <c r="M18" t="s" s="628">
         <v>85</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="557">
+    <row r="19">
+      <c r="A19" t="s" s="557">
         <v>238</v>
       </c>
-      <c r="B14" t="s" s="557">
+      <c r="B19" t="s" s="557">
         <v>239</v>
       </c>
-      <c r="C14" t="s" s="557">
+      <c r="C19" t="s" s="557">
         <v>29</v>
       </c>
-      <c r="D14" t="s" s="557">
+      <c r="D19" t="s" s="557">
         <v>30</v>
       </c>
-      <c r="E14" t="s" s="557">
+      <c r="E19" t="s" s="557">
         <v>31</v>
       </c>
-      <c r="F14" t="s" s="557">
+      <c r="F19" t="s" s="557">
         <v>162</v>
       </c>
-      <c r="G14" t="n" s="557">
+      <c r="G19" t="n" s="557">
         <v>8.0</v>
       </c>
-      <c r="H14" t="n" s="557">
+      <c r="H19" t="n" s="557">
         <v>6.0</v>
       </c>
-      <c r="I14" t="n" s="557">
+      <c r="I19" t="n" s="557">
         <v>2.0</v>
       </c>
-      <c r="J14" t="n" s="557">
+      <c r="J19" t="n" s="557">
         <v>0.0</v>
       </c>
-      <c r="K14" t="s" s="557">
+      <c r="K19" t="s" s="557">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="557">
+      <c r="L19" t="s" s="557">
         <v>240</v>
       </c>
-      <c r="M14" t="s" s="558">
+      <c r="M19" t="s" s="558">
         <v>85</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="486">
+    <row r="20">
+      <c r="A20" t="s" s="486">
         <v>149</v>
       </c>
-      <c r="B15" t="s" s="486">
+      <c r="B20" t="s" s="486">
         <v>225</v>
       </c>
-      <c r="C15" t="s" s="486">
+      <c r="C20" t="s" s="486">
         <v>29</v>
       </c>
-      <c r="D15" t="s" s="486">
+      <c r="D20" t="s" s="486">
         <v>30</v>
       </c>
-      <c r="E15" t="s" s="486">
+      <c r="E20" t="s" s="486">
         <v>31</v>
       </c>
-      <c r="F15" t="s" s="486">
+      <c r="F20" t="s" s="486">
         <v>162</v>
       </c>
-      <c r="G15" t="n" s="486">
+      <c r="G20" t="n" s="486">
         <v>8.0</v>
       </c>
-      <c r="H15" t="n" s="486">
+      <c r="H20" t="n" s="486">
         <v>6.0</v>
       </c>
-      <c r="I15" t="n" s="486">
+      <c r="I20" t="n" s="486">
         <v>2.0</v>
       </c>
-      <c r="J15" t="n" s="486">
+      <c r="J20" t="n" s="486">
         <v>0.0</v>
       </c>
-      <c r="K15" t="s" s="486">
+      <c r="K20" t="s" s="486">
         <v>163</v>
       </c>
-      <c r="L15" t="s" s="486">
+      <c r="L20" t="s" s="486">
         <v>226</v>
       </c>
-      <c r="M15" t="s" s="487">
+      <c r="M20" t="s" s="487">
         <v>85</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="416">
+    <row r="21">
+      <c r="A21" t="s" s="416">
         <v>149</v>
       </c>
-      <c r="B16" t="s" s="416">
+      <c r="B21" t="s" s="416">
         <v>214</v>
       </c>
-      <c r="C16" t="s" s="416">
+      <c r="C21" t="s" s="416">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="416">
+      <c r="D21" t="s" s="416">
         <v>30</v>
       </c>
-      <c r="E16" t="s" s="416">
+      <c r="E21" t="s" s="416">
         <v>31</v>
       </c>
-      <c r="F16" t="s" s="416">
+      <c r="F21" t="s" s="416">
         <v>162</v>
       </c>
-      <c r="G16" t="n" s="416">
+      <c r="G21" t="n" s="416">
         <v>8.0</v>
       </c>
-      <c r="H16" t="n" s="416">
+      <c r="H21" t="n" s="416">
         <v>6.0</v>
       </c>
-      <c r="I16" t="n" s="416">
+      <c r="I21" t="n" s="416">
         <v>2.0</v>
       </c>
-      <c r="J16" t="n" s="416">
+      <c r="J21" t="n" s="416">
         <v>0.0</v>
       </c>
-      <c r="K16" t="s" s="416">
+      <c r="K21" t="s" s="416">
         <v>163</v>
       </c>
-      <c r="L16" t="s" s="416">
+      <c r="L21" t="s" s="416">
         <v>215</v>
       </c>
-      <c r="M16" t="s" s="417">
+      <c r="M21" t="s" s="417">
         <v>85</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="346">
+    <row r="22">
+      <c r="A22" t="s" s="346">
         <v>149</v>
       </c>
-      <c r="B17" t="s" s="346">
+      <c r="B22" t="s" s="346">
         <v>203</v>
       </c>
-      <c r="C17" t="s" s="346">
+      <c r="C22" t="s" s="346">
         <v>29</v>
       </c>
-      <c r="D17" t="s" s="346">
+      <c r="D22" t="s" s="346">
         <v>30</v>
       </c>
-      <c r="E17" t="s" s="346">
+      <c r="E22" t="s" s="346">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="346">
+      <c r="F22" t="s" s="346">
         <v>162</v>
       </c>
-      <c r="G17" t="n" s="346">
+      <c r="G22" t="n" s="346">
         <v>8.0</v>
       </c>
-      <c r="H17" t="n" s="346">
+      <c r="H22" t="n" s="346">
         <v>6.0</v>
       </c>
-      <c r="I17" t="n" s="346">
+      <c r="I22" t="n" s="346">
         <v>2.0</v>
       </c>
-      <c r="J17" t="n" s="346">
+      <c r="J22" t="n" s="346">
         <v>0.0</v>
       </c>
-      <c r="K17" t="s" s="346">
+      <c r="K22" t="s" s="346">
         <v>163</v>
       </c>
-      <c r="L17" t="s" s="346">
+      <c r="L22" t="s" s="346">
         <v>204</v>
       </c>
-      <c r="M17" t="s" s="347">
+      <c r="M22" t="s" s="347">
         <v>85</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="276">
+    <row r="23">
+      <c r="A23" t="s" s="276">
         <v>149</v>
       </c>
-      <c r="B18" t="s" s="276">
+      <c r="B23" t="s" s="276">
         <v>191</v>
       </c>
-      <c r="C18" t="s" s="276">
+      <c r="C23" t="s" s="276">
         <v>29</v>
       </c>
-      <c r="D18" t="s" s="276">
+      <c r="D23" t="s" s="276">
         <v>30</v>
       </c>
-      <c r="E18" t="s" s="276">
+      <c r="E23" t="s" s="276">
         <v>31</v>
       </c>
-      <c r="F18" t="s" s="276">
+      <c r="F23" t="s" s="276">
         <v>162</v>
       </c>
-      <c r="G18" t="n" s="276">
+      <c r="G23" t="n" s="276">
         <v>8.0</v>
       </c>
-      <c r="H18" t="n" s="276">
+      <c r="H23" t="n" s="276">
         <v>5.0</v>
       </c>
-      <c r="I18" t="n" s="276">
+      <c r="I23" t="n" s="276">
         <v>3.0</v>
       </c>
-      <c r="J18" t="n" s="276">
+      <c r="J23" t="n" s="276">
         <v>0.0</v>
       </c>
-      <c r="K18" t="s" s="276">
+      <c r="K23" t="s" s="276">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="276">
+      <c r="L23" t="s" s="276">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="277">
+      <c r="M23" t="s" s="277">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="205" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="205" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B24" s="205" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="205" t="s">
+      <c r="C24" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="205" t="s">
+      <c r="D24" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="205" t="s">
+      <c r="E24" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="205" t="s">
+      <c r="F24" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="205">
+      <c r="G24" s="205">
         <v>8</v>
       </c>
-      <c r="H19" s="205">
+      <c r="H24" s="205">
         <v>6</v>
       </c>
-      <c r="I19" s="205">
+      <c r="I24" s="205">
         <v>2</v>
       </c>
-      <c r="J19" s="205">
+      <c r="J24" s="205">
         <v>0</v>
       </c>
-      <c r="K19" s="205" t="s">
+      <c r="K24" s="205" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="205" t="s">
+      <c r="L24" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="M19" s="206" t="s">
+      <c r="M24" s="206" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="155" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B25" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C25" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="D25" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="155" t="s">
+      <c r="E25" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="155" t="s">
+      <c r="F25" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="155">
+      <c r="G25" s="155">
         <v>8</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H25" s="155">
         <v>6</v>
       </c>
-      <c r="I20" s="155">
+      <c r="I25" s="155">
         <v>2</v>
       </c>
-      <c r="J20" s="155">
+      <c r="J25" s="155">
         <v>0</v>
       </c>
-      <c r="K20" s="155" t="s">
+      <c r="K25" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="155" t="s">
+      <c r="L25" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="M20" s="156" t="s">
+      <c r="M25" s="156" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="105" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B26" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C26" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D26" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E26" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F26" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G26" s="105">
         <v>7</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H26" s="105">
         <v>7</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I26" s="105">
         <v>0</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J26" s="105">
         <v>0</v>
       </c>
-      <c r="K21" s="105" t="s">
+      <c r="K26" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L26" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="106" t="s">
+      <c r="M26" s="106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B27" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C27" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D27" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F27" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G27" s="61">
         <v>7</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H27" s="61">
         <v>7</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I27" s="61">
         <v>0</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J27" s="61">
         <v>0</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="L27" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="62" t="s">
+      <c r="M27" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G28" s="16">
         <v>6</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H28" s="16">
         <v>6</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I28" s="16">
         <v>0</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J28" s="16">
         <v>0</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L28" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M28" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G29" s="14">
         <v>13</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H29" s="14">
         <v>12</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I29" s="14">
         <v>1</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J29" s="14">
         <v>0</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K29" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M29" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G30" s="12">
         <v>13</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H30" s="12">
         <v>9</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I30" s="12">
         <v>4</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J30" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M30" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G31" s="10">
         <v>61</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H31" s="10">
         <v>52</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I31" s="10">
         <v>9</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J31" s="10">
         <v>0</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G32" s="8">
         <v>7</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H32" s="8">
         <v>7</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I32" s="8">
         <v>0</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J32" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M32" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G33" s="6">
         <v>6</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H33" s="6">
         <v>6</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I33" s="6">
         <v>0</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J33" s="6">
         <v>0</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G34" s="4">
         <v>2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H34" s="4">
         <v>2</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I34" s="4">
         <v>0</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J34" s="4">
         <v>0</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H35" s="2">
         <v>6</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14107,15 +17107,15 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="43.78125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="56.14453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.4296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.32421875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.4296875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.6796875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.25390625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="34.109375"/>
@@ -14124,27 +17124,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="508">
-        <v>384</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>389</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
@@ -16560,6 +19560,857 @@
       </c>
       <c r="G109" t="s" s="1396">
         <v>393</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1422">
+        <v>157</v>
+      </c>
+      <c r="B110" t="s" s="1422">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s" s="1419">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s" s="1420">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s" s="1421">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s" s="1423">
+        <v>404</v>
+      </c>
+      <c r="G110" t="s" s="1424">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1428">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s" s="1428">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s" s="1425">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s" s="1426">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s" s="1427">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s" s="1429">
+        <v>404</v>
+      </c>
+      <c r="G111" t="s" s="1430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1434">
+        <v>157</v>
+      </c>
+      <c r="B112" t="s" s="1434">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s" s="1431">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s" s="1432">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s" s="1433">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s" s="1435">
+        <v>404</v>
+      </c>
+      <c r="G112" t="s" s="1436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1440">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s" s="1440">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s" s="1437">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s" s="1438">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s" s="1439">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s" s="1441">
+        <v>404</v>
+      </c>
+      <c r="G113" t="s" s="1442">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1446">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s" s="1446">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s" s="1443">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s" s="1444">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s" s="1445">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s" s="1447">
+        <v>404</v>
+      </c>
+      <c r="G114" t="s" s="1448">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1452">
+        <v>157</v>
+      </c>
+      <c r="B115" t="s" s="1452">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s" s="1449">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s" s="1450">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s" s="1451">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s" s="1453">
+        <v>404</v>
+      </c>
+      <c r="G115" t="s" s="1454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1458">
+        <v>157</v>
+      </c>
+      <c r="B116" t="s" s="1458">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s" s="1455">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s" s="1456">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s" s="1457">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s" s="1459">
+        <v>404</v>
+      </c>
+      <c r="G116" t="s" s="1460">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1464">
+        <v>157</v>
+      </c>
+      <c r="B117" t="s" s="1464">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s" s="1461">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s" s="1462">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s" s="1463">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s" s="1465">
+        <v>404</v>
+      </c>
+      <c r="G117" t="s" s="1466">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1492">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s" s="1492">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s" s="1489">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s" s="1490">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s" s="1491">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s" s="1493">
+        <v>414</v>
+      </c>
+      <c r="G118" t="s" s="1494">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1498">
+        <v>157</v>
+      </c>
+      <c r="B119" t="s" s="1498">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s" s="1495">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s" s="1496">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s" s="1497">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s" s="1499">
+        <v>414</v>
+      </c>
+      <c r="G119" t="s" s="1500">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1504">
+        <v>157</v>
+      </c>
+      <c r="B120" t="s" s="1504">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s" s="1501">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s" s="1502">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s" s="1503">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s" s="1505">
+        <v>414</v>
+      </c>
+      <c r="G120" t="s" s="1506">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1510">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s" s="1510">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s" s="1507">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s" s="1508">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s" s="1509">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s" s="1511">
+        <v>414</v>
+      </c>
+      <c r="G121" t="s" s="1512">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1516">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s" s="1516">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s" s="1513">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s" s="1514">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s" s="1515">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s" s="1517">
+        <v>414</v>
+      </c>
+      <c r="G122" t="s" s="1518">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1522">
+        <v>157</v>
+      </c>
+      <c r="B123" t="s" s="1522">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s" s="1519">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s" s="1520">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s" s="1521">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s" s="1523">
+        <v>414</v>
+      </c>
+      <c r="G123" t="s" s="1524">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1528">
+        <v>157</v>
+      </c>
+      <c r="B124" t="s" s="1528">
+        <v>127</v>
+      </c>
+      <c r="C124" t="s" s="1525">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s" s="1526">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s" s="1527">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s" s="1529">
+        <v>414</v>
+      </c>
+      <c r="G124" t="s" s="1530">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1534">
+        <v>157</v>
+      </c>
+      <c r="B125" t="s" s="1534">
+        <v>128</v>
+      </c>
+      <c r="C125" t="s" s="1531">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s" s="1532">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s" s="1533">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s" s="1535">
+        <v>414</v>
+      </c>
+      <c r="G125" t="s" s="1536">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1562">
+        <v>157</v>
+      </c>
+      <c r="B126" t="s" s="1562">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s" s="1559">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s" s="1560">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s" s="1561">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s" s="1563">
+        <v>428</v>
+      </c>
+      <c r="G126" t="s" s="1564">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1568">
+        <v>157</v>
+      </c>
+      <c r="B127" t="s" s="1568">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s" s="1565">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s" s="1566">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s" s="1567">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s" s="1569">
+        <v>428</v>
+      </c>
+      <c r="G127" t="s" s="1570">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1574">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s" s="1574">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s" s="1571">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s" s="1572">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s" s="1573">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s" s="1575">
+        <v>428</v>
+      </c>
+      <c r="G128" t="s" s="1576">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1580">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s" s="1580">
+        <v>124</v>
+      </c>
+      <c r="C129" t="s" s="1577">
+        <v>85</v>
+      </c>
+      <c r="D129" t="s" s="1578">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s" s="1579">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s" s="1581">
+        <v>428</v>
+      </c>
+      <c r="G129" t="s" s="1582">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1586">
+        <v>157</v>
+      </c>
+      <c r="B130" t="s" s="1586">
+        <v>430</v>
+      </c>
+      <c r="C130" t="s" s="1583">
+        <v>85</v>
+      </c>
+      <c r="D130" t="s" s="1584">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s" s="1585">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s" s="1587">
+        <v>428</v>
+      </c>
+      <c r="G130" t="s" s="1588">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1592">
+        <v>157</v>
+      </c>
+      <c r="B131" t="s" s="1592">
+        <v>127</v>
+      </c>
+      <c r="C131" t="s" s="1589">
+        <v>85</v>
+      </c>
+      <c r="D131" t="s" s="1590">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s" s="1591">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s" s="1593">
+        <v>428</v>
+      </c>
+      <c r="G131" t="s" s="1594">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1598">
+        <v>157</v>
+      </c>
+      <c r="B132" t="s" s="1598">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s" s="1595">
+        <v>85</v>
+      </c>
+      <c r="D132" t="s" s="1596">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s" s="1597">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s" s="1599">
+        <v>428</v>
+      </c>
+      <c r="G132" t="s" s="1600">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1626">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s" s="1626">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s" s="1623">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s" s="1624">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s" s="1625">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s" s="1627">
+        <v>445</v>
+      </c>
+      <c r="G133" t="s" s="1628">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1632">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s" s="1632">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s" s="1629">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s" s="1630">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s" s="1631">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s" s="1633">
+        <v>445</v>
+      </c>
+      <c r="G134" t="s" s="1634">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1638">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s" s="1638">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s" s="1635">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s" s="1636">
+        <v>10</v>
+      </c>
+      <c r="E135" t="s" s="1637">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s" s="1639">
+        <v>445</v>
+      </c>
+      <c r="G135" t="s" s="1640">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1644">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s" s="1644">
+        <v>124</v>
+      </c>
+      <c r="C136" t="s" s="1641">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s" s="1642">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s" s="1643">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s" s="1645">
+        <v>445</v>
+      </c>
+      <c r="G136" t="s" s="1646">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1650">
+        <v>157</v>
+      </c>
+      <c r="B137" t="s" s="1650">
+        <v>430</v>
+      </c>
+      <c r="C137" t="s" s="1647">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s" s="1648">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s" s="1649">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s" s="1651">
+        <v>445</v>
+      </c>
+      <c r="G137" t="s" s="1652">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1656">
+        <v>157</v>
+      </c>
+      <c r="B138" t="s" s="1656">
+        <v>127</v>
+      </c>
+      <c r="C138" t="s" s="1653">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s" s="1654">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s" s="1655">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s" s="1657">
+        <v>445</v>
+      </c>
+      <c r="G138" t="s" s="1658">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1662">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s" s="1662">
+        <v>128</v>
+      </c>
+      <c r="C139" t="s" s="1659">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s" s="1660">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s" s="1661">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s" s="1663">
+        <v>445</v>
+      </c>
+      <c r="G139" t="s" s="1664">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1690">
+        <v>157</v>
+      </c>
+      <c r="B140" t="s" s="1690">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s" s="1687">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s" s="1688">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s" s="1689">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s" s="1691">
+        <v>455</v>
+      </c>
+      <c r="G140" t="s" s="1692">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1696">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s" s="1696">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s" s="1693">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s" s="1694">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s" s="1695">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s" s="1697">
+        <v>455</v>
+      </c>
+      <c r="G141" t="s" s="1698">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1702">
+        <v>157</v>
+      </c>
+      <c r="B142" t="s" s="1702">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s" s="1699">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s" s="1700">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s" s="1701">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s" s="1703">
+        <v>455</v>
+      </c>
+      <c r="G142" t="s" s="1704">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1708">
+        <v>157</v>
+      </c>
+      <c r="B143" t="s" s="1708">
+        <v>124</v>
+      </c>
+      <c r="C143" t="s" s="1705">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s" s="1706">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s" s="1707">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s" s="1709">
+        <v>455</v>
+      </c>
+      <c r="G143" t="s" s="1710">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1714">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s" s="1714">
+        <v>430</v>
+      </c>
+      <c r="C144" t="s" s="1711">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s" s="1712">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s" s="1713">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s" s="1715">
+        <v>455</v>
+      </c>
+      <c r="G144" t="s" s="1716">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1720">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s" s="1720">
+        <v>127</v>
+      </c>
+      <c r="C145" t="s" s="1717">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s" s="1718">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s" s="1719">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s" s="1721">
+        <v>455</v>
+      </c>
+      <c r="G145" t="s" s="1722">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1726">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s" s="1726">
+        <v>128</v>
+      </c>
+      <c r="C146" t="s" s="1723">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s" s="1724">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s" s="1725">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s" s="1727">
+        <v>455</v>
+      </c>
+      <c r="G146" t="s" s="1728">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -16570,7 +20421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -16589,235 +20440,235 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="1400">
+      <c r="A1" t="s" s="1732">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="1401">
-        <v>397</v>
+      <c r="A2" t="s" s="1733">
+        <v>458</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="1399">
+      <c r="A4" t="s" s="1731">
         <v>36</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="1407">
+      <c r="A5" t="s" s="1739">
         <v>37</v>
       </c>
-      <c r="B5" t="s" s="1404">
+      <c r="B5" t="s" s="1736">
         <v>242</v>
       </c>
-      <c r="D5" t="s" s="1407">
+      <c r="D5" t="s" s="1739">
         <v>38</v>
       </c>
-      <c r="E5" t="s" s="1405">
+      <c r="E5" t="s" s="1737">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="1407">
+      <c r="G5" t="s" s="1739">
         <v>39</v>
       </c>
-      <c r="H5" t="s" s="1404">
+      <c r="H5" t="s" s="1736">
         <v>140</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="1407">
+      <c r="A6" t="s" s="1739">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="1404">
+      <c r="B6" t="s" s="1736">
         <v>163</v>
       </c>
-      <c r="D6" t="s" s="1407">
+      <c r="D6" t="s" s="1739">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="1405">
+      <c r="E6" t="s" s="1737">
         <v>85</v>
       </c>
-      <c r="G6" t="s" s="1407">
+      <c r="G6" t="s" s="1739">
         <v>42</v>
       </c>
-      <c r="H6" t="s" s="1406">
-        <v>43</v>
+      <c r="H6" t="s" s="1738">
+        <v>438</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="1399">
+      <c r="A8" t="s" s="1731">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="1407">
+      <c r="A9" t="s" s="1739">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="1406">
+      <c r="B9" t="s" s="1738">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="1407">
+      <c r="D9" t="s" s="1739">
         <v>47</v>
       </c>
-      <c r="E9" t="s" s="1406">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s" s="1407">
+      <c r="E9" t="s" s="1738">
+        <v>418</v>
+      </c>
+      <c r="G9" t="s" s="1739">
         <v>49</v>
       </c>
-      <c r="H9" t="s" s="1405">
+      <c r="H9" t="s" s="1737">
         <v>243</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="1407">
+      <c r="A10" t="s" s="1739">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="1405">
+      <c r="B10" t="s" s="1737">
         <v>244</v>
       </c>
-      <c r="D10" t="s" s="1407">
+      <c r="D10" t="s" s="1739">
         <v>51</v>
       </c>
-      <c r="E10" t="s" s="1405">
-        <v>245</v>
-      </c>
-      <c r="G10" t="s" s="1407">
+      <c r="E10" t="s" s="1737">
+        <v>419</v>
+      </c>
+      <c r="G10" t="s" s="1739">
         <v>52</v>
       </c>
-      <c r="H10" t="s" s="1406">
+      <c r="H10" t="s" s="1738">
         <v>53</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="1407">
+      <c r="A11" t="s" s="1739">
         <v>54</v>
       </c>
-      <c r="B11" t="s" s="1406">
+      <c r="B11" t="s" s="1738">
         <v>240</v>
       </c>
-      <c r="D11" t="s" s="1407">
+      <c r="D11" t="s" s="1739">
         <v>55</v>
       </c>
-      <c r="E11" t="s" s="1405">
-        <v>246</v>
-      </c>
-      <c r="G11" t="s" s="1407">
+      <c r="E11" t="s" s="1737">
+        <v>420</v>
+      </c>
+      <c r="G11" t="s" s="1739">
         <v>56</v>
       </c>
-      <c r="H11" t="s" s="1405">
+      <c r="H11" t="s" s="1737">
         <v>247</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="1399">
+      <c r="A13" t="s" s="1731">
         <v>57</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="1407">
+      <c r="A14" t="s" s="1739">
         <v>58</v>
       </c>
-      <c r="B14" t="s" s="1404">
+      <c r="B14" t="s" s="1736">
         <v>59</v>
       </c>
-      <c r="D14" t="s" s="1407">
+      <c r="D14" t="s" s="1739">
         <v>60</v>
       </c>
-      <c r="E14" t="s" s="1404">
+      <c r="E14" t="s" s="1736">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="1407">
+      <c r="A15" t="s" s="1739">
         <v>61</v>
       </c>
-      <c r="B15" t="s" s="1405">
+      <c r="B15" t="s" s="1737">
         <v>59</v>
       </c>
-      <c r="D15" t="s" s="1407">
+      <c r="D15" t="s" s="1739">
         <v>62</v>
       </c>
-      <c r="E15" t="s" s="1404">
+      <c r="E15" t="s" s="1736">
         <v>59</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="1407">
+      <c r="A16" t="s" s="1739">
         <v>63</v>
       </c>
-      <c r="B16" t="s" s="1402">
+      <c r="B16" t="s" s="1734">
         <v>248</v>
       </c>
-      <c r="D16" t="s" s="1404">
+      <c r="D16" t="s" s="1736">
         <v>171</v>
       </c>
-      <c r="F16" t="s" s="1402">
+      <c r="F16" t="s" s="1734">
         <v>65</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="1399">
+      <c r="A18" t="s" s="1731">
         <v>66</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="1407">
+      <c r="A19" t="s" s="1739">
         <v>67</v>
       </c>
-      <c r="B19" t="s" s="1406">
+      <c r="B19" t="s" s="1738">
         <v>68</v>
       </c>
-      <c r="D19" t="s" s="1407">
+      <c r="D19" t="s" s="1739">
         <v>69</v>
       </c>
-      <c r="E19" t="s" s="1402">
+      <c r="E19" t="s" s="1734">
         <v>70</v>
       </c>
-      <c r="G19" t="s" s="1407">
+      <c r="G19" t="s" s="1739">
         <v>71</v>
       </c>
-      <c r="H19" t="s" s="1402">
+      <c r="H19" t="s" s="1734">
         <v>72</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="1407">
+      <c r="A20" t="s" s="1739">
         <v>73</v>
       </c>
-      <c r="B20" t="s" s="1402">
+      <c r="B20" t="s" s="1734">
         <v>74</v>
       </c>
-      <c r="D20" t="s" s="1407">
+      <c r="D20" t="s" s="1739">
         <v>75</v>
       </c>
-      <c r="E20" t="s" s="1402">
+      <c r="E20" t="s" s="1734">
         <v>76</v>
       </c>
-      <c r="G20" t="s" s="1407">
+      <c r="G20" t="s" s="1739">
         <v>77</v>
       </c>
-      <c r="H20" t="s" s="1403">
+      <c r="H20" t="s" s="1735">
         <v>78</v>
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="true">
-      <c r="A22" t="s" s="1399">
+      <c r="A22" t="s" s="1731">
         <v>134</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="true">
-      <c r="A23" t="s" s="1407">
+      <c r="A23" t="s" s="1739">
         <v>141</v>
       </c>
-      <c r="B23" t="s" s="1408">
+      <c r="B23" t="s" s="1740">
         <v>157</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="true">
-      <c r="A24" t="s" s="1407">
+      <c r="A24" t="s" s="1739">
         <v>135</v>
       </c>
-      <c r="B24" t="s" s="1409">
+      <c r="B24" t="s" s="1741">
         <v>157</v>
       </c>
     </row>
@@ -16837,7 +20688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -16856,206 +20707,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1411">
+      <c r="A1" t="s" s="1743">
         <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1412">
-        <v>398</v>
+      <c r="A2" t="s" s="1744">
+        <v>459</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1410">
+      <c r="A4" t="s" s="1742">
         <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1418">
+      <c r="A5" t="s" s="1750">
         <v>80</v>
       </c>
-      <c r="B5" t="s" s="1416">
+      <c r="B5" t="s" s="1748">
         <v>81</v>
       </c>
-      <c r="D5" t="s" s="1418">
+      <c r="D5" t="s" s="1750">
         <v>82</v>
       </c>
-      <c r="E5" t="s" s="1416">
+      <c r="E5" t="s" s="1748">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="1418">
+      <c r="G5" t="s" s="1750">
         <v>39</v>
       </c>
-      <c r="H5" t="s" s="1416">
+      <c r="H5" t="s" s="1748">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1418">
+      <c r="A6" t="s" s="1750">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="1416">
+      <c r="B6" t="s" s="1748">
         <v>84</v>
       </c>
-      <c r="D6" t="s" s="1418">
+      <c r="D6" t="s" s="1750">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="1416">
+      <c r="E6" t="s" s="1748">
         <v>85</v>
       </c>
-      <c r="G6" t="s" s="1418">
+      <c r="G6" t="s" s="1750">
         <v>42</v>
       </c>
-      <c r="H6" t="s" s="1413">
+      <c r="H6" t="s" s="1745">
         <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="1410">
+      <c r="A8" t="s" s="1742">
         <v>44</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1418">
+      <c r="A9" t="s" s="1750">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="1417">
+      <c r="B9" t="s" s="1749">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="1418">
+      <c r="D9" t="s" s="1750">
         <v>47</v>
       </c>
-      <c r="E9" t="s" s="1417">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s" s="1418">
+      <c r="E9" t="s" s="1749">
+        <v>418</v>
+      </c>
+      <c r="G9" t="s" s="1750">
         <v>87</v>
       </c>
-      <c r="H9" t="s" s="1417">
+      <c r="H9" t="s" s="1749">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="1418">
+      <c r="A10" t="s" s="1750">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="1416">
+      <c r="B10" t="s" s="1748">
         <v>89</v>
       </c>
-      <c r="D10" t="s" s="1418">
+      <c r="D10" t="s" s="1750">
         <v>90</v>
       </c>
-      <c r="E10" t="s" s="1414">
+      <c r="E10" t="s" s="1746">
         <v>91</v>
       </c>
-      <c r="G10" t="s" s="1418">
+      <c r="G10" t="s" s="1750">
         <v>52</v>
       </c>
-      <c r="H10" t="s" s="1417">
+      <c r="H10" t="s" s="1749">
         <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="1418">
+      <c r="A11" t="s" s="1750">
         <v>54</v>
       </c>
-      <c r="B11" t="s" s="1417">
+      <c r="B11" t="s" s="1749">
         <v>88</v>
       </c>
-      <c r="D11" t="s" s="1418">
+      <c r="D11" t="s" s="1750">
         <v>92</v>
       </c>
-      <c r="E11" t="s" s="1413">
+      <c r="E11" t="s" s="1745">
         <v>93</v>
       </c>
-      <c r="G11" t="s" s="1418">
+      <c r="G11" t="s" s="1750">
         <v>94</v>
       </c>
-      <c r="H11" t="s" s="1416">
+      <c r="H11" t="s" s="1748">
         <v>81</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="1410">
+      <c r="A13" t="s" s="1742">
         <v>95</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="1418">
+      <c r="A14" t="s" s="1750">
         <v>96</v>
       </c>
-      <c r="B14" t="s" s="1417">
+      <c r="B14" t="s" s="1749">
         <v>97</v>
       </c>
-      <c r="D14" t="s" s="1418">
+      <c r="D14" t="s" s="1750">
         <v>98</v>
       </c>
-      <c r="E14" t="s" s="1417">
+      <c r="E14" t="s" s="1749">
         <v>97</v>
       </c>
-      <c r="G14" t="s" s="1418">
+      <c r="G14" t="s" s="1750">
         <v>99</v>
       </c>
-      <c r="H14" t="s" s="1417">
+      <c r="H14" t="s" s="1749">
         <v>97</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1418">
+      <c r="A15" t="s" s="1750">
         <v>63</v>
       </c>
-      <c r="B15" t="s" s="1413">
+      <c r="B15" t="s" s="1745">
         <v>100</v>
       </c>
-      <c r="D15" t="s" s="1413">
+      <c r="D15" t="s" s="1745">
         <v>64</v>
       </c>
-      <c r="F15" t="s" s="1413">
+      <c r="F15" t="s" s="1745">
         <v>65</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="1410">
+      <c r="A17" t="s" s="1742">
         <v>101</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="1418">
+      <c r="A18" t="s" s="1750">
         <v>102</v>
       </c>
-      <c r="B18" t="s" s="1413">
+      <c r="B18" t="s" s="1745">
         <v>103</v>
       </c>
-      <c r="D18" t="s" s="1418">
+      <c r="D18" t="s" s="1750">
         <v>69</v>
       </c>
-      <c r="E18" t="s" s="1413">
+      <c r="E18" t="s" s="1745">
         <v>74</v>
       </c>
-      <c r="G18" t="s" s="1418">
+      <c r="G18" t="s" s="1750">
         <v>71</v>
       </c>
-      <c r="H18" t="s" s="1414">
+      <c r="H18" t="s" s="1746">
         <v>72</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="1418">
+      <c r="A19" t="s" s="1750">
         <v>104</v>
       </c>
-      <c r="B19" t="s" s="1413">
+      <c r="B19" t="s" s="1745">
         <v>3</v>
       </c>
-      <c r="D19" t="s" s="1418">
+      <c r="D19" t="s" s="1750">
         <v>75</v>
       </c>
-      <c r="E19" t="s" s="1414">
+      <c r="E19" t="s" s="1746">
         <v>105</v>
       </c>
-      <c r="G19" t="s" s="1418">
+      <c r="G19" t="s" s="1750">
         <v>77</v>
       </c>
-      <c r="H19" t="s" s="1414">
+      <c r="H19" t="s" s="1746">
         <v>106</v>
       </c>
     </row>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="Test Results Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
-    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="11"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId7" sheetId="12"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="19"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId7" sheetId="20"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="293">
   <si>
     <t>Test Results Summary - 2025-11-14 11:58:13</t>
   </si>
@@ -596,13 +596,332 @@
   <si>
     <t>Generated: 2025-11-14 14:44:02 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-14 15:27:25</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-14]: FAILED (6 runs)</t>
+  </si>
+  <si>
+    <t>Total: 72</t>
+  </si>
+  <si>
+    <t>Passed: 69</t>
+  </si>
+  <si>
+    <t>Duration: 26m 40s</t>
+  </si>
+  <si>
+    <t>Validate Header section in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 15:27:25 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Navigate to Job Mapping page</t>
+  </si>
+  <si>
+    <t>Header displays KF Talent Suite logo that navigates to KFONE Home page when clicked</t>
+  </si>
+  <si>
+    <t>Verify Header displays Client name and navigates to KFONE Clients page when clicked</t>
+  </si>
+  <si>
+    <t>Navigate to KFONE Home Page</t>
+  </si>
+  <si>
+    <t>Validate User Profile and Logout functionality from Job Mapping UI</t>
+  </si>
+  <si>
+    <t>15:27:25</t>
+  </si>
+  <si>
+    <t>Runner03_ValidateJobmappingHeaderSection</t>
+  </si>
+  <si>
+    <t>2m 18s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:27:25 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>95.0%</t>
+  </si>
+  <si>
+    <t>19.7s</t>
+  </si>
+  <si>
+    <t>2 of 55 (3.6%)</t>
+  </si>
+  <si>
+    <t>20 of 326 (6.1%)</t>
+  </si>
+  <si>
+    <t>6m 33s</t>
+  </si>
+  <si>
+    <t>6.1%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>7 scenarios</t>
+  </si>
+  <si>
+    <t>19 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:27:25 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-14 15:30:21</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-14]: FAILED (7 runs)</t>
+  </si>
+  <si>
+    <t>Total: 77</t>
+  </si>
+  <si>
+    <t>Passed: 74</t>
+  </si>
+  <si>
+    <t>Duration: 28m 31s</t>
+  </si>
+  <si>
+    <t>Validate Job Profile Details Popup that opens on clicking Matched Success Profile</t>
+  </si>
+  <si>
+    <t>Time: 15:30:21 | Total: 5 | Pass: 5 | Fail: 0</t>
+  </si>
+  <si>
+    <t>User views organization job details and opens matched success profile details</t>
+  </si>
+  <si>
+    <t>User reviews detailed profile information in popup</t>
+  </si>
+  <si>
+    <t>15:30:21</t>
+  </si>
+  <si>
+    <t>Runner05_ValidateJobProfileDetailsPopup</t>
+  </si>
+  <si>
+    <t>1m 51s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:30:21 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>96.0%</t>
+  </si>
+  <si>
+    <t>20.2s</t>
+  </si>
+  <si>
+    <t>3 of 55 (5.5%)</t>
+  </si>
+  <si>
+    <t>25 of 326 (7.7%)</t>
+  </si>
+  <si>
+    <t>8m 24s</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>5.5%</t>
+  </si>
+  <si>
+    <t>18 scenarios</t>
+  </si>
+  <si>
+    <t>24 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:30:21 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-14 15:34:48</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-14]: FAILED (8 runs)</t>
+  </si>
+  <si>
+    <t>Total: 84</t>
+  </si>
+  <si>
+    <t>Passed: 81</t>
+  </si>
+  <si>
+    <t>Duration: 32m 33s</t>
+  </si>
+  <si>
+    <t>Publishing job profiles from Jobs listing table</t>
+  </si>
+  <si>
+    <t>Time: 15:34:48 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>User publishes job profile directly from the jobs listing table</t>
+  </si>
+  <si>
+    <t>Published job profile appears in the View Published section</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile is displaying as Custom Profile in HCM Sync Profiles screen in PM</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile is displaying in jobs page in Architect Application</t>
+  </si>
+  <si>
+    <t>15:34:48</t>
+  </si>
+  <si>
+    <t>Runner06_PublishJobProfile</t>
+  </si>
+  <si>
+    <t>4m 2s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:34:48 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>97.0%</t>
+  </si>
+  <si>
+    <t>23.3s</t>
+  </si>
+  <si>
+    <t>4 of 55 (7.3%)</t>
+  </si>
+  <si>
+    <t>32 of 326 (9.8%)</t>
+  </si>
+  <si>
+    <t>12m 26s</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>7.3%</t>
+  </si>
+  <si>
+    <t>25 scenarios</t>
+  </si>
+  <si>
+    <t>31 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:34:48 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-14 15:42:28</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-14]: FAILED (9 runs)</t>
+  </si>
+  <si>
+    <t>Total: 91</t>
+  </si>
+  <si>
+    <t>Passed: 87</t>
+  </si>
+  <si>
+    <t>Failed: 4</t>
+  </si>
+  <si>
+    <t>Duration: 39m 52s</t>
+  </si>
+  <si>
+    <t>Publishing job profiles from Job Mapping Comparison screen</t>
+  </si>
+  <si>
+    <t>Time: 15:42:28 | Total: 7 | Pass: 6 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Publish Job from DS Suggestions in Job Comparison screen</t>
+  </si>
+  <si>
+    <t>Verify Published Job Profile moved to View Published screen</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Issue in verifying published job in HCM Sync Profiles screen in PM...Please Investigate!!!
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO06_PublishJobProfile.user_should_verify_published_job_is_displayed_in_hcm_sync_profiles_tab_in_pm(PO06_PublishJobProfile.java:440)</t>
+  </si>
+  <si>
+    <t>15:42:28</t>
+  </si>
+  <si>
+    <t>Runner07_PublishJobFromComparisonScreen</t>
+  </si>
+  <si>
+    <t>86.0%</t>
+  </si>
+  <si>
+    <t>7m 19s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:42:28 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>30.4s</t>
+  </si>
+  <si>
+    <t>5 of 55 (9.1%)</t>
+  </si>
+  <si>
+    <t>39 of 326 (12.0%)</t>
+  </si>
+  <si>
+    <t>19m 45s</t>
+  </si>
+  <si>
+    <t>12.0%</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
+    <t>14 scenarios</t>
+  </si>
+  <si>
+    <t>37 Passed</t>
+  </si>
+  <si>
+    <t>2 Failed</t>
+  </si>
+  <si>
+    <t>Publishing job profiles from Job Mapping Comparison screen, Validate HCM Sync Profiles screen functionality in PM</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-14 15:42:28 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="503">
+  <fonts count="747">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2824,6 +3143,1186 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3106,7 +4605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="747">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -4612,6 +6111,738 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="502" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4620,13 +6851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="66.015625"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="110.77734375"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.4296875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.828125"/>
@@ -4637,27 +6868,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>177</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>181</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
@@ -6175,6 +8406,604 @@
         <v>182</v>
       </c>
       <c r="G70" t="s" s="480">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="506">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s" s="506">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s" s="503">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s" s="504">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s" s="505">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s" s="507">
+        <v>194</v>
+      </c>
+      <c r="G71" t="s" s="508">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="512">
+        <v>193</v>
+      </c>
+      <c r="B72" t="s" s="512">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s" s="509">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s" s="510">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s" s="511">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s" s="513">
+        <v>194</v>
+      </c>
+      <c r="G72" t="s" s="514">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="518">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s" s="518">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s" s="515">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s" s="516">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s" s="517">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s" s="519">
+        <v>194</v>
+      </c>
+      <c r="G73" t="s" s="520">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="524">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s" s="524">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s" s="521">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s" s="522">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s" s="523">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s" s="525">
+        <v>194</v>
+      </c>
+      <c r="G74" t="s" s="526">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="530">
+        <v>193</v>
+      </c>
+      <c r="B75" t="s" s="530">
+        <v>197</v>
+      </c>
+      <c r="C75" t="s" s="527">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s" s="528">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s" s="529">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s" s="531">
+        <v>194</v>
+      </c>
+      <c r="G75" t="s" s="532">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="536">
+        <v>193</v>
+      </c>
+      <c r="B76" t="s" s="536">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s" s="533">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s" s="534">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s" s="535">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="537">
+        <v>194</v>
+      </c>
+      <c r="G76" t="s" s="538">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="542">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s" s="542">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s" s="539">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s" s="540">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s" s="541">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s" s="543">
+        <v>194</v>
+      </c>
+      <c r="G77" t="s" s="544">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="570">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s" s="570">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s" s="567">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s" s="568">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s" s="569">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s" s="571">
+        <v>222</v>
+      </c>
+      <c r="G78" t="s" s="572">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="576">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s" s="576">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s" s="573">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s" s="574">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s" s="575">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s" s="577">
+        <v>222</v>
+      </c>
+      <c r="G79" t="s" s="578">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="582">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s" s="582">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s" s="579">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s" s="580">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s" s="581">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s" s="583">
+        <v>222</v>
+      </c>
+      <c r="G80" t="s" s="584">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="588">
+        <v>221</v>
+      </c>
+      <c r="B81" t="s" s="588">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s" s="585">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s" s="586">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s" s="587">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s" s="589">
+        <v>222</v>
+      </c>
+      <c r="G81" t="s" s="590">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="594">
+        <v>221</v>
+      </c>
+      <c r="B82" t="s" s="594">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s" s="591">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s" s="592">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s" s="593">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s" s="595">
+        <v>222</v>
+      </c>
+      <c r="G82" t="s" s="596">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="622">
+        <v>245</v>
+      </c>
+      <c r="B83" t="s" s="622">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s" s="619">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s" s="620">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s" s="621">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s" s="623">
+        <v>246</v>
+      </c>
+      <c r="G83" t="s" s="624">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="628">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s" s="628">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s" s="625">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s" s="626">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s" s="627">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s" s="629">
+        <v>246</v>
+      </c>
+      <c r="G84" t="s" s="630">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="634">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s" s="634">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s" s="631">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s" s="632">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s" s="633">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s" s="635">
+        <v>246</v>
+      </c>
+      <c r="G85" t="s" s="636">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="640">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s" s="640">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s" s="637">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s" s="638">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s" s="639">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s" s="641">
+        <v>246</v>
+      </c>
+      <c r="G86" t="s" s="642">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="646">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s" s="646">
+        <v>248</v>
+      </c>
+      <c r="C87" t="s" s="643">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s" s="644">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s" s="645">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s" s="647">
+        <v>246</v>
+      </c>
+      <c r="G87" t="s" s="648">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="652">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s" s="652">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s" s="649">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s" s="650">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s" s="651">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s" s="653">
+        <v>246</v>
+      </c>
+      <c r="G88" t="s" s="654">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="658">
+        <v>245</v>
+      </c>
+      <c r="B89" t="s" s="658">
+        <v>250</v>
+      </c>
+      <c r="C89" t="s" s="655">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s" s="656">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s" s="657">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s" s="659">
+        <v>246</v>
+      </c>
+      <c r="G89" t="s" s="660">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="686">
+        <v>272</v>
+      </c>
+      <c r="B90" t="s" s="686">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s" s="683">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s" s="684">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s" s="685">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s" s="687">
+        <v>273</v>
+      </c>
+      <c r="G90" t="s" s="688">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="692">
+        <v>272</v>
+      </c>
+      <c r="B91" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s" s="689">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s" s="690">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s" s="691">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s" s="693">
+        <v>273</v>
+      </c>
+      <c r="G91" t="s" s="694">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="698">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s" s="698">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s" s="695">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s" s="696">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s" s="697">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s" s="699">
+        <v>273</v>
+      </c>
+      <c r="G92" t="s" s="700">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="704">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s" s="704">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s" s="701">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s" s="702">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s" s="703">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s" s="705">
+        <v>273</v>
+      </c>
+      <c r="G93" t="s" s="706">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="710">
+        <v>272</v>
+      </c>
+      <c r="B94" t="s" s="710">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s" s="707">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s" s="708">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s" s="709">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s" s="711">
+        <v>273</v>
+      </c>
+      <c r="G94" t="s" s="712">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="716">
+        <v>272</v>
+      </c>
+      <c r="B95" t="s" s="716">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s" s="713">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s" s="714">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s" s="715">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s" s="717">
+        <v>273</v>
+      </c>
+      <c r="G95" t="s" s="718">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="722">
+        <v>272</v>
+      </c>
+      <c r="B96" t="s" s="722">
+        <v>250</v>
+      </c>
+      <c r="C96" t="s" s="719">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s" s="720">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s" s="721">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s" s="723">
+        <v>273</v>
+      </c>
+      <c r="G96" t="s" s="724">
         <v>19</v>
       </c>
     </row>
@@ -6186,7 +9015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -6197,7 +9026,7 @@
     <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.1640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
@@ -6205,236 +9034,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="484">
+      <c r="A1" t="s" s="728">
         <v>55</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="485">
-        <v>185</v>
+      <c r="A2" t="s" s="729">
+        <v>281</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="483">
+      <c r="A4" t="s" s="727">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="491">
+      <c r="A5" t="s" s="735">
         <v>58</v>
       </c>
-      <c r="B5" t="s" s="486">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s" s="491">
+      <c r="B5" t="s" s="730">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s" s="735">
         <v>60</v>
       </c>
-      <c r="E5" t="s" s="488">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s" s="491">
+      <c r="E5" t="s" s="730">
+        <v>205</v>
+      </c>
+      <c r="G5" t="s" s="735">
         <v>62</v>
       </c>
-      <c r="H5" t="s" s="488">
+      <c r="H5" t="s" s="732">
         <v>63</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="491">
+      <c r="A6" t="s" s="735">
         <v>64</v>
       </c>
-      <c r="B6" t="s" s="486">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="491">
+      <c r="B6" t="s" s="730">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s" s="735">
         <v>65</v>
       </c>
-      <c r="E6" t="s" s="489">
+      <c r="E6" t="s" s="733">
         <v>31</v>
       </c>
-      <c r="G6" t="s" s="491">
+      <c r="G6" t="s" s="735">
         <v>66</v>
       </c>
-      <c r="H6" t="s" s="490">
+      <c r="H6" t="s" s="734">
         <v>186</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="483">
+      <c r="A8" t="s" s="727">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="491">
+      <c r="A9" t="s" s="735">
         <v>69</v>
       </c>
-      <c r="B9" t="s" s="490">
+      <c r="B9" t="s" s="734">
         <v>70</v>
       </c>
-      <c r="D9" t="s" s="491">
+      <c r="D9" t="s" s="735">
         <v>71</v>
       </c>
-      <c r="E9" t="s" s="490">
+      <c r="E9" t="s" s="734">
         <v>72</v>
       </c>
-      <c r="G9" t="s" s="491">
+      <c r="G9" t="s" s="735">
         <v>73</v>
       </c>
-      <c r="H9" t="s" s="489">
-        <v>74</v>
+      <c r="H9" t="s" s="733">
+        <v>282</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="491">
+      <c r="A10" t="s" s="735">
         <v>75</v>
       </c>
-      <c r="B10" t="s" s="489">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s" s="491">
+      <c r="B10" t="s" s="733">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s" s="735">
         <v>77</v>
       </c>
-      <c r="E10" t="s" s="489">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s" s="491">
+      <c r="E10" t="s" s="733">
+        <v>284</v>
+      </c>
+      <c r="G10" t="s" s="735">
         <v>79</v>
       </c>
-      <c r="H10" t="s" s="490">
+      <c r="H10" t="s" s="734">
         <v>80</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="491">
+      <c r="A11" t="s" s="735">
         <v>81</v>
       </c>
-      <c r="B11" t="s" s="490">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s" s="491">
+      <c r="B11" t="s" s="734">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s" s="735">
         <v>82</v>
       </c>
-      <c r="E11" t="s" s="489">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s" s="491">
+      <c r="E11" t="s" s="733">
+        <v>286</v>
+      </c>
+      <c r="G11" t="s" s="735">
         <v>84</v>
       </c>
-      <c r="H11" t="s" s="489">
-        <v>85</v>
+      <c r="H11" t="s" s="733">
+        <v>287</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="483">
+      <c r="A13" t="s" s="727">
         <v>86</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="491">
+      <c r="A14" t="s" s="735">
         <v>87</v>
       </c>
-      <c r="B14" t="s" s="488">
+      <c r="B14" t="s" s="732">
         <v>88</v>
       </c>
-      <c r="D14" t="s" s="491">
+      <c r="D14" t="s" s="735">
         <v>89</v>
       </c>
-      <c r="E14" t="s" s="489">
+      <c r="E14" t="s" s="731">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="true">
+      <c r="A15" t="s" s="735">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s" s="730">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s" s="735">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s" s="732">
         <v>88</v>
       </c>
     </row>
-    <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="491">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s" s="486">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s" s="491">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s" s="488">
-        <v>88</v>
-      </c>
-    </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="491">
+      <c r="A16" t="s" s="735">
         <v>93</v>
       </c>
-      <c r="B16" t="s" s="486">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s" s="488">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s" s="486">
+      <c r="B16" t="s" s="730">
+        <v>289</v>
+      </c>
+      <c r="D16" t="s" s="732">
+        <v>290</v>
+      </c>
+      <c r="F16" t="s" s="730">
         <v>96</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="483">
+      <c r="A18" t="s" s="727">
         <v>97</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="491">
+      <c r="A19" t="s" s="735">
         <v>98</v>
       </c>
-      <c r="B19" t="s" s="490">
+      <c r="B19" t="s" s="734">
         <v>99</v>
       </c>
-      <c r="D19" t="s" s="491">
+      <c r="D19" t="s" s="735">
         <v>100</v>
       </c>
-      <c r="E19" t="s" s="486">
+      <c r="E19" t="s" s="730">
         <v>101</v>
       </c>
-      <c r="G19" t="s" s="491">
+      <c r="G19" t="s" s="735">
         <v>102</v>
       </c>
-      <c r="H19" t="s" s="486">
+      <c r="H19" t="s" s="730">
         <v>103</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="491">
+      <c r="A20" t="s" s="735">
         <v>104</v>
       </c>
-      <c r="B20" t="s" s="486">
+      <c r="B20" t="s" s="730">
         <v>105</v>
       </c>
-      <c r="D20" t="s" s="491">
+      <c r="D20" t="s" s="735">
         <v>106</v>
       </c>
-      <c r="E20" t="s" s="486">
+      <c r="E20" t="s" s="730">
         <v>107</v>
       </c>
-      <c r="G20" t="s" s="491">
+      <c r="G20" t="s" s="735">
         <v>108</v>
       </c>
-      <c r="H20" t="s" s="487">
+      <c r="H20" t="s" s="731">
         <v>109</v>
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="true">
-      <c r="A22" t="s" s="483">
+      <c r="A22" t="s" s="727">
         <v>110</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="true">
-      <c r="A23" t="s" s="491">
+      <c r="A23" t="s" s="735">
         <v>111</v>
       </c>
-      <c r="B23" t="s" s="492">
-        <v>14</v>
+      <c r="B23" t="s" s="736">
+        <v>291</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="true">
-      <c r="A24" t="s" s="491">
+      <c r="A24" t="s" s="735">
         <v>112</v>
       </c>
-      <c r="B24" t="s" s="493">
-        <v>14</v>
+      <c r="B24" t="s" s="737">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +9282,445 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="38.09765625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="80">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="80">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="80">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s" s="80">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s" s="80">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s" s="80">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="80">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s" s="80">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="80">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s" s="80">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s" s="80">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s" s="80">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s" s="80">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="725">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="725">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s" s="725">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s" s="725">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s" s="725">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s" s="725">
+        <v>278</v>
+      </c>
+      <c r="G2" t="n" s="725">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n" s="725">
+        <v>6.0</v>
+      </c>
+      <c r="I2" t="n" s="725">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="725">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="725">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s" s="725">
+        <v>280</v>
+      </c>
+      <c r="M2" t="s" s="726">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="661">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s" s="661">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s" s="661">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s" s="661">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s" s="661">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s" s="661">
+        <v>252</v>
+      </c>
+      <c r="G3" t="n" s="661">
+        <v>7.0</v>
+      </c>
+      <c r="H3" t="n" s="661">
+        <v>7.0</v>
+      </c>
+      <c r="I3" t="n" s="661">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="661">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="661">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s" s="661">
+        <v>253</v>
+      </c>
+      <c r="M3" t="s" s="662">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="597">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="597">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s" s="597">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s" s="597">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s" s="597">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s" s="597">
+        <v>226</v>
+      </c>
+      <c r="G4" t="n" s="597">
+        <v>5.0</v>
+      </c>
+      <c r="H4" t="n" s="597">
+        <v>5.0</v>
+      </c>
+      <c r="I4" t="n" s="597">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="597">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="597">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s" s="597">
+        <v>227</v>
+      </c>
+      <c r="M4" t="s" s="598">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="545">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s" s="545">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s" s="545">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s" s="545">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s" s="545">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s" s="545">
+        <v>201</v>
+      </c>
+      <c r="G5" t="n" s="545">
+        <v>7.0</v>
+      </c>
+      <c r="H5" t="n" s="545">
+        <v>7.0</v>
+      </c>
+      <c r="I5" t="n" s="545">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="545">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s" s="545">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s" s="545">
+        <v>202</v>
+      </c>
+      <c r="M5" t="s" s="546">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="481">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s" s="481">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s" s="481">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s" s="481">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s" s="481">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s" s="481">
+        <v>52</v>
+      </c>
+      <c r="G6" t="n" s="481">
+        <v>13.0</v>
+      </c>
+      <c r="H6" t="n" s="481">
+        <v>13.0</v>
+      </c>
+      <c r="I6" t="n" s="481">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="481">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="s" s="481">
+        <v>173</v>
+      </c>
+      <c r="L6" t="s" s="481">
+        <v>184</v>
+      </c>
+      <c r="M6" t="s" s="482">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="381">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="381">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s" s="381">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s" s="381">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s" s="381">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s" s="381">
+        <v>52</v>
+      </c>
+      <c r="G7" t="n" s="381">
+        <v>13.0</v>
+      </c>
+      <c r="H7" t="n" s="381">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="381">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="381">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="s" s="381">
+        <v>173</v>
+      </c>
+      <c r="L7" t="s" s="381">
+        <v>174</v>
+      </c>
+      <c r="M7" t="s" s="382">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="281">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="281">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s" s="281">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="281">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="281">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s" s="281">
+        <v>52</v>
+      </c>
+      <c r="G8" t="n" s="281">
+        <v>13.0</v>
+      </c>
+      <c r="H8" t="n" s="281">
+        <v>12.0</v>
+      </c>
+      <c r="I8" t="n" s="281">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="281">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="s" s="281">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s" s="281">
+        <v>163</v>
+      </c>
+      <c r="M8" t="s" s="282">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="181">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="181">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s" s="181">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s" s="181">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="181">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s" s="181">
+        <v>52</v>
+      </c>
+      <c r="G9" t="n" s="181">
+        <v>13.0</v>
+      </c>
+      <c r="H9" t="n" s="181">
+        <v>12.0</v>
+      </c>
+      <c r="I9" t="n" s="181">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n" s="181">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="s" s="181">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s" s="181">
+        <v>151</v>
+      </c>
+      <c r="M9" t="s" s="182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="81">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="81">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="81">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s" s="81">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s" s="81">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s" s="81">
+        <v>52</v>
+      </c>
+      <c r="G10" t="n" s="81">
+        <v>13.0</v>
+      </c>
+      <c r="H10" t="n" s="81">
+        <v>12.0</v>
+      </c>
+      <c r="I10" t="n" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="s" s="81">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s" s="81">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s" s="82">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6472,206 +9739,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="495">
+      <c r="A1" t="s" s="739">
         <v>113</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="496">
-        <v>187</v>
+      <c r="A2" t="s" s="740">
+        <v>292</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="494">
+      <c r="A4" t="s" s="738">
         <v>57</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="502">
+      <c r="A5" t="s" s="746">
         <v>115</v>
       </c>
-      <c r="B5" t="s" s="500">
+      <c r="B5" t="s" s="744">
         <v>116</v>
       </c>
-      <c r="D5" t="s" s="502">
+      <c r="D5" t="s" s="746">
         <v>117</v>
       </c>
-      <c r="E5" t="s" s="500">
+      <c r="E5" t="s" s="744">
         <v>116</v>
       </c>
-      <c r="G5" t="s" s="502">
+      <c r="G5" t="s" s="746">
         <v>62</v>
       </c>
-      <c r="H5" t="s" s="500">
+      <c r="H5" t="s" s="744">
         <v>118</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="502">
+      <c r="A6" t="s" s="746">
         <v>60</v>
       </c>
-      <c r="B6" t="s" s="500">
+      <c r="B6" t="s" s="744">
         <v>119</v>
       </c>
-      <c r="D6" t="s" s="502">
+      <c r="D6" t="s" s="746">
         <v>65</v>
       </c>
-      <c r="E6" t="s" s="500">
+      <c r="E6" t="s" s="744">
         <v>31</v>
       </c>
-      <c r="G6" t="s" s="502">
+      <c r="G6" t="s" s="746">
         <v>66</v>
       </c>
-      <c r="H6" t="s" s="497">
+      <c r="H6" t="s" s="741">
         <v>120</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="494">
+      <c r="A8" t="s" s="738">
         <v>68</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="746">
         <v>69</v>
       </c>
-      <c r="B9" t="s" s="501">
+      <c r="B9" t="s" s="745">
         <v>70</v>
       </c>
-      <c r="D9" t="s" s="502">
+      <c r="D9" t="s" s="746">
         <v>71</v>
       </c>
-      <c r="E9" t="s" s="501">
+      <c r="E9" t="s" s="745">
         <v>72</v>
       </c>
-      <c r="G9" t="s" s="502">
+      <c r="G9" t="s" s="746">
         <v>121</v>
       </c>
-      <c r="H9" t="s" s="501">
+      <c r="H9" t="s" s="745">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="502">
+      <c r="A10" t="s" s="746">
         <v>75</v>
       </c>
-      <c r="B10" t="s" s="500">
+      <c r="B10" t="s" s="744">
         <v>123</v>
       </c>
-      <c r="D10" t="s" s="502">
+      <c r="D10" t="s" s="746">
         <v>124</v>
       </c>
-      <c r="E10" t="s" s="498">
+      <c r="E10" t="s" s="742">
         <v>125</v>
       </c>
-      <c r="G10" t="s" s="502">
+      <c r="G10" t="s" s="746">
         <v>79</v>
       </c>
-      <c r="H10" t="s" s="501">
+      <c r="H10" t="s" s="745">
         <v>49</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="502">
+      <c r="A11" t="s" s="746">
         <v>81</v>
       </c>
-      <c r="B11" t="s" s="501">
+      <c r="B11" t="s" s="745">
         <v>122</v>
       </c>
-      <c r="D11" t="s" s="502">
+      <c r="D11" t="s" s="746">
         <v>126</v>
       </c>
-      <c r="E11" t="s" s="497">
+      <c r="E11" t="s" s="741">
         <v>127</v>
       </c>
-      <c r="G11" t="s" s="502">
+      <c r="G11" t="s" s="746">
         <v>128</v>
       </c>
-      <c r="H11" t="s" s="500">
+      <c r="H11" t="s" s="744">
         <v>116</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="494">
+      <c r="A13" t="s" s="738">
         <v>129</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="502">
+      <c r="A14" t="s" s="746">
         <v>130</v>
       </c>
-      <c r="B14" t="s" s="501">
+      <c r="B14" t="s" s="745">
         <v>131</v>
       </c>
-      <c r="D14" t="s" s="502">
+      <c r="D14" t="s" s="746">
         <v>132</v>
       </c>
-      <c r="E14" t="s" s="501">
+      <c r="E14" t="s" s="745">
         <v>131</v>
       </c>
-      <c r="G14" t="s" s="502">
+      <c r="G14" t="s" s="746">
         <v>133</v>
       </c>
-      <c r="H14" t="s" s="501">
+      <c r="H14" t="s" s="745">
         <v>131</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="502">
+      <c r="A15" t="s" s="746">
         <v>93</v>
       </c>
-      <c r="B15" t="s" s="497">
+      <c r="B15" t="s" s="741">
         <v>134</v>
       </c>
-      <c r="D15" t="s" s="497">
+      <c r="D15" t="s" s="741">
         <v>135</v>
       </c>
-      <c r="F15" t="s" s="497">
+      <c r="F15" t="s" s="741">
         <v>96</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="494">
+      <c r="A17" t="s" s="738">
         <v>136</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="502">
+      <c r="A18" t="s" s="746">
         <v>137</v>
       </c>
-      <c r="B18" t="s" s="497">
+      <c r="B18" t="s" s="741">
         <v>138</v>
       </c>
-      <c r="D18" t="s" s="502">
+      <c r="D18" t="s" s="746">
         <v>100</v>
       </c>
-      <c r="E18" t="s" s="497">
+      <c r="E18" t="s" s="741">
         <v>105</v>
       </c>
-      <c r="G18" t="s" s="502">
+      <c r="G18" t="s" s="746">
         <v>102</v>
       </c>
-      <c r="H18" t="s" s="498">
+      <c r="H18" t="s" s="742">
         <v>103</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="502">
+      <c r="A19" t="s" s="746">
         <v>139</v>
       </c>
-      <c r="B19" t="s" s="497">
+      <c r="B19" t="s" s="741">
         <v>9</v>
       </c>
-      <c r="D19" t="s" s="502">
+      <c r="D19" t="s" s="746">
         <v>106</v>
       </c>
-      <c r="E19" t="s" s="498">
+      <c r="E19" t="s" s="742">
         <v>140</v>
       </c>
-      <c r="G19" t="s" s="502">
+      <c r="G19" t="s" s="746">
         <v>108</v>
       </c>
-      <c r="H19" t="s" s="498">
+      <c r="H19" t="s" s="742">
         <v>141</v>
       </c>
     </row>
@@ -6686,278 +9953,4 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0078125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.24609375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.99609375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="37.1015625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.91015625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.96484375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="80">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s" s="80">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="80">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s" s="80">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s" s="80">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s" s="80">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s" s="80">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s" s="80">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s" s="80">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s" s="80">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s" s="80">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="80">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="80">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="481">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="481">
-        <v>183</v>
-      </c>
-      <c r="C2" t="s" s="481">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s" s="481">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s" s="481">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s" s="481">
-        <v>52</v>
-      </c>
-      <c r="G2" t="n" s="481">
-        <v>13.0</v>
-      </c>
-      <c r="H2" t="n" s="481">
-        <v>13.0</v>
-      </c>
-      <c r="I2" t="n" s="481">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n" s="481">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="s" s="481">
-        <v>173</v>
-      </c>
-      <c r="L2" t="s" s="481">
-        <v>184</v>
-      </c>
-      <c r="M2" t="s" s="482">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="381">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s" s="381">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s" s="381">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s" s="381">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s" s="381">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s" s="381">
-        <v>52</v>
-      </c>
-      <c r="G3" t="n" s="381">
-        <v>13.0</v>
-      </c>
-      <c r="H3" t="n" s="381">
-        <v>13.0</v>
-      </c>
-      <c r="I3" t="n" s="381">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n" s="381">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="s" s="381">
-        <v>173</v>
-      </c>
-      <c r="L3" t="s" s="381">
-        <v>174</v>
-      </c>
-      <c r="M3" t="s" s="382">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="281">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s" s="281">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s" s="281">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s" s="281">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s" s="281">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s" s="281">
-        <v>52</v>
-      </c>
-      <c r="G4" t="n" s="281">
-        <v>13.0</v>
-      </c>
-      <c r="H4" t="n" s="281">
-        <v>12.0</v>
-      </c>
-      <c r="I4" t="n" s="281">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n" s="281">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s" s="281">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s" s="281">
-        <v>163</v>
-      </c>
-      <c r="M4" t="s" s="282">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="181">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s" s="181">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s" s="181">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s" s="181">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s" s="181">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s" s="181">
-        <v>52</v>
-      </c>
-      <c r="G5" t="n" s="181">
-        <v>13.0</v>
-      </c>
-      <c r="H5" t="n" s="181">
-        <v>12.0</v>
-      </c>
-      <c r="I5" t="n" s="181">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n" s="181">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="s" s="181">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s" s="181">
-        <v>151</v>
-      </c>
-      <c r="M5" t="s" s="182">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="81">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s" s="81">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s" s="81">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s" s="81">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s" s="81">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s" s="81">
-        <v>52</v>
-      </c>
-      <c r="G6" t="n" s="81">
-        <v>13.0</v>
-      </c>
-      <c r="H6" t="n" s="81">
-        <v>12.0</v>
-      </c>
-      <c r="I6" t="n" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="J6" t="n" s="81">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="s" s="81">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s" s="81">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s" s="82">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3248B5C6-E586-48B2-8CB2-E5F28E754517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Automation Execution History" sheetId="2" r:id="rId2"/>
-    <sheet name="Automation QA Dashboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Cross-Browser QA Dashboard" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Results Summary" r:id="rId8" sheetId="5"/>
+    <sheet name="Automation QA Dashboard" r:id="rId9" sheetId="8"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:C22"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
   <si>
     <t>Test Results Summary - 2025-11-21 18:35:50</t>
   </si>
@@ -424,13 +424,144 @@
   </si>
   <si>
     <t>Cross-Browser Enhanced</t>
+  </si>
+  <si>
+    <t>Test Results Summary - 2025-11-22 22:31:50</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-22]: FAILED (1 run)</t>
+  </si>
+  <si>
+    <t>Total: 2</t>
+  </si>
+  <si>
+    <t>Passed: 1</t>
+  </si>
+  <si>
+    <t>Failed: 1</t>
+  </si>
+  <si>
+    <t>Duration: 1m 2s</t>
+  </si>
+  <si>
+    <t>01KFoneLogin.feature</t>
+  </si>
+  <si>
+    <t>Login to KFONE Application and Find client with access to Profile Manager Application</t>
+  </si>
+  <si>
+    <t>User logs in to KFOne with standard credentials</t>
+  </si>
+  <si>
+    <t>Time: 22:31:50 | Total: 2 | Pass: 1 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Exception: TimeoutException
+Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class,'kfone-header')]"}
+  (Session info: chrome=133.0.6943.127)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8d564e67fcda4540771e0fd7ff4b5939, findElement {value=//div[contains(@class,'kfone-header')], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Job Mapping\e2e-automati...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50282}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50282/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d564e67fcda4540771e0fd7ff4b5939
+Key Stack Trace:
+  at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:84)
+  at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:228)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.provide_non_sso_login_password_and_click_sign_in_button_in_kfone_login_page(PO01_KFoneLogin.java:297)</t>
+  </si>
+  <si>
+    <t>clm.user.one@testkfy.com</t>
+  </si>
+  <si>
+    <t>CLM Test Company 1</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>22:31:50</t>
+  </si>
+  <si>
+    <t>Runner01_KFoneLogin</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>1m 2s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-22 22:31:50 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>31.0s</t>
+  </si>
+  <si>
+    <t>2 of 332 (0.6%)</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>2 scenarios</t>
+  </si>
+  <si>
+    <t>1 Passed</t>
+  </si>
+  <si>
+    <t>1 Failed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-22 22:31:50 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-11-22 22:37:17</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-11-22]: FAILED (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 4</t>
+  </si>
+  <si>
+    <t>Passed: 3</t>
+  </si>
+  <si>
+    <t>Duration: 1m 39s</t>
+  </si>
+  <si>
+    <t>Time: 22:37:17 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>22:37:17</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-22 22:37:17 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>18.5s</t>
+  </si>
+  <si>
+    <t>2 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-11-22 22:37:17 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -713,8 +844,346 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,8 +1235,63 @@
         <fgColor indexed="44"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -805,11 +1329,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -987,6 +1555,225 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="13" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="13" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="13" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="6" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,272 +2088,29 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.3125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.40234375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1663,570 +2207,762 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="78">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s" s="78">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s" s="78">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s" s="78">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s" s="78">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s" s="78">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s" s="78">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="78">
+        <v>150</v>
+      </c>
+      <c r="I3" t="n" s="78">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="n" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n" s="78">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="78">
+        <v>151</v>
+      </c>
+      <c r="N3" t="s" s="78">
+        <v>152</v>
+      </c>
+      <c r="O3" t="s" s="79">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="114">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s" s="114">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s" s="114">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s" s="114">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s" s="114">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s" s="114">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s" s="114">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="114">
+        <v>150</v>
+      </c>
+      <c r="I4" t="n" s="114">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n" s="114">
+        <v>2.0</v>
+      </c>
+      <c r="K4" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="114">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s" s="114">
+        <v>169</v>
+      </c>
+      <c r="O4" t="s" s="115">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.60546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="43.28125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.25390625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="34.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="255.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="61">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="61">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="61">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="61">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="61">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="61">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="61">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="111">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s" s="113">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s" s="65">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s" s="62">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s" s="63">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="64">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="66">
+        <v>144</v>
+      </c>
+      <c r="H6" t="s" s="67">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="111">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s" s="113">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s" s="71">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="68">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="69">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="70">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="72">
+        <v>144</v>
+      </c>
+      <c r="H7" t="s" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="111">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s" s="113">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s" s="101">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s" s="98">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="99">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="100">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="102">
+        <v>167</v>
+      </c>
+      <c r="H8" t="s" s="103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="111">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s" s="113">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s" s="107">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="105">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="106">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="108">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s" s="109">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" ht="18.0" customHeight="true">
+      <c r="A1" t="s" s="117">
         <v>52</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+    </row>
+    <row r="2" ht="18.0" customHeight="true">
+      <c r="A2" t="s" s="118">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" ht="18.0" customHeight="true">
+      <c r="A4" t="s" s="116">
         <v>54</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    </row>
+    <row r="5" ht="18.0" customHeight="true">
+      <c r="A5" t="s" s="124">
         <v>55</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" t="s" s="119">
         <v>56</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" t="s" s="124">
         <v>57</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" t="s" s="119">
         <v>58</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" t="s" s="124">
         <v>59</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" t="s" s="119">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+    <row r="6" ht="18.0" customHeight="true">
+      <c r="A6" t="s" s="124">
         <v>61</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" t="s" s="119">
         <v>50</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" t="s" s="124">
         <v>62</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" t="s" s="119">
         <v>18</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" t="s" s="124">
         <v>63</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" t="s" s="123">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+    <row r="8" ht="18.0" customHeight="true">
+      <c r="A8" t="s" s="116">
         <v>65</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+    </row>
+    <row r="9" ht="18.0" customHeight="true">
+      <c r="A9" t="s" s="124">
         <v>66</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" t="s" s="123">
         <v>67</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" t="s" s="124">
         <v>68</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" t="s" s="123">
         <v>69</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" t="s" s="124">
         <v>70</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="H9" t="s" s="122">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" ht="18.0" customHeight="true">
+      <c r="A10" t="s" s="124">
         <v>72</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" t="s" s="122">
         <v>73</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" t="s" s="124">
         <v>74</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="46" t="s">
+      <c r="E10" t="s" s="122">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s" s="124">
         <v>76</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" t="s" s="123">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+    <row r="11" ht="18.0" customHeight="true">
+      <c r="A11" t="s" s="124">
         <v>78</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="B11" t="s" s="123">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s" s="124">
         <v>79</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" t="s" s="122">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s" s="124">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s" s="122">
         <v>80</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+    </row>
+    <row r="13" ht="18.0" customHeight="true">
+      <c r="A13" t="s" s="116">
         <v>82</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+    </row>
+    <row r="14" ht="18.0" customHeight="true">
+      <c r="A14" t="s" s="124">
         <v>83</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" t="s" s="119">
+        <v>158</v>
+      </c>
+      <c r="D14" t="s" s="124">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s" s="122">
         <v>84</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+    </row>
+    <row r="15" ht="18.0" customHeight="true">
+      <c r="A15" t="s" s="124">
         <v>87</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" t="s" s="122">
         <v>84</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" t="s" s="124">
         <v>88</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" t="s" s="121">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+    <row r="16" ht="18.0" customHeight="true">
+      <c r="A16" t="s" s="124">
         <v>89</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="B16" t="s" s="119">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s" s="119">
         <v>91</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" t="s" s="119">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+    <row r="18" ht="18.0" customHeight="true">
+      <c r="A18" t="s" s="116">
         <v>93</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+    </row>
+    <row r="19" ht="18.0" customHeight="true">
+      <c r="A19" t="s" s="124">
         <v>94</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" t="s" s="123">
         <v>95</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" t="s" s="124">
         <v>96</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" t="s" s="119">
         <v>97</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" t="s" s="124">
         <v>98</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" t="s" s="119">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+    <row r="20" ht="18.0" customHeight="true">
+      <c r="A20" t="s" s="124">
         <v>100</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" t="s" s="119">
         <v>101</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" t="s" s="124">
         <v>102</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" t="s" s="119">
         <v>103</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" t="s" s="124">
         <v>104</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" t="s" s="120">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="126">
         <v>106</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="127">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="125">
         <v>54</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="133">
         <v>108</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" t="s" s="131">
         <v>109</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" t="s" s="133">
         <v>110</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" t="s" s="131">
         <v>109</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" t="s" s="133">
         <v>59</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" t="s" s="131">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="133">
         <v>57</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" t="s" s="131">
         <v>112</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" t="s" s="133">
         <v>62</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" t="s" s="131">
         <v>113</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" t="s" s="133">
         <v>63</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" t="s" s="128">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="125">
         <v>65</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="133">
         <v>66</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" t="s" s="132">
         <v>67</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" t="s" s="133">
         <v>68</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" t="s" s="132">
         <v>69</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" t="s" s="133">
         <v>115</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" t="s" s="132">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="133">
         <v>72</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" t="s" s="131">
         <v>117</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" t="s" s="133">
         <v>118</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" t="s" s="129">
         <v>119</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" t="s" s="133">
         <v>76</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" t="s" s="132">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="133">
         <v>78</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" t="s" s="132">
         <v>116</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" t="s" s="133">
         <v>120</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" t="s" s="128">
         <v>121</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" t="s" s="133">
         <v>122</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" t="s" s="131">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="125">
         <v>123</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="133">
         <v>124</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" t="s" s="132">
         <v>125</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" t="s" s="133">
         <v>126</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" t="s" s="132">
         <v>125</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" t="s" s="133">
         <v>127</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" t="s" s="132">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="133">
         <v>89</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" t="s" s="128">
         <v>128</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" t="s" s="128">
         <v>91</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" t="s" s="128">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="125">
         <v>129</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="133">
         <v>130</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" t="s" s="128">
         <v>131</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" t="s" s="133">
         <v>96</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" t="s" s="128">
         <v>101</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" t="s" s="133">
         <v>98</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" t="s" s="129">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="133">
         <v>132</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" t="s" s="128">
         <v>10</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" t="s" s="133">
         <v>102</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" t="s" s="129">
         <v>133</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" t="s" s="133">
         <v>104</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" t="s" s="129">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -8,34 +8,34 @@
   <sheets>
     <sheet name="Test Results Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
-    <sheet name="Automation QA Dashboard" r:id="rId5" sheetId="3"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId6" sheetId="4"/>
+    <sheet name="Automation QA Dashboard" r:id="rId7" sheetId="5"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="201">
-  <si>
-    <t>Test Results Summary - 2025-12-08 10:58:45</t>
-  </si>
-  <si>
-    <t>Daily Status [2025-12-08]: FAILED (1 run)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="218">
+  <si>
+    <t>Test Results Summary - 2025-12-08 12:05:36</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-08]: PASSED (1 run)</t>
   </si>
   <si>
     <t>Total: 69</t>
   </si>
   <si>
-    <t>Passed: 68</t>
-  </si>
-  <si>
-    <t>Failed: 1</t>
+    <t>Passed: 69</t>
+  </si>
+  <si>
+    <t>Failed: 0</t>
   </si>
   <si>
     <t>Skipped: 0</t>
   </si>
   <si>
-    <t>Duration: 10m 32s</t>
+    <t>Duration: 12m 0s</t>
   </si>
   <si>
     <t>Feature File</t>
@@ -77,7 +77,7 @@
     <t/>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 2 | Pass: 2 | Fail: 0</t>
+    <t>Time: 12:05:36 | Total: 2 | Pass: 2 | Fail: 0</t>
   </si>
   <si>
     <t>Test executed successfully</t>
@@ -92,7 +92,7 @@
     <t>Verify Components in Job Mapping Page</t>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 16 | Pass: 16 | Fail: 0</t>
+    <t>Time: 12:05:36 | Total: 16 | Pass: 16 | Fail: 0</t>
   </si>
   <si>
     <t>Navigate to Job Mapping page</t>
@@ -143,7 +143,7 @@
     <t>Publishing job profiles from Job profile details popup</t>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 7 | Pass: 7 | Fail: 0</t>
+    <t>Time: 12:05:36 | Total: 7 | Pass: 7 | Fail: 0</t>
   </si>
   <si>
     <t>User publishes job profile from the profile details popup</t>
@@ -182,7 +182,7 @@
     <t>Verify Info Message for Multiple Profiles with Missing Data</t>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 9 | Pass: 9 | Fail: 0</t>
+    <t>Time: 12:05:36 | Total: 9 | Pass: 9 | Fail: 0</t>
   </si>
   <si>
     <t>Verify Info Message displays on first profile with missing data</t>
@@ -209,7 +209,7 @@
     <t>Validate Add More Jobs functionality in AI Auto Job Mapping Page</t>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 6 | Pass: 6 | Fail: 0</t>
+    <t>Time: 12:05:36 | Total: 6 | Pass: 6 | Fail: 0</t>
   </si>
   <si>
     <t>User accesses job upload functionality through Add More Jobs button</t>
@@ -251,7 +251,7 @@
     <t>Validate HCM Sync Profiles screen functionality in PM</t>
   </si>
   <si>
-    <t>Time: 10:58:45 | Total: 13 | Pass: 12 | Fail: 1</t>
+    <t>Time: 12:05:36 | Total: 13 | Pass: 13 | Fail: 0</t>
   </si>
   <si>
     <t>Verify Title and Description of HCM Sync Profiles</t>
@@ -284,280 +284,273 @@
     <t>Verify Sync with HCM button is Enabled and Disabled based on profile selection and deselection respectively in HCM Sync Profiles screen</t>
   </si>
   <si>
+    <t>Verify Sync with HCM button functionality and Verify PopUp</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Testing Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Execution Type</t>
+  </si>
+  <si>
+    <t>Browser Results</t>
+  </si>
+  <si>
+    <t>Runner / Suite File</t>
+  </si>
+  <si>
+    <t>Functions Tested</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Issues Found</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Quality Status</t>
+  </si>
+  <si>
+    <t>AIAuto.user.one@kfdbhdevoutlook.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>AI AutoMap test Client</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>12:05:36</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>Job Mapping - Sanity Test Suite</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>12m 0s</t>
+  </si>
+  <si>
+    <t>Job Mapping - NORMAL EXECUTION QA DASHBOARD</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-08 12:05:36 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>EXECUTIVE SCORECARD</t>
+  </si>
+  <si>
+    <t>Health Score:</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Risk Level:</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Business Impact:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINIMAL</t>
+  </si>
+  <si>
+    <t>Success Rate:</t>
+  </si>
+  <si>
+    <t>Critical Path:</t>
+  </si>
+  <si>
+    <t>Execution Mode:</t>
+  </si>
+  <si>
+    <t>Headless</t>
+  </si>
+  <si>
+    <t>PROJECT OVERVIEW</t>
+  </si>
+  <si>
+    <t>Total Features in Project:</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Total Scenarios in Project:</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>Avg Execution Time:</t>
+  </si>
+  <si>
+    <t>10.4s</t>
+  </si>
+  <si>
+    <t>Features Executed:</t>
+  </si>
+  <si>
+    <t>1 of 57 (1.8%)</t>
+  </si>
+  <si>
+    <t>Scenarios Executed:</t>
+  </si>
+  <si>
+    <t>69 of 346 (19.9%)</t>
+  </si>
+  <si>
+    <t>Environment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QA</t>
+  </si>
+  <si>
+    <t>Total Duration:</t>
+  </si>
+  <si>
+    <t>Project Coverage:</t>
+  </si>
+  <si>
+    <t>19.9%</t>
+  </si>
+  <si>
+    <t>Feature Coverage:</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>TEST COVERAGE ANALYTICS</t>
+  </si>
+  <si>
+    <t>Authentication:</t>
+  </si>
+  <si>
+    <t>0 scenarios</t>
+  </si>
+  <si>
+    <t>AI AutoMapping:</t>
+  </si>
+  <si>
+    <t>69 scenarios</t>
+  </si>
+  <si>
+    <t>Profile Management:</t>
+  </si>
+  <si>
+    <t>AutoAI Manual Mapping:</t>
+  </si>
+  <si>
+    <t>Results Breakdown:</t>
+  </si>
+  <si>
+    <t>69 Passed</t>
+  </si>
+  <si>
+    <t>0 Failed</t>
+  </si>
+  <si>
+    <t>0 Skipped</t>
+  </si>
+  <si>
+    <t>PERFORMANCE &amp; CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Browser:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHROME</t>
+  </si>
+  <si>
+    <t>Excel Reporting:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enabled</t>
+  </si>
+  <si>
+    <t>Framework Version:</t>
+  </si>
+  <si>
+    <t>v2.1.0</t>
+  </si>
+  <si>
+    <t>Screenshot Capture:</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Session Recovery:</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Page Objects:</t>
+  </si>
+  <si>
+    <t>24 Enhanced</t>
+  </si>
+  <si>
+    <t>Job Mapping - CROSS-BROWSER QA DASHBOARD</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-08 12:05:36 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Compatibility Score:</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>Cross-Browser Success Rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIGH</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>Exception: AssertionError
-Message: Issue in verifying Sync with HCM button is disabled in HCM Sync Profiles screen in PM...Please Investigate!!!
-Key Stack Trace:
-  at org.testng.Assert.fail(Assert.java:111)
-  at com.kfonetalentsuite.pageobjects.JobMapping.PO22_ValidateHCMSyncProfilesScreen_PM.user_should_verify_sync_with_hcm_button_is_disabled_in_hcm_sync_profiles_tab(PO22_ValidateHCMSyncProfilesScreen_PM.java:1932)</t>
-  </si>
-  <si>
-    <t>Verify Sync with HCM button functionality and Verify PopUp</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Testing Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Execution Type</t>
-  </si>
-  <si>
-    <t>Browser Results</t>
-  </si>
-  <si>
-    <t>Runner / Suite File</t>
-  </si>
-  <si>
-    <t>Functions Tested</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>Issues Found</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Success Rate</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Quality Status</t>
-  </si>
-  <si>
-    <t>AIAuto.user.one@kfdbhdevoutlook.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>AI AutoMap test Client</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>10:58:45</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>CHROME</t>
-  </si>
-  <si>
-    <t>Job Mapping - Sanity Test Suite</t>
-  </si>
-  <si>
-    <t>99.0%</t>
-  </si>
-  <si>
-    <t>10m 32s</t>
-  </si>
-  <si>
-    <t>Job Mapping - NORMAL EXECUTION QA DASHBOARD</t>
-  </si>
-  <si>
-    <t>Generated: 2025-12-08 10:58:45 | Environment: QA | Focus: Normal Single-Browser Execution</t>
-  </si>
-  <si>
-    <t>EXECUTIVE SCORECARD</t>
-  </si>
-  <si>
-    <t>Health Score:</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Risk Level:</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>Business Impact:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MINIMAL</t>
-  </si>
-  <si>
-    <t>Success Rate:</t>
-  </si>
-  <si>
-    <t>Critical Path:</t>
-  </si>
-  <si>
-    <t>Execution Mode:</t>
-  </si>
-  <si>
-    <t>Headless</t>
-  </si>
-  <si>
-    <t>PROJECT OVERVIEW</t>
-  </si>
-  <si>
-    <t>Total Features in Project:</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Total Scenarios in Project:</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>Avg Execution Time:</t>
-  </si>
-  <si>
-    <t>9.2s</t>
-  </si>
-  <si>
-    <t>Features Executed:</t>
-  </si>
-  <si>
-    <t>1 of 57 (1.8%)</t>
-  </si>
-  <si>
-    <t>Scenarios Executed:</t>
-  </si>
-  <si>
-    <t>69 of 346 (19.9%)</t>
-  </si>
-  <si>
-    <t>Environment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QA</t>
-  </si>
-  <si>
-    <t>Total Duration:</t>
-  </si>
-  <si>
-    <t>Project Coverage:</t>
-  </si>
-  <si>
-    <t>19.9%</t>
-  </si>
-  <si>
-    <t>Feature Coverage:</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>TEST COVERAGE ANALYTICS</t>
-  </si>
-  <si>
-    <t>Authentication:</t>
-  </si>
-  <si>
-    <t>0 scenarios</t>
-  </si>
-  <si>
-    <t>AI AutoMapping:</t>
-  </si>
-  <si>
-    <t>69 scenarios</t>
-  </si>
-  <si>
-    <t>Profile Management:</t>
-  </si>
-  <si>
-    <t>AutoAI Manual Mapping:</t>
-  </si>
-  <si>
-    <t>Results Breakdown:</t>
-  </si>
-  <si>
-    <t>68 Passed</t>
-  </si>
-  <si>
-    <t>1 Failed</t>
-  </si>
-  <si>
-    <t>0 Skipped</t>
-  </si>
-  <si>
-    <t>PERFORMANCE &amp; CONFIGURATION</t>
-  </si>
-  <si>
-    <t>Browser:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CHROME</t>
-  </si>
-  <si>
-    <t>Excel Reporting:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enabled</t>
-  </si>
-  <si>
-    <t>Framework Version:</t>
-  </si>
-  <si>
-    <t>v2.1.0</t>
-  </si>
-  <si>
-    <t>Screenshot Capture:</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Session Recovery:</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Page Objects:</t>
-  </si>
-  <si>
-    <t>24 Enhanced</t>
-  </si>
-  <si>
-    <t>Job Mapping - CROSS-BROWSER QA DASHBOARD</t>
-  </si>
-  <si>
-    <t>Generated: 2025-12-08 10:58:45 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
-  </si>
-  <si>
-    <t>Compatibility Score:</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>Cross-Browser Success Rate:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HIGH</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>Cross-Browser</t>
   </si>
   <si>
@@ -603,9 +596,6 @@
     <t>0 Passed</t>
   </si>
   <si>
-    <t>0 Failed</t>
-  </si>
-  <si>
     <t>CROSS-BROWSER PERFORMANCE &amp; CONFIGURATION</t>
   </si>
   <si>
@@ -622,6 +612,63 @@
   </si>
   <si>
     <t>Cross-Browser Enhanced</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-08 15:01:48</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-08]: ALL_PASSED (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 76</t>
+  </si>
+  <si>
+    <t>Passed: 76</t>
+  </si>
+  <si>
+    <t>Duration: 15m 19s</t>
+  </si>
+  <si>
+    <t>Time: 15:01:48 | Total: 7 | Pass: 7 | Fail: 0</t>
+  </si>
+  <si>
+    <t>15:01:48</t>
+  </si>
+  <si>
+    <t>Runner11c_ValidateFunctionSubfunctionFilters</t>
+  </si>
+  <si>
+    <t>3m 19s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-08 15:01:48 | Environment: QA | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>12.1s</t>
+  </si>
+  <si>
+    <t>2 of 57 (3.5%)</t>
+  </si>
+  <si>
+    <t>76 of 346 (22.0%)</t>
+  </si>
+  <si>
+    <t>15m 19s</t>
+  </si>
+  <si>
+    <t>22.0%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
+  </si>
+  <si>
+    <t>76 scenarios</t>
+  </si>
+  <si>
+    <t>76 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-08 15:01:48 | Environment: QA | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
 </sst>
 </file>
@@ -629,7 +676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="437">
+  <fonts count="499">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2389,7 +2436,7 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
-      <color indexed="16"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -2450,7 +2497,303 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
-      <color indexed="16"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2721,7 +3064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="507">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -3932,7 +4275,7 @@
     <xf numFmtId="0" fontId="403" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="404" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
@@ -3941,13 +4284,13 @@
     <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="407" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="410" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
@@ -3983,10 +4326,10 @@
     <xf numFmtId="0" fontId="416" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="417" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="419" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -4041,6 +4384,204 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="436" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4049,36 +4590,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="69.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="110.77734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.25390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="36.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="188.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="59.13671875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="110.77734375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.25390625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.10546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.34375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>4</v>
@@ -4087,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>6</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -4117,10 +4658,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="416">
+      <c r="A6" t="s" s="483">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="418">
+      <c r="B6" t="s" s="485">
         <v>16</v>
       </c>
       <c r="C6" t="s" s="5">
@@ -4143,10 +4684,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="416">
+      <c r="A7" t="s" s="483">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="418">
+      <c r="B7" t="s" s="485">
         <v>16</v>
       </c>
       <c r="C7" t="s" s="11">
@@ -4169,10 +4710,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="416">
+      <c r="A8" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="418">
+      <c r="B8" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="17">
@@ -4195,10 +4736,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="416">
+      <c r="A9" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="418">
+      <c r="B9" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="23">
@@ -4221,10 +4762,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="416">
+      <c r="A10" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B10" t="s" s="418">
+      <c r="B10" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C10" t="s" s="29">
@@ -4247,10 +4788,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="416">
+      <c r="A11" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B11" t="s" s="418">
+      <c r="B11" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C11" t="s" s="35">
@@ -4273,10 +4814,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="416">
+      <c r="A12" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="418">
+      <c r="B12" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="41">
@@ -4299,10 +4840,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="416">
+      <c r="A13" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="418">
+      <c r="B13" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C13" t="s" s="47">
@@ -4325,10 +4866,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="416">
+      <c r="A14" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="418">
+      <c r="B14" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C14" t="s" s="53">
@@ -4351,10 +4892,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="416">
+      <c r="A15" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="418">
+      <c r="B15" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C15" t="s" s="59">
@@ -4377,10 +4918,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="416">
+      <c r="A16" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B16" t="s" s="418">
+      <c r="B16" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C16" t="s" s="65">
@@ -4403,10 +4944,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="416">
+      <c r="A17" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B17" t="s" s="418">
+      <c r="B17" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C17" t="s" s="71">
@@ -4429,10 +4970,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="416">
+      <c r="A18" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B18" t="s" s="418">
+      <c r="B18" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C18" t="s" s="77">
@@ -4455,10 +4996,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="416">
+      <c r="A19" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B19" t="s" s="418">
+      <c r="B19" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C19" t="s" s="83">
@@ -4481,10 +5022,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="416">
+      <c r="A20" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B20" t="s" s="418">
+      <c r="B20" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C20" t="s" s="89">
@@ -4507,10 +5048,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="416">
+      <c r="A21" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="418">
+      <c r="B21" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C21" t="s" s="95">
@@ -4533,10 +5074,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="416">
+      <c r="A22" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B22" t="s" s="418">
+      <c r="B22" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C22" t="s" s="101">
@@ -4559,10 +5100,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="416">
+      <c r="A23" t="s" s="483">
         <v>23</v>
       </c>
-      <c r="B23" t="s" s="418">
+      <c r="B23" t="s" s="485">
         <v>24</v>
       </c>
       <c r="C23" t="s" s="107">
@@ -4585,10 +5126,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="416">
+      <c r="A24" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B24" t="s" s="418">
+      <c r="B24" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C24" t="s" s="113">
@@ -4611,10 +5152,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="416">
+      <c r="A25" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B25" t="s" s="418">
+      <c r="B25" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C25" t="s" s="119">
@@ -4637,10 +5178,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="416">
+      <c r="A26" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B26" t="s" s="418">
+      <c r="B26" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C26" t="s" s="125">
@@ -4663,10 +5204,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="416">
+      <c r="A27" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B27" t="s" s="418">
+      <c r="B27" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C27" t="s" s="131">
@@ -4689,10 +5230,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="416">
+      <c r="A28" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B28" t="s" s="418">
+      <c r="B28" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C28" t="s" s="137">
@@ -4715,10 +5256,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="416">
+      <c r="A29" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B29" t="s" s="418">
+      <c r="B29" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C29" t="s" s="143">
@@ -4741,10 +5282,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="416">
+      <c r="A30" t="s" s="483">
         <v>40</v>
       </c>
-      <c r="B30" t="s" s="418">
+      <c r="B30" t="s" s="485">
         <v>41</v>
       </c>
       <c r="C30" t="s" s="149">
@@ -4767,10 +5308,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="416">
+      <c r="A31" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B31" t="s" s="418">
+      <c r="B31" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C31" t="s" s="155">
@@ -4793,10 +5334,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="416">
+      <c r="A32" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B32" t="s" s="418">
+      <c r="B32" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C32" t="s" s="161">
@@ -4819,10 +5360,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="416">
+      <c r="A33" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B33" t="s" s="418">
+      <c r="B33" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C33" t="s" s="167">
@@ -4845,10 +5386,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="416">
+      <c r="A34" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B34" t="s" s="418">
+      <c r="B34" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C34" t="s" s="173">
@@ -4871,10 +5412,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="416">
+      <c r="A35" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B35" t="s" s="418">
+      <c r="B35" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C35" t="s" s="179">
@@ -4897,10 +5438,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="416">
+      <c r="A36" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B36" t="s" s="418">
+      <c r="B36" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C36" t="s" s="185">
@@ -4923,10 +5464,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="416">
+      <c r="A37" t="s" s="483">
         <v>47</v>
       </c>
-      <c r="B37" t="s" s="418">
+      <c r="B37" t="s" s="485">
         <v>48</v>
       </c>
       <c r="C37" t="s" s="191">
@@ -4949,10 +5490,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="416">
+      <c r="A38" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B38" t="s" s="418">
+      <c r="B38" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C38" t="s" s="197">
@@ -4975,10 +5516,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="416">
+      <c r="A39" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B39" t="s" s="418">
+      <c r="B39" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C39" t="s" s="203">
@@ -5001,10 +5542,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="416">
+      <c r="A40" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B40" t="s" s="418">
+      <c r="B40" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C40" t="s" s="209">
@@ -5027,10 +5568,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="416">
+      <c r="A41" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B41" t="s" s="418">
+      <c r="B41" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C41" t="s" s="215">
@@ -5053,10 +5594,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="416">
+      <c r="A42" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B42" t="s" s="418">
+      <c r="B42" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C42" t="s" s="221">
@@ -5079,10 +5620,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="416">
+      <c r="A43" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B43" t="s" s="418">
+      <c r="B43" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C43" t="s" s="227">
@@ -5105,10 +5646,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="416">
+      <c r="A44" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B44" t="s" s="418">
+      <c r="B44" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C44" t="s" s="233">
@@ -5131,10 +5672,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="416">
+      <c r="A45" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B45" t="s" s="418">
+      <c r="B45" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C45" t="s" s="239">
@@ -5157,10 +5698,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="416">
+      <c r="A46" t="s" s="483">
         <v>53</v>
       </c>
-      <c r="B46" t="s" s="418">
+      <c r="B46" t="s" s="485">
         <v>54</v>
       </c>
       <c r="C46" t="s" s="245">
@@ -5183,10 +5724,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="416">
+      <c r="A47" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B47" t="s" s="418">
+      <c r="B47" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C47" t="s" s="251">
@@ -5209,10 +5750,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="416">
+      <c r="A48" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B48" t="s" s="418">
+      <c r="B48" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C48" t="s" s="257">
@@ -5235,10 +5776,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="416">
+      <c r="A49" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B49" t="s" s="418">
+      <c r="B49" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C49" t="s" s="263">
@@ -5261,10 +5802,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="416">
+      <c r="A50" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B50" t="s" s="418">
+      <c r="B50" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C50" t="s" s="269">
@@ -5287,10 +5828,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="416">
+      <c r="A51" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B51" t="s" s="418">
+      <c r="B51" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C51" t="s" s="275">
@@ -5313,10 +5854,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="416">
+      <c r="A52" t="s" s="483">
         <v>62</v>
       </c>
-      <c r="B52" t="s" s="418">
+      <c r="B52" t="s" s="485">
         <v>63</v>
       </c>
       <c r="C52" t="s" s="281">
@@ -5339,10 +5880,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="416">
+      <c r="A53" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B53" t="s" s="418">
+      <c r="B53" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C53" t="s" s="287">
@@ -5365,10 +5906,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="416">
+      <c r="A54" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B54" t="s" s="418">
+      <c r="B54" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C54" t="s" s="293">
@@ -5391,10 +5932,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="416">
+      <c r="A55" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B55" t="s" s="418">
+      <c r="B55" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C55" t="s" s="299">
@@ -5417,10 +5958,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="416">
+      <c r="A56" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B56" t="s" s="418">
+      <c r="B56" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C56" t="s" s="305">
@@ -5443,10 +5984,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="416">
+      <c r="A57" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B57" t="s" s="418">
+      <c r="B57" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C57" t="s" s="311">
@@ -5469,10 +6010,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="416">
+      <c r="A58" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B58" t="s" s="418">
+      <c r="B58" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C58" t="s" s="317">
@@ -5495,10 +6036,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="416">
+      <c r="A59" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B59" t="s" s="418">
+      <c r="B59" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C59" t="s" s="323">
@@ -5521,10 +6062,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="416">
+      <c r="A60" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B60" t="s" s="418">
+      <c r="B60" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C60" t="s" s="329">
@@ -5547,10 +6088,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="416">
+      <c r="A61" t="s" s="483">
         <v>68</v>
       </c>
-      <c r="B61" t="s" s="418">
+      <c r="B61" t="s" s="485">
         <v>69</v>
       </c>
       <c r="C61" t="s" s="335">
@@ -5573,10 +6114,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="417">
+      <c r="A62" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B62" t="s" s="419">
+      <c r="B62" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C62" t="s" s="341">
@@ -5599,10 +6140,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="417">
+      <c r="A63" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B63" t="s" s="419">
+      <c r="B63" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C63" t="s" s="347">
@@ -5625,10 +6166,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="417">
+      <c r="A64" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B64" t="s" s="419">
+      <c r="B64" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C64" t="s" s="353">
@@ -5651,10 +6192,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="417">
+      <c r="A65" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B65" t="s" s="419">
+      <c r="B65" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C65" t="s" s="359">
@@ -5677,10 +6218,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="417">
+      <c r="A66" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B66" t="s" s="419">
+      <c r="B66" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C66" t="s" s="365">
@@ -5703,10 +6244,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="417">
+      <c r="A67" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B67" t="s" s="419">
+      <c r="B67" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C67" t="s" s="371">
@@ -5729,10 +6270,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="417">
+      <c r="A68" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B68" t="s" s="419">
+      <c r="B68" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C68" t="s" s="377">
@@ -5755,10 +6296,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="417">
+      <c r="A69" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B69" t="s" s="419">
+      <c r="B69" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C69" t="s" s="383">
@@ -5781,10 +6322,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="417">
+      <c r="A70" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B70" t="s" s="419">
+      <c r="B70" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C70" t="s" s="389">
@@ -5807,10 +6348,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="417">
+      <c r="A71" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B71" t="s" s="419">
+      <c r="B71" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C71" t="s" s="395">
@@ -5833,10 +6374,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="417">
+      <c r="A72" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B72" t="s" s="419">
+      <c r="B72" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C72" t="s" s="401">
@@ -5859,17 +6400,17 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="417">
+      <c r="A73" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B73" t="s" s="419">
+      <c r="B73" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C73" t="s" s="407">
         <v>88</v>
       </c>
       <c r="D73" t="s" s="404">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s" s="405">
         <v>19</v>
@@ -5881,18 +6422,18 @@
         <v>78</v>
       </c>
       <c r="H73" t="s" s="409">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="417">
+      <c r="A74" t="s" s="483">
         <v>76</v>
       </c>
-      <c r="B74" t="s" s="419">
+      <c r="B74" t="s" s="485">
         <v>77</v>
       </c>
       <c r="C74" t="s" s="413">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s" s="410">
         <v>18</v>
@@ -5910,8 +6451,190 @@
         <v>21</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s" s="444">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s" s="441">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s" s="442">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s" s="443">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s" s="445">
+        <v>204</v>
+      </c>
+      <c r="H75" t="s" s="446">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s" s="450">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s" s="447">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s" s="451">
+        <v>204</v>
+      </c>
+      <c r="H76" t="s" s="452">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s" s="456">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s" s="453">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s" s="454">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s" s="455">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s" s="457">
+        <v>204</v>
+      </c>
+      <c r="H77" t="s" s="458">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s" s="462">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s" s="459">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s" s="460">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s" s="461">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s" s="463">
+        <v>204</v>
+      </c>
+      <c r="H78" t="s" s="464">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s" s="468">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s" s="465">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s" s="466">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s" s="467">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s" s="469">
+        <v>204</v>
+      </c>
+      <c r="H79" t="s" s="470">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s" s="474">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s" s="471">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s" s="472">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s" s="473">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s" s="475">
+        <v>204</v>
+      </c>
+      <c r="H80" t="s" s="476">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="483">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s" s="480">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s" s="477">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s" s="478">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s" s="479">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s" s="481">
+        <v>204</v>
+      </c>
+      <c r="H81" t="s" s="482">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="35">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A23"/>
@@ -5921,6 +6644,7 @@
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:A61"/>
     <mergeCell ref="A62:A74"/>
+    <mergeCell ref="A75:A81"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B23"/>
     <mergeCell ref="B24:B30"/>
@@ -5929,6 +6653,7 @@
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B61"/>
     <mergeCell ref="B62:B74"/>
+    <mergeCell ref="B75:B81"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5936,121 +6661,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.24609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.99609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="26.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.08984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.3125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="38.40234375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="420">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="420">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s" s="420">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="420">
+      <c r="D1" t="s" s="420">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="420">
+      <c r="E1" t="s" s="420">
         <v>94</v>
       </c>
-      <c r="D1" t="s" s="420">
+      <c r="F1" t="s" s="420">
         <v>95</v>
       </c>
-      <c r="E1" t="s" s="420">
+      <c r="G1" t="s" s="420">
         <v>96</v>
       </c>
-      <c r="F1" t="s" s="420">
+      <c r="H1" t="s" s="420">
         <v>97</v>
       </c>
-      <c r="G1" t="s" s="420">
+      <c r="I1" t="s" s="420">
         <v>98</v>
       </c>
-      <c r="H1" t="s" s="420">
+      <c r="J1" t="s" s="420">
         <v>99</v>
       </c>
-      <c r="I1" t="s" s="420">
+      <c r="K1" t="s" s="420">
         <v>100</v>
       </c>
-      <c r="J1" t="s" s="420">
+      <c r="L1" t="s" s="420">
         <v>101</v>
       </c>
-      <c r="K1" t="s" s="420">
+      <c r="M1" t="s" s="420">
         <v>102</v>
       </c>
-      <c r="L1" t="s" s="420">
+      <c r="N1" t="s" s="420">
         <v>103</v>
       </c>
-      <c r="M1" t="s" s="420">
+      <c r="O1" t="s" s="420">
         <v>104</v>
-      </c>
-      <c r="N1" t="s" s="420">
-        <v>105</v>
-      </c>
-      <c r="O1" t="s" s="420">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="421">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s" s="421">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s" s="421">
         <v>107</v>
       </c>
-      <c r="B2" t="s" s="421">
+      <c r="D2" t="s" s="421">
         <v>108</v>
       </c>
-      <c r="C2" t="s" s="421">
+      <c r="E2" t="s" s="421">
         <v>109</v>
       </c>
-      <c r="D2" t="s" s="421">
+      <c r="F2" t="s" s="421">
         <v>110</v>
       </c>
-      <c r="E2" t="s" s="421">
+      <c r="G2" t="s" s="421">
         <v>111</v>
       </c>
-      <c r="F2" t="s" s="421">
+      <c r="H2" t="s" s="421">
         <v>112</v>
-      </c>
-      <c r="G2" t="s" s="421">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s" s="421">
-        <v>114</v>
       </c>
       <c r="I2" t="n" s="421">
         <v>69.0</v>
       </c>
       <c r="J2" t="n" s="421">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K2" t="n" s="421">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n" s="421">
         <v>0.0</v>
       </c>
       <c r="M2" t="s" s="421">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s" s="421">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O2" t="s" s="422">
-        <v>89</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="487">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="487">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s" s="487">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s" s="487">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s" s="487">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s" s="487">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s" s="487">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s" s="487">
+        <v>206</v>
+      </c>
+      <c r="I3" t="n" s="487">
+        <v>7.0</v>
+      </c>
+      <c r="J3" t="n" s="487">
+        <v>7.0</v>
+      </c>
+      <c r="K3" t="n" s="487">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="487">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="487">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s" s="487">
+        <v>207</v>
+      </c>
+      <c r="O3" t="s" s="488">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -6077,215 +6849,215 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="424">
+      <c r="A1" t="s" s="490">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" ht="18.0" customHeight="true">
+      <c r="A2" t="s" s="491">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" ht="18.0" customHeight="true">
+      <c r="A4" t="s" s="489">
         <v>117</v>
       </c>
     </row>
-    <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="425">
+    <row r="5" ht="18.0" customHeight="true">
+      <c r="A5" t="s" s="497">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="423">
+      <c r="B5" t="s" s="492">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="431">
+      <c r="D5" t="s" s="497">
         <v>120</v>
       </c>
-      <c r="B5" t="s" s="426">
+      <c r="E5" t="s" s="492">
         <v>121</v>
       </c>
-      <c r="D5" t="s" s="431">
+      <c r="G5" t="s" s="497">
         <v>122</v>
       </c>
-      <c r="E5" t="s" s="426">
+      <c r="H5" t="s" s="492">
         <v>123</v>
       </c>
-      <c r="G5" t="s" s="431">
+    </row>
+    <row r="6" ht="18.0" customHeight="true">
+      <c r="A6" t="s" s="497">
         <v>124</v>
       </c>
-      <c r="H5" t="s" s="426">
+      <c r="B6" t="s" s="492">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s" s="497">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="431">
+      <c r="E6" t="s" s="492">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="497">
         <v>126</v>
       </c>
-      <c r="B6" t="s" s="426">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s" s="431">
+      <c r="H6" t="s" s="496">
         <v>127</v>
       </c>
-      <c r="E6" t="s" s="426">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="431">
+    </row>
+    <row r="8" ht="18.0" customHeight="true">
+      <c r="A8" t="s" s="489">
         <v>128</v>
       </c>
-      <c r="H6" t="s" s="430">
+    </row>
+    <row r="9" ht="18.0" customHeight="true">
+      <c r="A9" t="s" s="497">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="423">
+      <c r="B9" t="s" s="496">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="431">
+      <c r="D9" t="s" s="497">
         <v>131</v>
       </c>
-      <c r="B9" t="s" s="430">
+      <c r="E9" t="s" s="496">
         <v>132</v>
       </c>
-      <c r="D9" t="s" s="431">
+      <c r="G9" t="s" s="497">
         <v>133</v>
       </c>
-      <c r="E9" t="s" s="430">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s" s="431">
+      <c r="H9" t="s" s="495">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" ht="18.0" customHeight="true">
+      <c r="A10" t="s" s="497">
         <v>135</v>
       </c>
-      <c r="H9" t="s" s="429">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="431">
+      <c r="B10" t="s" s="495">
+        <v>210</v>
+      </c>
+      <c r="D10" t="s" s="497">
         <v>137</v>
       </c>
-      <c r="B10" t="s" s="429">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s" s="431">
+      <c r="E10" t="s" s="495">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s" s="497">
         <v>139</v>
       </c>
-      <c r="E10" t="s" s="429">
+      <c r="H10" t="s" s="496">
         <v>140</v>
       </c>
-      <c r="G10" t="s" s="431">
+    </row>
+    <row r="11" ht="18.0" customHeight="true">
+      <c r="A11" t="s" s="497">
         <v>141</v>
       </c>
-      <c r="H10" t="s" s="430">
+      <c r="B11" t="s" s="496">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s" s="497">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="431">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s" s="430">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s" s="431">
+      <c r="E11" t="s" s="495">
+        <v>213</v>
+      </c>
+      <c r="G11" t="s" s="497">
         <v>144</v>
       </c>
-      <c r="E11" t="s" s="429">
-        <v>145</v>
-      </c>
-      <c r="G11" t="s" s="431">
+      <c r="H11" t="s" s="495">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" ht="18.0" customHeight="true">
+      <c r="A13" t="s" s="489">
         <v>146</v>
       </c>
-      <c r="H11" t="s" s="429">
+    </row>
+    <row r="14" ht="18.0" customHeight="true">
+      <c r="A14" t="s" s="497">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="423">
+      <c r="B14" t="s" s="494">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="431">
+      <c r="D14" t="s" s="497">
         <v>149</v>
       </c>
-      <c r="B14" t="s" s="428">
-        <v>150</v>
-      </c>
-      <c r="D14" t="s" s="431">
+      <c r="E14" t="s" s="492">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="true">
+      <c r="A15" t="s" s="497">
         <v>151</v>
       </c>
-      <c r="E14" t="s" s="426">
+      <c r="B15" t="s" s="495">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s" s="497">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="431">
+      <c r="E15" t="s" s="494">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" ht="18.0" customHeight="true">
+      <c r="A16" t="s" s="497">
         <v>153</v>
       </c>
-      <c r="B15" t="s" s="429">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s" s="431">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s" s="428">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="431">
+      <c r="B16" t="s" s="492">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s" s="492">
         <v>155</v>
       </c>
-      <c r="B16" t="s" s="426">
+      <c r="F16" t="s" s="492">
         <v>156</v>
       </c>
-      <c r="D16" t="s" s="428">
+    </row>
+    <row r="18" ht="18.0" customHeight="true">
+      <c r="A18" t="s" s="489">
         <v>157</v>
       </c>
-      <c r="F16" t="s" s="426">
+    </row>
+    <row r="19" ht="18.0" customHeight="true">
+      <c r="A19" t="s" s="497">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="423">
+      <c r="B19" t="s" s="496">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="431">
+      <c r="D19" t="s" s="497">
         <v>160</v>
       </c>
-      <c r="B19" t="s" s="430">
+      <c r="E19" t="s" s="492">
         <v>161</v>
       </c>
-      <c r="D19" t="s" s="431">
+      <c r="G19" t="s" s="497">
         <v>162</v>
       </c>
-      <c r="E19" t="s" s="426">
+      <c r="H19" t="s" s="492">
         <v>163</v>
       </c>
-      <c r="G19" t="s" s="431">
+    </row>
+    <row r="20" ht="18.0" customHeight="true">
+      <c r="A20" t="s" s="497">
         <v>164</v>
       </c>
-      <c r="H19" t="s" s="426">
+      <c r="B20" t="s" s="492">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="431">
+      <c r="D20" t="s" s="497">
         <v>166</v>
       </c>
-      <c r="B20" t="s" s="426">
+      <c r="E20" t="s" s="492">
         <v>167</v>
       </c>
-      <c r="D20" t="s" s="431">
+      <c r="G20" t="s" s="497">
         <v>168</v>
       </c>
-      <c r="E20" t="s" s="426">
+      <c r="H20" t="s" s="493">
         <v>169</v>
-      </c>
-      <c r="G20" t="s" s="431">
-        <v>170</v>
-      </c>
-      <c r="H20" t="s" s="427">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +7073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6320,207 +7092,207 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="433">
+      <c r="A1" t="s" s="499">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="500">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="498">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="506">
         <v>172</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="434">
+      <c r="B5" t="s" s="504">
         <v>173</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="432">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="440">
+      <c r="D5" t="s" s="506">
         <v>174</v>
       </c>
-      <c r="B5" t="s" s="438">
+      <c r="E5" t="s" s="504">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s" s="506">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s" s="504">
         <v>175</v>
       </c>
-      <c r="D5" t="s" s="440">
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="506">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s" s="504">
         <v>176</v>
       </c>
-      <c r="E5" t="s" s="438">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s" s="440">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s" s="438">
+      <c r="D6" t="s" s="506">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s" s="504">
         <v>177</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="440">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s" s="438">
+      <c r="G6" t="s" s="506">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s" s="501">
         <v>178</v>
       </c>
-      <c r="D6" t="s" s="440">
-        <v>127</v>
-      </c>
-      <c r="E6" t="s" s="438">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s" s="440">
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="498">
         <v>128</v>
       </c>
-      <c r="H6" t="s" s="435">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="506">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s" s="505">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s" s="506">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s" s="505">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s" s="506">
         <v>179</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="432">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="440">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s" s="439">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s" s="440">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s" s="439">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s" s="440">
+      <c r="H9" t="s" s="505">
         <v>180</v>
       </c>
-      <c r="H9" t="s" s="439">
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="506">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="504">
         <v>181</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="440">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s" s="438">
+      <c r="D10" t="s" s="506">
         <v>182</v>
       </c>
-      <c r="D10" t="s" s="440">
+      <c r="E10" t="s" s="502">
         <v>183</v>
       </c>
-      <c r="E10" t="s" s="436">
+      <c r="G10" t="s" s="506">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s" s="505">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="506">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s" s="505">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s" s="506">
         <v>184</v>
       </c>
-      <c r="G10" t="s" s="440">
-        <v>141</v>
-      </c>
-      <c r="H10" t="s" s="439">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="440">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s" s="439">
-        <v>181</v>
-      </c>
-      <c r="D11" t="s" s="440">
+      <c r="E11" t="s" s="501">
         <v>185</v>
       </c>
-      <c r="E11" t="s" s="435">
+      <c r="G11" t="s" s="506">
         <v>186</v>
       </c>
-      <c r="G11" t="s" s="440">
+      <c r="H11" t="s" s="504">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="498">
         <v>187</v>
       </c>
-      <c r="H11" t="s" s="438">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="432">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="506">
         <v>188</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="440">
+      <c r="B14" t="s" s="505">
         <v>189</v>
       </c>
-      <c r="B14" t="s" s="439">
+      <c r="D14" t="s" s="506">
         <v>190</v>
       </c>
-      <c r="D14" t="s" s="440">
+      <c r="E14" t="s" s="505">
+        <v>189</v>
+      </c>
+      <c r="G14" t="s" s="506">
         <v>191</v>
       </c>
-      <c r="E14" t="s" s="439">
-        <v>190</v>
-      </c>
-      <c r="G14" t="s" s="440">
+      <c r="H14" t="s" s="505">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="506">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s" s="501">
         <v>192</v>
       </c>
-      <c r="H14" t="s" s="439">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="440">
+      <c r="D15" t="s" s="501">
         <v>155</v>
       </c>
-      <c r="B15" t="s" s="435">
+      <c r="F15" t="s" s="501">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="498">
         <v>193</v>
       </c>
-      <c r="D15" t="s" s="435">
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="506">
         <v>194</v>
       </c>
-      <c r="F15" t="s" s="435">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="432">
+      <c r="B18" t="s" s="501">
         <v>195</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="440">
+      <c r="D18" t="s" s="506">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s" s="501">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s" s="506">
+        <v>162</v>
+      </c>
+      <c r="H18" t="s" s="502">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="506">
         <v>196</v>
       </c>
-      <c r="B18" t="s" s="435">
+      <c r="B19" t="s" s="501">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="506">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s" s="502">
         <v>197</v>
       </c>
-      <c r="D18" t="s" s="440">
-        <v>162</v>
-      </c>
-      <c r="E18" t="s" s="435">
-        <v>167</v>
-      </c>
-      <c r="G18" t="s" s="440">
-        <v>164</v>
-      </c>
-      <c r="H18" t="s" s="436">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="440">
+      <c r="G19" t="s" s="506">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s" s="502">
         <v>198</v>
-      </c>
-      <c r="B19" t="s" s="435">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="440">
-        <v>168</v>
-      </c>
-      <c r="E19" t="s" s="436">
-        <v>199</v>
-      </c>
-      <c r="G19" t="s" s="440">
-        <v>170</v>
-      </c>
-      <c r="H19" t="s" s="436">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
-    <sheet name="Automation QA Dashboard" r:id="rId5" sheetId="3"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId6" sheetId="4"/>
+    <sheet name="Test Results Summary" r:id="rId7" sheetId="5"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="12"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="315">
   <si>
     <t>Test Results Summary - 2025-12-09 15:49:40</t>
   </si>
@@ -788,13 +788,313 @@
   <si>
     <t>Cross-Browser Enhanced</t>
   </si>
+  <si>
+    <t>Test Results Summary - 2025-12-16 14:17:21</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-16]: PASSED (1 run)</t>
+  </si>
+  <si>
+    <t>Total: 2</t>
+  </si>
+  <si>
+    <t>Passed: 2</t>
+  </si>
+  <si>
+    <t>Failed: 0</t>
+  </si>
+  <si>
+    <t>Duration: 1m 18s</t>
+  </si>
+  <si>
+    <t>User logs in to KFOne with standard credentials</t>
+  </si>
+  <si>
+    <t>Time: 14:17:21 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>clm.user.one@testkfy.com</t>
+  </si>
+  <si>
+    <t>CLM Test Company 1</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>14:17:21</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>Runner01_KFoneLogin</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>1m 18s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 14:17:21 | Environment: dev | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINIMAL</t>
+  </si>
+  <si>
+    <t>39.0s</t>
+  </si>
+  <si>
+    <t>2 of 346 (0.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dev</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>2 scenarios</t>
+  </si>
+  <si>
+    <t>2 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 14:17:21 | Environment: dev | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-16 15:15:18</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-16]: NO_TESTS (0 runs)</t>
+  </si>
+  <si>
+    <t>Total: 0</t>
+  </si>
+  <si>
+    <t>Passed: 0</t>
+  </si>
+  <si>
+    <t>Duration: 30s</t>
+  </si>
+  <si>
+    <t>Time: 15:15:18 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>15:15:18</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:15:18 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>15.0s</t>
+  </si>
+  <si>
+    <t>1 of 58 (1.7%)</t>
+  </si>
+  <si>
+    <t>2 of 355 (0.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qa</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:15:18 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>0 of 58 (0.0%)</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-16 15:28:44</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-16]: ALL_PASSED (1 runs)</t>
+  </si>
+  <si>
+    <t>Duration: 6m 37s</t>
+  </si>
+  <si>
+    <t>11aValidateGradeFilters.feature</t>
+  </si>
+  <si>
+    <t>Validate Grade Filters Functionality in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 15:28:44 | Total: 17 | Pass: 17 | Fail: 0</t>
+  </si>
+  <si>
+    <t>User filters job profiles by single Grades option</t>
+  </si>
+  <si>
+    <t>User filters job profiles by single Departments option</t>
+  </si>
+  <si>
+    <t>User filters job profiles by single MappingStatus option</t>
+  </si>
+  <si>
+    <t>User filters job profiles by multiple Grades options</t>
+  </si>
+  <si>
+    <t>User filters job profiles by multiple Departments options</t>
+  </si>
+  <si>
+    <t>User clears individual Grades filter using clear(x) button</t>
+  </si>
+  <si>
+    <t>User clears individual Departments filter using clear(x) button</t>
+  </si>
+  <si>
+    <t>User clears individual MappingStatus filter using clear(x) button</t>
+  </si>
+  <si>
+    <t>Apply multiple filters in View Published screen</t>
+  </si>
+  <si>
+    <t>Validate results with multiple filters applied in View Published screen</t>
+  </si>
+  <si>
+    <t>15:28:44</t>
+  </si>
+  <si>
+    <t>Runner11_ConsolidatedFiltersFunctionality</t>
+  </si>
+  <si>
+    <t>6m 37s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:28:44 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>22.5s</t>
+  </si>
+  <si>
+    <t>2 of 58 (3.4%)</t>
+  </si>
+  <si>
+    <t>19 of 356 (5.3%)</t>
+  </si>
+  <si>
+    <t>7m 7s</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>3.4%</t>
+  </si>
+  <si>
+    <t>17 scenarios</t>
+  </si>
+  <si>
+    <t>19 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:28:44 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-16 15:58:56</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-16]: ALL_PASSED (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 19</t>
+  </si>
+  <si>
+    <t>Passed: 19</t>
+  </si>
+  <si>
+    <t>Duration: 5m 10s</t>
+  </si>
+  <si>
+    <t>11ValidateJobMappingFiltersFunctionality.feature</t>
+  </si>
+  <si>
+    <t>Validate All Filter Types in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 15:58:56 | Total: 17 | Pass: 17 | Fail: 0</t>
+  </si>
+  <si>
+    <t>15:58:56</t>
+  </si>
+  <si>
+    <t>Runner11_ValidateJobMappingFiltersFunctionality</t>
+  </si>
+  <si>
+    <t>5m 10s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:58:56 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>Headed</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>20.5s</t>
+  </si>
+  <si>
+    <t>2 of 54 (3.7%)</t>
+  </si>
+  <si>
+    <t>36 of 338 (10.7%)</t>
+  </si>
+  <si>
+    <t>12m 17s</t>
+  </si>
+  <si>
+    <t>10.7%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
+  </si>
+  <si>
+    <t>36 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 15:58:56 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>0 of 54 (0.0%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="437">
+  <fonts count="974">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2616,6 +2916,2710 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2886,7 +5890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="994">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -4206,2024 +7210,1672 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="436" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="46.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="69.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="110.77734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="36.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="255.0" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="416">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="418">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="416">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="418">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s" s="18">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s" s="25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s" s="29">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s" s="27">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s" s="28">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s" s="31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s" s="35">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s" s="36">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s" s="37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s" s="41">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s" s="38">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s" s="39">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s" s="42">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s" s="43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s" s="47">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s" s="44">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s" s="45">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s" s="46">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s" s="48">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s" s="49">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="418">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="53">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s" s="51">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s" s="52">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s" s="54">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s" s="55">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s" s="59">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s" s="56">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="57">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s" s="58">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s" s="60">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s" s="61">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s" s="65">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s" s="62">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="63">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s" s="64">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s" s="66">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s" s="71">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s" s="68">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="69">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s" s="70">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s" s="72">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s" s="73">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s" s="77">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s" s="74">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="75">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s" s="76">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s" s="78">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s" s="79">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s" s="83">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s" s="80">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s" s="81">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s" s="82">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s" s="84">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s" s="85">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s" s="89">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="86">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s" s="87">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s" s="88">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s" s="90">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s" s="91">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s" s="95">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s" s="93">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s" s="94">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s" s="96">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s" s="97">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s" s="101">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="98">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s" s="99">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s" s="100">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s" s="102">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s" s="103">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s" s="107">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s" s="105">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s" s="106">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s" s="108">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s" s="109">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s" s="113">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s" s="110">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s" s="111">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s" s="112">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s" s="114">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s" s="115">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s" s="119">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s" s="116">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s" s="117">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s" s="118">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s" s="120">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s" s="121">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s" s="125">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s" s="122">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s" s="123">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s" s="124">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="126">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s" s="127">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s" s="131">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s" s="128">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s" s="129">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s" s="130">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s" s="132">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s" s="133">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s" s="137">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s" s="134">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s" s="135">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s" s="136">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s" s="139">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s" s="143">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s" s="140">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s" s="141">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s" s="142">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s" s="144">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s" s="145">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="417">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s" s="419">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s" s="149">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s" s="146">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s" s="147">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s" s="148">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s" s="150">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s" s="151">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s" s="155">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s" s="152">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s" s="153">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s" s="154">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s" s="156">
-        <v>52</v>
-      </c>
-      <c r="H31" t="s" s="157">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s" s="161">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s" s="158">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s" s="159">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s" s="160">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s" s="162">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s" s="163">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s" s="167">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s" s="164">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s" s="165">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s" s="166">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s" s="168">
-        <v>52</v>
-      </c>
-      <c r="H33" t="s" s="169">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s" s="173">
-        <v>53</v>
-      </c>
-      <c r="D34" t="s" s="170">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s" s="171">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s" s="172">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s" s="174">
-        <v>52</v>
-      </c>
-      <c r="H34" t="s" s="175">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s" s="179">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s" s="176">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s" s="177">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s" s="178">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s" s="180">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s" s="181">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s" s="185">
-        <v>55</v>
-      </c>
-      <c r="D36" t="s" s="182">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s" s="183">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s" s="184">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s" s="186">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s" s="187">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="417">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s" s="419">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s" s="191">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s" s="188">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s" s="189">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s" s="190">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s" s="192">
-        <v>52</v>
-      </c>
-      <c r="H37" t="s" s="193">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s" s="197">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s" s="194">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s" s="195">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s" s="196">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s" s="198">
-        <v>61</v>
-      </c>
-      <c r="H38" t="s" s="199">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s" s="203">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s" s="200">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s" s="201">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s" s="202">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s" s="204">
-        <v>61</v>
-      </c>
-      <c r="H39" t="s" s="205">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s" s="209">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s" s="206">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s" s="207">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s" s="208">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s" s="210">
-        <v>61</v>
-      </c>
-      <c r="H40" t="s" s="211">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s" s="215">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s" s="212">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s" s="213">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s" s="214">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s" s="216">
-        <v>61</v>
-      </c>
-      <c r="H41" t="s" s="217">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s" s="221">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s" s="218">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s" s="220">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s" s="222">
-        <v>61</v>
-      </c>
-      <c r="H42" t="s" s="223">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="416">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s" s="418">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s" s="227">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s" s="224">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s" s="225">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s" s="226">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s" s="228">
-        <v>61</v>
-      </c>
-      <c r="H43" t="s" s="229">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s" s="233">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s" s="230">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s" s="231">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s" s="232">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s" s="234">
-        <v>67</v>
-      </c>
-      <c r="H44" t="s" s="235">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B45" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s" s="239">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s" s="236">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s" s="237">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s" s="238">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s" s="240">
-        <v>67</v>
-      </c>
-      <c r="H45" t="s" s="241">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B46" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s" s="245">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s" s="242">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s" s="243">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s" s="244">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s" s="246">
-        <v>67</v>
-      </c>
-      <c r="H46" t="s" s="247">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s" s="251">
-        <v>68</v>
-      </c>
-      <c r="D47" t="s" s="248">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="249">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="250">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s" s="252">
-        <v>67</v>
-      </c>
-      <c r="H47" t="s" s="253">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s" s="257">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s" s="254">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s" s="255">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s" s="256">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s" s="258">
-        <v>67</v>
-      </c>
-      <c r="H48" t="s" s="259">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s" s="263">
-        <v>70</v>
-      </c>
-      <c r="D49" t="s" s="260">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s" s="261">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s" s="262">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s" s="264">
-        <v>67</v>
-      </c>
-      <c r="H49" t="s" s="265">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s" s="269">
-        <v>72</v>
-      </c>
-      <c r="D50" t="s" s="266">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s" s="267">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s" s="268">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s" s="270">
-        <v>67</v>
-      </c>
-      <c r="H50" t="s" s="271">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s" s="275">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s" s="273">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s" s="274">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s" s="276">
-        <v>67</v>
-      </c>
-      <c r="H51" t="s" s="277">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="B52" t="s" s="419">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s" s="281">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s" s="278">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s" s="279">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s" s="280">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s" s="282">
-        <v>67</v>
-      </c>
-      <c r="H52" t="s" s="283">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s" s="287">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s" s="284">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s" s="285">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s" s="286">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s" s="288">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="289">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B54" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s" s="293">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s" s="290">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s" s="291">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s" s="292">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s" s="294">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="295">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s" s="299">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s" s="296">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s" s="297">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s" s="298">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s" s="300">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="301">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B56" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s" s="305">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s" s="302">
-        <v>43</v>
-      </c>
-      <c r="E56" t="s" s="303">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s" s="304">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s" s="306">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="307">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B57" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s" s="311">
-        <v>82</v>
-      </c>
-      <c r="D57" t="s" s="308">
-        <v>43</v>
-      </c>
-      <c r="E57" t="s" s="309">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s" s="310">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s" s="312">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="313">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s" s="317">
-        <v>84</v>
-      </c>
-      <c r="D58" t="s" s="314">
-        <v>43</v>
-      </c>
-      <c r="E58" t="s" s="315">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s" s="316">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s" s="318">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="319">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B59" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s" s="323">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s" s="320">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s" s="321">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s" s="322">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s" s="324">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="325">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B60" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C60" t="s" s="329">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s" s="326">
-        <v>43</v>
-      </c>
-      <c r="E60" t="s" s="327">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s" s="328">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s" s="330">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="331">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B61" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C61" t="s" s="335">
-        <v>87</v>
-      </c>
-      <c r="D61" t="s" s="332">
-        <v>43</v>
-      </c>
-      <c r="E61" t="s" s="333">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s" s="334">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s" s="336">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="337">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B62" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C62" t="s" s="341">
-        <v>88</v>
-      </c>
-      <c r="D62" t="s" s="338">
-        <v>43</v>
-      </c>
-      <c r="E62" t="s" s="339">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s" s="340">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s" s="342">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="343">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B63" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s" s="347">
-        <v>89</v>
-      </c>
-      <c r="D63" t="s" s="344">
-        <v>43</v>
-      </c>
-      <c r="E63" t="s" s="345">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s" s="346">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s" s="348">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="349">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B64" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s" s="353">
-        <v>91</v>
-      </c>
-      <c r="D64" t="s" s="350">
-        <v>43</v>
-      </c>
-      <c r="E64" t="s" s="351">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s" s="352">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s" s="354">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="355">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="417">
-        <v>76</v>
-      </c>
-      <c r="B65" t="s" s="419">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s" s="359">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s" s="356">
-        <v>43</v>
-      </c>
-      <c r="E65" t="s" s="357">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s" s="358">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s" s="360">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="361">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B66" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C66" t="s" s="365">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s" s="362">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s" s="363">
-        <v>19</v>
-      </c>
-      <c r="F66" t="s" s="364">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s" s="366">
-        <v>97</v>
-      </c>
-      <c r="H66" t="s" s="367">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B67" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C67" t="s" s="371">
-        <v>22</v>
-      </c>
-      <c r="D67" t="s" s="368">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s" s="369">
-        <v>19</v>
-      </c>
-      <c r="F67" t="s" s="370">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s" s="372">
-        <v>97</v>
-      </c>
-      <c r="H67" t="s" s="373">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C68" t="s" s="377">
-        <v>26</v>
-      </c>
-      <c r="D68" t="s" s="374">
-        <v>18</v>
-      </c>
-      <c r="E68" t="s" s="375">
-        <v>19</v>
-      </c>
-      <c r="F68" t="s" s="376">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s" s="378">
-        <v>97</v>
-      </c>
-      <c r="H68" t="s" s="379">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B69" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C69" t="s" s="383">
-        <v>98</v>
-      </c>
-      <c r="D69" t="s" s="380">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s" s="381">
-        <v>19</v>
-      </c>
-      <c r="F69" t="s" s="382">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s" s="384">
-        <v>97</v>
-      </c>
-      <c r="H69" t="s" s="385">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B70" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C70" t="s" s="389">
-        <v>99</v>
-      </c>
-      <c r="D70" t="s" s="386">
-        <v>43</v>
-      </c>
-      <c r="E70" t="s" s="387">
-        <v>19</v>
-      </c>
-      <c r="F70" t="s" s="388">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s" s="390">
-        <v>97</v>
-      </c>
-      <c r="H70" t="s" s="391">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B71" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C71" t="s" s="395">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s" s="392">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s" s="393">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s" s="394">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s" s="396">
-        <v>97</v>
-      </c>
-      <c r="H71" t="s" s="397">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B72" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C72" t="s" s="401">
-        <v>102</v>
-      </c>
-      <c r="D72" t="s" s="398">
-        <v>43</v>
-      </c>
-      <c r="E72" t="s" s="399">
-        <v>19</v>
-      </c>
-      <c r="F72" t="s" s="400">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s" s="402">
-        <v>97</v>
-      </c>
-      <c r="H72" t="s" s="403">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B73" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C73" t="s" s="407">
-        <v>104</v>
-      </c>
-      <c r="D73" t="s" s="404">
-        <v>43</v>
-      </c>
-      <c r="E73" t="s" s="405">
-        <v>19</v>
-      </c>
-      <c r="F73" t="s" s="406">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s" s="408">
-        <v>97</v>
-      </c>
-      <c r="H73" t="s" s="409">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="417">
-        <v>95</v>
-      </c>
-      <c r="B74" t="s" s="419">
-        <v>96</v>
-      </c>
-      <c r="C74" t="s" s="413">
-        <v>106</v>
-      </c>
-      <c r="D74" t="s" s="410">
-        <v>43</v>
-      </c>
-      <c r="E74" t="s" s="411">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s" s="412">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s" s="414">
-        <v>97</v>
-      </c>
-      <c r="H74" t="s" s="415">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A53:A65"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B53:B65"/>
-    <mergeCell ref="B66:B74"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="42.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.24609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.99609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="26.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.08984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.5625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="420">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s" s="420">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s" s="420">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s" s="420">
-        <v>111</v>
-      </c>
-      <c r="E1" t="s" s="420">
-        <v>112</v>
-      </c>
-      <c r="F1" t="s" s="420">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s" s="420">
-        <v>114</v>
-      </c>
-      <c r="H1" t="s" s="420">
-        <v>115</v>
-      </c>
-      <c r="I1" t="s" s="420">
-        <v>116</v>
-      </c>
-      <c r="J1" t="s" s="420">
-        <v>117</v>
-      </c>
-      <c r="K1" t="s" s="420">
-        <v>118</v>
-      </c>
-      <c r="L1" t="s" s="420">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s" s="420">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s" s="420">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s" s="420">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="421">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s" s="421">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s" s="421">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s" s="421">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s" s="421">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s" s="421">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s" s="421">
-        <v>129</v>
-      </c>
-      <c r="H2" t="s" s="421">
-        <v>130</v>
-      </c>
-      <c r="I2" t="n" s="421">
-        <v>69.0</v>
-      </c>
-      <c r="J2" t="n" s="421">
-        <v>49.0</v>
-      </c>
-      <c r="K2" t="n" s="421">
-        <v>20.0</v>
-      </c>
-      <c r="L2" t="n" s="421">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="s" s="421">
-        <v>131</v>
-      </c>
-      <c r="N2" t="s" s="421">
-        <v>132</v>
-      </c>
-      <c r="O2" t="s" s="422">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -6242,214 +8894,214 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="424">
+      <c r="A1" t="s" s="977">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="425">
-        <v>134</v>
+      <c r="A2" t="s" s="978">
+        <v>302</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="423">
+      <c r="A4" t="s" s="976">
         <v>135</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="431">
+      <c r="A5" t="s" s="984">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="428">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s" s="431">
+      <c r="B5" t="s" s="979">
+        <v>232</v>
+      </c>
+      <c r="D5" t="s" s="984">
         <v>138</v>
       </c>
-      <c r="E5" t="s" s="429">
-        <v>139</v>
-      </c>
-      <c r="G5" t="s" s="431">
+      <c r="E5" t="s" s="979">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s" s="984">
         <v>140</v>
       </c>
-      <c r="H5" t="s" s="429">
-        <v>141</v>
+      <c r="H5" t="s" s="979">
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="431">
+      <c r="A6" t="s" s="984">
         <v>142</v>
       </c>
-      <c r="B6" t="s" s="428">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s" s="431">
+      <c r="B6" t="s" s="979">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s" s="984">
         <v>143</v>
       </c>
-      <c r="E6" t="s" s="426">
+      <c r="E6" t="s" s="979">
         <v>18</v>
       </c>
-      <c r="G6" t="s" s="431">
+      <c r="G6" t="s" s="984">
         <v>144</v>
       </c>
-      <c r="H6" t="s" s="430">
-        <v>145</v>
+      <c r="H6" t="s" s="983">
+        <v>303</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="423">
+      <c r="A8" t="s" s="976">
         <v>146</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="431">
+      <c r="A9" t="s" s="984">
         <v>147</v>
       </c>
-      <c r="B9" t="s" s="430">
-        <v>148</v>
-      </c>
-      <c r="D9" t="s" s="431">
+      <c r="B9" t="s" s="983">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s" s="984">
         <v>149</v>
       </c>
-      <c r="E9" t="s" s="430">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s" s="431">
+      <c r="E9" t="s" s="983">
+        <v>305</v>
+      </c>
+      <c r="G9" t="s" s="984">
         <v>151</v>
       </c>
-      <c r="H9" t="s" s="429">
-        <v>152</v>
+      <c r="H9" t="s" s="982">
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="431">
+      <c r="A10" t="s" s="984">
         <v>153</v>
       </c>
-      <c r="B10" t="s" s="429">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s" s="431">
+      <c r="B10" t="s" s="982">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s" s="984">
         <v>155</v>
       </c>
-      <c r="E10" t="s" s="429">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s" s="431">
+      <c r="E10" t="s" s="982">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s" s="984">
         <v>157</v>
       </c>
-      <c r="H10" t="s" s="430">
-        <v>158</v>
+      <c r="H10" t="s" s="983">
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="431">
+      <c r="A11" t="s" s="984">
         <v>159</v>
       </c>
-      <c r="B11" t="s" s="430">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s" s="431">
+      <c r="B11" t="s" s="983">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s" s="984">
         <v>160</v>
       </c>
-      <c r="E11" t="s" s="429">
-        <v>161</v>
-      </c>
-      <c r="G11" t="s" s="431">
+      <c r="E11" t="s" s="982">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s" s="984">
         <v>162</v>
       </c>
-      <c r="H11" t="s" s="429">
-        <v>163</v>
+      <c r="H11" t="s" s="982">
+        <v>311</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="423">
+      <c r="A13" t="s" s="976">
         <v>164</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="431">
+      <c r="A14" t="s" s="984">
         <v>165</v>
       </c>
-      <c r="B14" t="s" s="428">
-        <v>166</v>
-      </c>
-      <c r="D14" t="s" s="431">
+      <c r="B14" t="s" s="979">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s" s="984">
         <v>167</v>
       </c>
-      <c r="E14" t="s" s="426">
-        <v>168</v>
+      <c r="E14" t="s" s="980">
+        <v>288</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="431">
+      <c r="A15" t="s" s="984">
         <v>169</v>
       </c>
-      <c r="B15" t="s" s="429">
+      <c r="B15" t="s" s="982">
         <v>166</v>
       </c>
-      <c r="D15" t="s" s="431">
+      <c r="D15" t="s" s="984">
         <v>170</v>
       </c>
-      <c r="E15" t="s" s="428">
+      <c r="E15" t="s" s="981">
         <v>166</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="431">
+      <c r="A16" t="s" s="984">
         <v>171</v>
       </c>
-      <c r="B16" t="s" s="426">
-        <v>172</v>
-      </c>
-      <c r="D16" t="s" s="429">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s" s="426">
+      <c r="B16" t="s" s="979">
+        <v>312</v>
+      </c>
+      <c r="D16" t="s" s="979">
+        <v>208</v>
+      </c>
+      <c r="F16" t="s" s="979">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="423">
+      <c r="A18" t="s" s="976">
         <v>175</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="431">
+      <c r="A19" t="s" s="984">
         <v>176</v>
       </c>
-      <c r="B19" t="s" s="430">
+      <c r="B19" t="s" s="983">
         <v>177</v>
       </c>
-      <c r="D19" t="s" s="431">
+      <c r="D19" t="s" s="984">
         <v>178</v>
       </c>
-      <c r="E19" t="s" s="426">
+      <c r="E19" t="s" s="979">
         <v>179</v>
       </c>
-      <c r="G19" t="s" s="431">
+      <c r="G19" t="s" s="984">
         <v>180</v>
       </c>
-      <c r="H19" t="s" s="426">
+      <c r="H19" t="s" s="979">
         <v>181</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="431">
+      <c r="A20" t="s" s="984">
         <v>182</v>
       </c>
-      <c r="B20" t="s" s="426">
+      <c r="B20" t="s" s="979">
         <v>183</v>
       </c>
-      <c r="D20" t="s" s="431">
+      <c r="D20" t="s" s="984">
         <v>184</v>
       </c>
-      <c r="E20" t="s" s="426">
+      <c r="E20" t="s" s="979">
         <v>185</v>
       </c>
-      <c r="G20" t="s" s="431">
+      <c r="G20" t="s" s="984">
         <v>186</v>
       </c>
-      <c r="H20" t="s" s="427">
+      <c r="H20" t="s" s="980">
         <v>187</v>
       </c>
     </row>
@@ -6466,7 +9118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6485,206 +9137,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="433">
+      <c r="A1" t="s" s="986">
         <v>188</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="434">
-        <v>189</v>
+      <c r="A2" t="s" s="987">
+        <v>313</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="432">
+      <c r="A4" t="s" s="985">
         <v>135</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="440">
+      <c r="A5" t="s" s="993">
         <v>190</v>
       </c>
-      <c r="B5" t="s" s="438">
+      <c r="B5" t="s" s="991">
         <v>191</v>
       </c>
-      <c r="D5" t="s" s="440">
+      <c r="D5" t="s" s="993">
         <v>192</v>
       </c>
-      <c r="E5" t="s" s="438">
+      <c r="E5" t="s" s="991">
         <v>191</v>
       </c>
-      <c r="G5" t="s" s="440">
+      <c r="G5" t="s" s="993">
         <v>140</v>
       </c>
-      <c r="H5" t="s" s="438">
+      <c r="H5" t="s" s="991">
         <v>141</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="440">
+      <c r="A6" t="s" s="993">
         <v>138</v>
       </c>
-      <c r="B6" t="s" s="438">
+      <c r="B6" t="s" s="991">
         <v>139</v>
       </c>
-      <c r="D6" t="s" s="440">
+      <c r="D6" t="s" s="993">
         <v>143</v>
       </c>
-      <c r="E6" t="s" s="438">
+      <c r="E6" t="s" s="991">
         <v>43</v>
       </c>
-      <c r="G6" t="s" s="440">
+      <c r="G6" t="s" s="993">
         <v>144</v>
       </c>
-      <c r="H6" t="s" s="435">
+      <c r="H6" t="s" s="988">
         <v>193</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="432">
+      <c r="A8" t="s" s="985">
         <v>146</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="440">
+      <c r="A9" t="s" s="993">
         <v>147</v>
       </c>
-      <c r="B9" t="s" s="439">
-        <v>148</v>
-      </c>
-      <c r="D9" t="s" s="440">
+      <c r="B9" t="s" s="992">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s" s="993">
         <v>149</v>
       </c>
-      <c r="E9" t="s" s="439">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s" s="440">
+      <c r="E9" t="s" s="992">
+        <v>305</v>
+      </c>
+      <c r="G9" t="s" s="993">
         <v>194</v>
       </c>
-      <c r="H9" t="s" s="439">
+      <c r="H9" t="s" s="992">
         <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="440">
+      <c r="A10" t="s" s="993">
         <v>153</v>
       </c>
-      <c r="B10" t="s" s="438">
-        <v>196</v>
-      </c>
-      <c r="D10" t="s" s="440">
+      <c r="B10" t="s" s="991">
+        <v>314</v>
+      </c>
+      <c r="D10" t="s" s="993">
         <v>197</v>
       </c>
-      <c r="E10" t="s" s="436">
+      <c r="E10" t="s" s="989">
         <v>198</v>
       </c>
-      <c r="G10" t="s" s="440">
+      <c r="G10" t="s" s="993">
         <v>157</v>
       </c>
-      <c r="H10" t="s" s="439">
-        <v>127</v>
+      <c r="H10" t="s" s="992">
+        <v>249</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="440">
+      <c r="A11" t="s" s="993">
         <v>159</v>
       </c>
-      <c r="B11" t="s" s="439">
+      <c r="B11" t="s" s="992">
         <v>195</v>
       </c>
-      <c r="D11" t="s" s="440">
+      <c r="D11" t="s" s="993">
         <v>199</v>
       </c>
-      <c r="E11" t="s" s="435">
+      <c r="E11" t="s" s="988">
         <v>200</v>
       </c>
-      <c r="G11" t="s" s="440">
+      <c r="G11" t="s" s="993">
         <v>201</v>
       </c>
-      <c r="H11" t="s" s="438">
+      <c r="H11" t="s" s="991">
         <v>191</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="432">
+      <c r="A13" t="s" s="985">
         <v>202</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="440">
+      <c r="A14" t="s" s="993">
         <v>203</v>
       </c>
-      <c r="B14" t="s" s="439">
+      <c r="B14" t="s" s="992">
         <v>204</v>
       </c>
-      <c r="D14" t="s" s="440">
+      <c r="D14" t="s" s="993">
         <v>205</v>
       </c>
-      <c r="E14" t="s" s="439">
+      <c r="E14" t="s" s="992">
         <v>204</v>
       </c>
-      <c r="G14" t="s" s="440">
+      <c r="G14" t="s" s="993">
         <v>206</v>
       </c>
-      <c r="H14" t="s" s="439">
+      <c r="H14" t="s" s="992">
         <v>204</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="440">
+      <c r="A15" t="s" s="993">
         <v>171</v>
       </c>
-      <c r="B15" t="s" s="435">
+      <c r="B15" t="s" s="988">
         <v>207</v>
       </c>
-      <c r="D15" t="s" s="435">
+      <c r="D15" t="s" s="988">
         <v>208</v>
       </c>
-      <c r="F15" t="s" s="435">
+      <c r="F15" t="s" s="988">
         <v>174</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="432">
+      <c r="A17" t="s" s="985">
         <v>209</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="440">
+      <c r="A18" t="s" s="993">
         <v>210</v>
       </c>
-      <c r="B18" t="s" s="435">
+      <c r="B18" t="s" s="988">
         <v>211</v>
       </c>
-      <c r="D18" t="s" s="440">
+      <c r="D18" t="s" s="993">
         <v>178</v>
       </c>
-      <c r="E18" t="s" s="435">
+      <c r="E18" t="s" s="988">
         <v>183</v>
       </c>
-      <c r="G18" t="s" s="440">
+      <c r="G18" t="s" s="993">
         <v>180</v>
       </c>
-      <c r="H18" t="s" s="436">
+      <c r="H18" t="s" s="989">
         <v>181</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="440">
+      <c r="A19" t="s" s="993">
         <v>212</v>
       </c>
-      <c r="B19" t="s" s="435">
+      <c r="B19" t="s" s="988">
         <v>10</v>
       </c>
-      <c r="D19" t="s" s="440">
+      <c r="D19" t="s" s="993">
         <v>184</v>
       </c>
-      <c r="E19" t="s" s="436">
+      <c r="E19" t="s" s="989">
         <v>213</v>
       </c>
-      <c r="G19" t="s" s="440">
+      <c r="G19" t="s" s="993">
         <v>186</v>
       </c>
-      <c r="H19" t="s" s="436">
+      <c r="H19" t="s" s="989">
         <v>214</v>
       </c>
     </row>
@@ -6699,4 +9351,1288 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.3125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="40.9921875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="420">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s" s="420">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s" s="420">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s" s="420">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s" s="420">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s" s="420">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s" s="420">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s" s="420">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s" s="420">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s" s="420">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s" s="420">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s" s="420">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s" s="420">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s" s="420">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s" s="420">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="421">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="421">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s" s="421">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s" s="421">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s" s="421">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s" s="421">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s" s="421">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s" s="421">
+        <v>130</v>
+      </c>
+      <c r="I2" t="n" s="421">
+        <v>69.0</v>
+      </c>
+      <c r="J2" t="n" s="421">
+        <v>49.0</v>
+      </c>
+      <c r="K2" t="n" s="421">
+        <v>20.0</v>
+      </c>
+      <c r="L2" t="n" s="421">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s" s="421">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s" s="421">
+        <v>132</v>
+      </c>
+      <c r="O2" t="s" s="422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="502">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s" s="502">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s" s="502">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s" s="502">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s" s="502">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s" s="502">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s" s="502">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s" s="502">
+        <v>228</v>
+      </c>
+      <c r="I3" t="n" s="502">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="502">
+        <v>2.0</v>
+      </c>
+      <c r="K3" t="n" s="502">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="502">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="502">
+        <v>229</v>
+      </c>
+      <c r="N3" t="s" s="502">
+        <v>250</v>
+      </c>
+      <c r="O3" t="s" s="503">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="704">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s" s="704">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s" s="704">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s" s="704">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s" s="704">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s" s="704">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s" s="704">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s" s="704">
+        <v>278</v>
+      </c>
+      <c r="I4" t="n" s="704">
+        <v>17.0</v>
+      </c>
+      <c r="J4" t="n" s="704">
+        <v>17.0</v>
+      </c>
+      <c r="K4" t="n" s="704">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="704">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="704">
+        <v>229</v>
+      </c>
+      <c r="N4" t="s" s="704">
+        <v>279</v>
+      </c>
+      <c r="O4" t="s" s="705">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="974">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s" s="974">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s" s="974">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s" s="974">
+        <v>299</v>
+      </c>
+      <c r="E5" t="s" s="974">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s" s="974">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s" s="974">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s" s="974">
+        <v>300</v>
+      </c>
+      <c r="I5" t="n" s="974">
+        <v>17.0</v>
+      </c>
+      <c r="J5" t="n" s="974">
+        <v>17.0</v>
+      </c>
+      <c r="K5" t="n" s="974">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n" s="974">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s" s="974">
+        <v>229</v>
+      </c>
+      <c r="N5" t="s" s="974">
+        <v>301</v>
+      </c>
+      <c r="O5" t="s" s="975">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.1953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="62.32421875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.10546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.34375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="441">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="441">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="441">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="441">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="441">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="441">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="441">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="441">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="441">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="826">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="828">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="830">
+        <v>221</v>
+      </c>
+      <c r="D6" t="s" s="831">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="833">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="830">
+        <v>247</v>
+      </c>
+      <c r="H6" t="s" s="830">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="826">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="828">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="834">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="835">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="836">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="837">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="834">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s" s="834">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s" s="838">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s" s="839">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="840">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="841">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="838">
+        <v>266</v>
+      </c>
+      <c r="H8" t="s" s="838">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s" s="842">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="843">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="844">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="845">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="842">
+        <v>266</v>
+      </c>
+      <c r="H9" t="s" s="842">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s" s="846">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s" s="847">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s" s="848">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s" s="849">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s" s="846">
+        <v>266</v>
+      </c>
+      <c r="H10" t="s" s="846">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s" s="850">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s" s="851">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s" s="852">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="853">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s" s="850">
+        <v>266</v>
+      </c>
+      <c r="H11" t="s" s="850">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s" s="854">
+        <v>268</v>
+      </c>
+      <c r="D12" t="s" s="855">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s" s="856">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s" s="857">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s" s="854">
+        <v>266</v>
+      </c>
+      <c r="H12" t="s" s="854">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s" s="858">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s" s="859">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s" s="860">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="861">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s" s="858">
+        <v>266</v>
+      </c>
+      <c r="H13" t="s" s="858">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s" s="862">
+        <v>270</v>
+      </c>
+      <c r="D14" t="s" s="863">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s" s="864">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s" s="865">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s" s="862">
+        <v>266</v>
+      </c>
+      <c r="H14" t="s" s="862">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s" s="866">
+        <v>271</v>
+      </c>
+      <c r="D15" t="s" s="867">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s" s="868">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s" s="869">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s" s="866">
+        <v>266</v>
+      </c>
+      <c r="H15" t="s" s="866">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s" s="870">
+        <v>272</v>
+      </c>
+      <c r="D16" t="s" s="871">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s" s="872">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s" s="873">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s" s="870">
+        <v>266</v>
+      </c>
+      <c r="H16" t="s" s="870">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s" s="874">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s" s="875">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s" s="876">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s" s="877">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s" s="874">
+        <v>266</v>
+      </c>
+      <c r="H17" t="s" s="874">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B18" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s" s="878">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s" s="879">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s" s="880">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s" s="881">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s" s="878">
+        <v>266</v>
+      </c>
+      <c r="H18" t="s" s="878">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s" s="882">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s" s="883">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s" s="884">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s" s="885">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s" s="882">
+        <v>266</v>
+      </c>
+      <c r="H19" t="s" s="882">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C20" t="s" s="886">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s" s="887">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s" s="888">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="889">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s" s="886">
+        <v>266</v>
+      </c>
+      <c r="H20" t="s" s="886">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C21" t="s" s="890">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s" s="891">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s" s="892">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="893">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s" s="890">
+        <v>266</v>
+      </c>
+      <c r="H21" t="s" s="890">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C22" t="s" s="894">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s" s="895">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s" s="896">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s" s="897">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s" s="894">
+        <v>266</v>
+      </c>
+      <c r="H22" t="s" s="894">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C23" t="s" s="898">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s" s="899">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s" s="900">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s" s="901">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s" s="898">
+        <v>266</v>
+      </c>
+      <c r="H23" t="s" s="898">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="826">
+        <v>264</v>
+      </c>
+      <c r="B24" t="s" s="828">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s" s="902">
+        <v>276</v>
+      </c>
+      <c r="D24" t="s" s="903">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s" s="904">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s" s="905">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s" s="902">
+        <v>266</v>
+      </c>
+      <c r="H24" t="s" s="902">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s" s="906">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s" s="907">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s" s="908">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s" s="909">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s" s="906">
+        <v>298</v>
+      </c>
+      <c r="H25" t="s" s="906">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B26" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s" s="910">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s" s="911">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s" s="912">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s" s="913">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s" s="910">
+        <v>298</v>
+      </c>
+      <c r="H26" t="s" s="910">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B27" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C27" t="s" s="914">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s" s="915">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s" s="916">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="917">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s" s="914">
+        <v>298</v>
+      </c>
+      <c r="H27" t="s" s="914">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B28" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C28" t="s" s="918">
+        <v>267</v>
+      </c>
+      <c r="D28" t="s" s="919">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s" s="920">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s" s="921">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s" s="918">
+        <v>298</v>
+      </c>
+      <c r="H28" t="s" s="918">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C29" t="s" s="922">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s" s="923">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s" s="924">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s" s="925">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s" s="922">
+        <v>298</v>
+      </c>
+      <c r="H29" t="s" s="922">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s" s="926">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s" s="927">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s" s="928">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s" s="929">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s" s="926">
+        <v>298</v>
+      </c>
+      <c r="H30" t="s" s="926">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s" s="930">
+        <v>270</v>
+      </c>
+      <c r="D31" t="s" s="931">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s" s="932">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s" s="933">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s" s="930">
+        <v>298</v>
+      </c>
+      <c r="H31" t="s" s="930">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C32" t="s" s="934">
+        <v>271</v>
+      </c>
+      <c r="D32" t="s" s="935">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s" s="936">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s" s="937">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s" s="934">
+        <v>298</v>
+      </c>
+      <c r="H32" t="s" s="934">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s" s="938">
+        <v>272</v>
+      </c>
+      <c r="D33" t="s" s="939">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s" s="940">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s" s="941">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s" s="938">
+        <v>298</v>
+      </c>
+      <c r="H33" t="s" s="938">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C34" t="s" s="942">
+        <v>273</v>
+      </c>
+      <c r="D34" t="s" s="943">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="944">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="945">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s" s="942">
+        <v>298</v>
+      </c>
+      <c r="H34" t="s" s="942">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C35" t="s" s="946">
+        <v>274</v>
+      </c>
+      <c r="D35" t="s" s="947">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s" s="948">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s" s="949">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s" s="946">
+        <v>298</v>
+      </c>
+      <c r="H35" t="s" s="946">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C36" t="s" s="950">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s" s="951">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="952">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="953">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s" s="950">
+        <v>298</v>
+      </c>
+      <c r="H36" t="s" s="950">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s" s="954">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s" s="955">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="956">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s" s="957">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s" s="954">
+        <v>298</v>
+      </c>
+      <c r="H37" t="s" s="954">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C38" t="s" s="958">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s" s="959">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="960">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="961">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s" s="958">
+        <v>298</v>
+      </c>
+      <c r="H38" t="s" s="958">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C39" t="s" s="962">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s" s="963">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="964">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="965">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s" s="962">
+        <v>298</v>
+      </c>
+      <c r="H39" t="s" s="962">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B40" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s" s="966">
+        <v>275</v>
+      </c>
+      <c r="D40" t="s" s="967">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="968">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="969">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s" s="966">
+        <v>298</v>
+      </c>
+      <c r="H40" t="s" s="966">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="826">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s" s="828">
+        <v>297</v>
+      </c>
+      <c r="C41" t="s" s="970">
+        <v>276</v>
+      </c>
+      <c r="D41" t="s" s="971">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="972">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="973">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s" s="970">
+        <v>298</v>
+      </c>
+      <c r="H41" t="s" s="970">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="B25:B41"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
     <sheet name="Test Results Summary" r:id="rId7" sheetId="5"/>
-    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="22"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="23"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="26"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId8" sheetId="27"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="462">
   <si>
     <t>Test Results Summary - 2025-12-09 15:49:40</t>
   </si>
@@ -1367,13 +1367,210 @@
   <si>
     <t>Generated: 2025-12-16 18:21:38 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-16 19:28:20</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-16]: ALL_PASSED (4 runs)</t>
+  </si>
+  <si>
+    <t>Total: 47</t>
+  </si>
+  <si>
+    <t>Passed: 47</t>
+  </si>
+  <si>
+    <t>Duration: 7m 23s</t>
+  </si>
+  <si>
+    <t>42ClearProfileSelectionwithHeaderCheckbox_PM.feature</t>
+  </si>
+  <si>
+    <t>Validate Clear selection of Profiles in HCM Sync Profiles screen with Header Checkbox</t>
+  </si>
+  <si>
+    <t>Time: 19:28:20 | Total: 16 | Pass: 14 | Fail: 2</t>
+  </si>
+  <si>
+    <t>PM - Navigate to HCM Sync Profiles and Select All</t>
+  </si>
+  <si>
+    <t>PM - Clear Selection with Header Checkbox and Verify Loaded Profiles Unselected</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Not all newly loaded profiles are selected
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO42_ClearProfileSelectionFunctionality.verify_newly_loaded_profiles_are_still_selected(PO42_ClearProfileSelectionFunctionality.java:369)</t>
+  </si>
+  <si>
+    <t>PM - Select Loaded Profiles and Verify Header Checkbox Behavior</t>
+  </si>
+  <si>
+    <t>PM - Uncheck Header Checkbox and Verify Button Disabled</t>
+  </si>
+  <si>
+    <t>PM - Navigate to HCM Sync Profiles and Select All for None Button Test</t>
+  </si>
+  <si>
+    <t>PM - Clear All Selection with None Button</t>
+  </si>
+  <si>
+    <t>PM - Select Loaded and Clear with None Button</t>
+  </si>
+  <si>
+    <t>JAM - Navigate to Job Mapping and Select All</t>
+  </si>
+  <si>
+    <t>JAM - Clear Selection with Header Checkbox and Verify Loaded Profiles Unselected</t>
+  </si>
+  <si>
+    <t>JAM - Select Loaded Profiles and Verify Header Checkbox Behavior</t>
+  </si>
+  <si>
+    <t>JAM - Uncheck Header Checkbox and Verify Button Disabled</t>
+  </si>
+  <si>
+    <t>JAM - Navigate to Job Mapping and Select All for None Button Test</t>
+  </si>
+  <si>
+    <t>Exception: RuntimeException
+Message: Failed to navigate to Job Mapping page from KFONE Global Menu in Profile Manager - Method: navigate_to_job_mapping_page_from_kfone_global_menu_in_pm
+Key Stack Trace:
+  at com.kfonetalentsuite.utils.JobMapping.PageObjectHelper.handleError(PageObjectHelper.java:30)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO04_VerifyJobMappingPageComponents.navigate_to_job_mapping_page_from_kfone_global_menu_in_pm(PO04_VerifyJobMappingPageComponents.java:161)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO04_VerifyJobMappingPageComponents.navigate_to_job_mapping_page_from_kfone_global_menu_in_pm(PO04_VerifyJobMappingPageComponents.java:108)</t>
+  </si>
+  <si>
+    <t>JAM - Clear All Selection with None Button</t>
+  </si>
+  <si>
+    <t>JAM - Select Loaded and Clear with None Button</t>
+  </si>
+  <si>
+    <t>19:28:20</t>
+  </si>
+  <si>
+    <t>Runner42_ClearProfileSelectionFunctionality</t>
+  </si>
+  <si>
+    <t>88.0%</t>
+  </si>
+  <si>
+    <t>7m 23s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 19:28:20 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>97.0%</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>35.5s</t>
+  </si>
+  <si>
+    <t>4 of 52 (7.7%)</t>
+  </si>
+  <si>
+    <t>63 of 343 (18.4%)</t>
+  </si>
+  <si>
+    <t>37m 16s</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>16 scenarios</t>
+  </si>
+  <si>
+    <t>61 Passed</t>
+  </si>
+  <si>
+    <t>2 Failed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 19:28:20 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>0 of 52 (0.0%)</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-16 19:40:04</t>
+  </si>
+  <si>
+    <t>Duration: 7m 34s</t>
+  </si>
+  <si>
+    <t>Time: 19:40:04 | Total: 16 | Pass: 13 | Fail: 3</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Newly loaded profiles (after scroll) should retain selection from Select All, but only 0/100 are selected
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO42_ClearProfileSelectionFunctionality.verify_newly_loaded_profiles_are_still_selected(PO42_ClearProfileSelectionFunctionality.java:373)</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Publish Selected Profiles button should be disabled but is enabled
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO42_ClearProfileSelectionFunctionality.verify_action_button_is_disabled(PO42_ClearProfileSelectionFunctionality.java:602)</t>
+  </si>
+  <si>
+    <t>19:40:04</t>
+  </si>
+  <si>
+    <t>81.0%</t>
+  </si>
+  <si>
+    <t>7m 34s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 19:40:04 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>95.0%</t>
+  </si>
+  <si>
+    <t>35.7s</t>
+  </si>
+  <si>
+    <t>37m 27s</t>
+  </si>
+  <si>
+    <t>60 Passed</t>
+  </si>
+  <si>
+    <t>3 Failed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-16 19:40:04 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2344">
+  <fonts count="3080">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -13069,6 +13266,3838 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -13349,7 +17378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2384">
+  <cellXfs count="3128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -20498,6 +24527,2238 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2343" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2344" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2345" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2346" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2347" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2348" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2349" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2350" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2351" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2352" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2353" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2354" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2355" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2356" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2357" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2358" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2359" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2360" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2361" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2362" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2363" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2364" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2365" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2366" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2367" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2368" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2369" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2370" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2371" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2372" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2373" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2374" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2375" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2376" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2377" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2378" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2379" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2380" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2381" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2382" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2383" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2384" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2385" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2386" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2387" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2388" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2389" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2390" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2391" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2392" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2393" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2394" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2395" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2396" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2397" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2398" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2399" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2400" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2401" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2402" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2403" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2404" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2405" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2406" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2407" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2408" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2409" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2410" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2411" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2412" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2413" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2414" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2415" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2416" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2417" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2418" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2419" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2420" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2421" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2422" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2423" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2424" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2425" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2426" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2427" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2428" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2429" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2430" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2431" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2432" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2433" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2434" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2435" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2436" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2437" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2438" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2439" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2440" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2441" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2442" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2443" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2444" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2445" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2446" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2447" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2448" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2449" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2450" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2451" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2452" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2453" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2454" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2455" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2456" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2457" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2458" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2459" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2460" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2461" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2462" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2463" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2464" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2465" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2466" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2467" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2468" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2469" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2470" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2471" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2472" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2473" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2474" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2475" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2476" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2477" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2478" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2479" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2480" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2481" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2482" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2483" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2484" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2485" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2486" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2487" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2488" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2489" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2490" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2491" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2492" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2493" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2494" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2495" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2496" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2497" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2498" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2499" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2500" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2501" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2502" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2503" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2504" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2505" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2506" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2507" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2508" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2509" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2510" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2511" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2512" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2513" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2514" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2515" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2516" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2517" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2518" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2519" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2520" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2521" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2522" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2523" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2524" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2525" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2526" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2527" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2528" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2529" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2530" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2531" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2532" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2533" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2534" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2535" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2536" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2537" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2538" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2539" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2540" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2541" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2542" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2543" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2544" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2545" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2546" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2547" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2548" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2549" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2550" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2551" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2552" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2553" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2554" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2555" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2556" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2557" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2558" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2559" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2560" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2561" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2562" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2563" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2564" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2565" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2566" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2567" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2568" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2569" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2570" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2571" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2572" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2573" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2574" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2575" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2576" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2577" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2578" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2579" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2580" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2581" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2582" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2583" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2584" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2585" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2586" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2587" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2588" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2589" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2590" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2591" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2592" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2593" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2594" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2595" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2596" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2597" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2598" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2599" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2600" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2601" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2602" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2603" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2604" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2605" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2606" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2607" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2608" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2609" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2610" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2611" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2612" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2613" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2614" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2615" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2616" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2617" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2618" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2619" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2620" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2621" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2622" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2623" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2624" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2625" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2626" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2627" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2628" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2629" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2630" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2631" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2632" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2633" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2634" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2635" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2636" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2637" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2638" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2639" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2640" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2641" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2642" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2643" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2644" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2645" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2646" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2647" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2648" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2649" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2650" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2651" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2652" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2653" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2654" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2655" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2656" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2657" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2658" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2659" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2660" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2661" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2662" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2663" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2664" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2665" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2666" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2667" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2668" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2669" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2670" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2671" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2672" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2673" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2674" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2675" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2676" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2677" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2678" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2679" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2680" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2681" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2682" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2683" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2684" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2685" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2686" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2687" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2688" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2689" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2690" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2691" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2692" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2693" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2694" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2695" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2696" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2697" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2698" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2699" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2700" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2701" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2702" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2703" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2704" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2705" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2706" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2707" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2708" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2709" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2710" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2711" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2712" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2713" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2714" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2715" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2716" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2717" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2718" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2719" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2720" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2721" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2722" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2723" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2724" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2725" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2726" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2727" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2728" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2729" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2730" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2731" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2732" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2733" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2734" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2735" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2736" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2737" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2738" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2739" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2740" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2741" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2742" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2743" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2744" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2745" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2746" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2747" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2748" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2749" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2750" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2751" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2752" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2753" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2754" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2755" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2756" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2757" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2758" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2759" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2760" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2761" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2762" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2763" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2764" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2765" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2766" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2767" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2768" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2769" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2770" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2771" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2772" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2773" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2774" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2775" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2776" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2777" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2778" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2779" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2780" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2781" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2782" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2783" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2784" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2785" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2786" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2787" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2788" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2789" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2790" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2791" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2792" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2793" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2794" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2795" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2796" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2797" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2798" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2799" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2800" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2801" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2802" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2803" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2804" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2805" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2806" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2807" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2808" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2809" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2810" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2811" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2812" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2813" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2814" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2815" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2816" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2817" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2818" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2819" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2820" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2821" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2822" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2823" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2824" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2825" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2826" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2827" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2828" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2829" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2830" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2831" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2832" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2833" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2834" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2835" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2836" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2837" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2838" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2839" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2840" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2841" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2842" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2843" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2844" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2845" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2846" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2847" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2848" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2849" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2850" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2851" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2852" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2853" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2854" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2855" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2856" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2857" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2858" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2859" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2860" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2861" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2862" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2863" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2864" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2865" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2866" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2867" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2868" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2869" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2870" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2871" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2872" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2873" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2874" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2875" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2876" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2877" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2878" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2879" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2880" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2881" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2882" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2883" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2884" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2885" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2886" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2887" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2888" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2889" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2890" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2891" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2892" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2893" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2894" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2895" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2896" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2897" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2898" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2899" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2900" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2901" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2902" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2903" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2904" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2905" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2906" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2907" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2908" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2909" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2910" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2911" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2912" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2913" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2914" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2915" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2916" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2917" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2918" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2919" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2920" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2921" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2922" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2923" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2924" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2925" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2926" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2927" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2928" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2929" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2930" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2931" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2932" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2933" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2934" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2935" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2936" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2937" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2938" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2939" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2940" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2941" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2942" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2943" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2944" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2945" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2946" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2947" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2948" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2949" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2950" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2951" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2952" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2953" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2954" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2955" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2956" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2957" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2958" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2959" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2960" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2961" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2962" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2963" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2964" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2965" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2966" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2967" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2968" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2969" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2970" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2971" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2972" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2973" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2974" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2975" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2976" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2977" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2978" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2979" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2980" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2981" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2982" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2983" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2984" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2985" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2986" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2987" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2988" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2989" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2990" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2991" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2992" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2993" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2994" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2995" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2996" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2997" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2998" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2999" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3000" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3001" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3002" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3003" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3004" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3005" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3006" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3007" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3008" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3009" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3010" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3011" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3012" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3013" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3014" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3015" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3016" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3017" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3018" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3019" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3020" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3021" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3022" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3023" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3024" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3025" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3026" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3027" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3028" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3029" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3030" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3031" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3032" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3033" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3034" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3035" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3036" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3037" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3038" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3039" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3040" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3041" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3042" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3043" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3044" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3045" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3046" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3047" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3048" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3049" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3050" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3051" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3052" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3053" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3054" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3055" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3056" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3057" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3058" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3059" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3060" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3061" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3062" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3063" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3064" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3065" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3066" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3067" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3068" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3069" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3070" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3071" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3072" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3073" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3074" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3075" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3076" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3077" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3078" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3079" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20506,7 +26767,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20811,12 +27072,59 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="3108">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s" s="3108">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s" s="3108">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s" s="3108">
+        <v>451</v>
+      </c>
+      <c r="E7" t="s" s="3108">
+        <v>249</v>
+      </c>
+      <c r="F7" t="s" s="3108">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s" s="3108">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s" s="3108">
+        <v>427</v>
+      </c>
+      <c r="I7" t="n" s="3108">
+        <v>16.0</v>
+      </c>
+      <c r="J7" t="n" s="3108">
+        <v>13.0</v>
+      </c>
+      <c r="K7" t="n" s="3108">
+        <v>3.0</v>
+      </c>
+      <c r="L7" t="n" s="3108">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="s" s="3108">
+        <v>452</v>
+      </c>
+      <c r="N7" t="s" s="3108">
+        <v>453</v>
+      </c>
+      <c r="O7" t="s" s="3109">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -20835,214 +27143,214 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="2367">
+      <c r="A1" t="s" s="3111">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="2368">
-        <v>397</v>
+      <c r="A2" t="s" s="3112">
+        <v>454</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="2366">
+      <c r="A4" t="s" s="3110">
         <v>135</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="2374">
+      <c r="A5" t="s" s="3118">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="2369">
-        <v>232</v>
-      </c>
-      <c r="D5" t="s" s="2374">
+      <c r="B5" t="s" s="3113">
+        <v>455</v>
+      </c>
+      <c r="D5" t="s" s="3118">
         <v>138</v>
       </c>
-      <c r="E5" t="s" s="2369">
+      <c r="E5" t="s" s="3113">
         <v>233</v>
       </c>
-      <c r="G5" t="s" s="2374">
+      <c r="G5" t="s" s="3118">
         <v>140</v>
       </c>
-      <c r="H5" t="s" s="2369">
-        <v>234</v>
+      <c r="H5" t="s" s="3115">
+        <v>376</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="2374">
+      <c r="A6" t="s" s="3118">
         <v>142</v>
       </c>
-      <c r="B6" t="s" s="2369">
-        <v>229</v>
-      </c>
-      <c r="D6" t="s" s="2374">
+      <c r="B6" t="s" s="3113">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s" s="3118">
         <v>143</v>
       </c>
-      <c r="E6" t="s" s="2369">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="2374">
+      <c r="E6" t="s" s="3116">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s" s="3118">
         <v>144</v>
       </c>
-      <c r="H6" t="s" s="2373">
+      <c r="H6" t="s" s="3117">
         <v>303</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="2366">
+      <c r="A8" t="s" s="3110">
         <v>146</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="2374">
+      <c r="A9" t="s" s="3118">
         <v>147</v>
       </c>
-      <c r="B9" t="s" s="2373">
-        <v>343</v>
-      </c>
-      <c r="D9" t="s" s="2374">
+      <c r="B9" t="s" s="3117">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s" s="3118">
         <v>149</v>
       </c>
-      <c r="E9" t="s" s="2373">
-        <v>344</v>
-      </c>
-      <c r="G9" t="s" s="2374">
+      <c r="E9" t="s" s="3117">
+        <v>434</v>
+      </c>
+      <c r="G9" t="s" s="3118">
         <v>151</v>
       </c>
-      <c r="H9" t="s" s="2372">
-        <v>398</v>
+      <c r="H9" t="s" s="3116">
+        <v>457</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="2374">
+      <c r="A10" t="s" s="3118">
         <v>153</v>
       </c>
-      <c r="B10" t="s" s="2372">
-        <v>346</v>
-      </c>
-      <c r="D10" t="s" s="2374">
+      <c r="B10" t="s" s="3116">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s" s="3118">
         <v>155</v>
       </c>
-      <c r="E10" t="s" s="2372">
-        <v>347</v>
-      </c>
-      <c r="G10" t="s" s="2374">
+      <c r="E10" t="s" s="3116">
+        <v>437</v>
+      </c>
+      <c r="G10" t="s" s="3118">
         <v>157</v>
       </c>
-      <c r="H10" t="s" s="2373">
+      <c r="H10" t="s" s="3117">
         <v>257</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="2374">
+      <c r="A11" t="s" s="3118">
         <v>159</v>
       </c>
-      <c r="B11" t="s" s="2373">
-        <v>399</v>
-      </c>
-      <c r="D11" t="s" s="2374">
+      <c r="B11" t="s" s="3117">
+        <v>458</v>
+      </c>
+      <c r="D11" t="s" s="3118">
         <v>160</v>
       </c>
-      <c r="E11" t="s" s="2372">
-        <v>349</v>
-      </c>
-      <c r="G11" t="s" s="2374">
+      <c r="E11" t="s" s="3116">
+        <v>439</v>
+      </c>
+      <c r="G11" t="s" s="3118">
         <v>162</v>
       </c>
-      <c r="H11" t="s" s="2372">
-        <v>350</v>
+      <c r="H11" t="s" s="3116">
+        <v>440</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="2366">
+      <c r="A13" t="s" s="3110">
         <v>164</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="2374">
+      <c r="A14" t="s" s="3118">
         <v>165</v>
       </c>
-      <c r="B14" t="s" s="2369">
+      <c r="B14" t="s" s="3113">
         <v>239</v>
       </c>
-      <c r="D14" t="s" s="2374">
+      <c r="D14" t="s" s="3118">
         <v>167</v>
       </c>
-      <c r="E14" t="s" s="2369">
+      <c r="E14" t="s" s="3113">
         <v>351</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="2374">
+      <c r="A15" t="s" s="3118">
         <v>169</v>
       </c>
-      <c r="B15" t="s" s="2372">
-        <v>166</v>
-      </c>
-      <c r="D15" t="s" s="2374">
+      <c r="B15" t="s" s="3113">
+        <v>441</v>
+      </c>
+      <c r="D15" t="s" s="3118">
         <v>170</v>
       </c>
-      <c r="E15" t="s" s="2371">
+      <c r="E15" t="s" s="3115">
         <v>166</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="2374">
+      <c r="A16" t="s" s="3118">
         <v>171</v>
       </c>
-      <c r="B16" t="s" s="2369">
-        <v>400</v>
-      </c>
-      <c r="D16" t="s" s="2369">
-        <v>208</v>
-      </c>
-      <c r="F16" t="s" s="2369">
+      <c r="B16" t="s" s="3113">
+        <v>459</v>
+      </c>
+      <c r="D16" t="s" s="3116">
+        <v>460</v>
+      </c>
+      <c r="F16" t="s" s="3113">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="2366">
+      <c r="A18" t="s" s="3110">
         <v>175</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="2374">
+      <c r="A19" t="s" s="3118">
         <v>176</v>
       </c>
-      <c r="B19" t="s" s="2373">
+      <c r="B19" t="s" s="3117">
         <v>177</v>
       </c>
-      <c r="D19" t="s" s="2374">
+      <c r="D19" t="s" s="3118">
         <v>178</v>
       </c>
-      <c r="E19" t="s" s="2369">
+      <c r="E19" t="s" s="3113">
         <v>179</v>
       </c>
-      <c r="G19" t="s" s="2374">
+      <c r="G19" t="s" s="3118">
         <v>180</v>
       </c>
-      <c r="H19" t="s" s="2369">
+      <c r="H19" t="s" s="3113">
         <v>181</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="2374">
+      <c r="A20" t="s" s="3118">
         <v>182</v>
       </c>
-      <c r="B20" t="s" s="2369">
+      <c r="B20" t="s" s="3113">
         <v>183</v>
       </c>
-      <c r="D20" t="s" s="2374">
+      <c r="D20" t="s" s="3118">
         <v>184</v>
       </c>
-      <c r="E20" t="s" s="2369">
+      <c r="E20" t="s" s="3113">
         <v>185</v>
       </c>
-      <c r="G20" t="s" s="2374">
+      <c r="G20" t="s" s="3118">
         <v>186</v>
       </c>
-      <c r="H20" t="s" s="2370">
+      <c r="H20" t="s" s="3114">
         <v>187</v>
       </c>
     </row>
@@ -21059,7 +27367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -21078,206 +27386,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2376">
+      <c r="A1" t="s" s="3120">
         <v>188</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2377">
-        <v>401</v>
+      <c r="A2" t="s" s="3121">
+        <v>461</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2375">
+      <c r="A4" t="s" s="3119">
         <v>135</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2383">
+      <c r="A5" t="s" s="3127">
         <v>190</v>
       </c>
-      <c r="B5" t="s" s="2381">
+      <c r="B5" t="s" s="3125">
         <v>191</v>
       </c>
-      <c r="D5" t="s" s="2383">
+      <c r="D5" t="s" s="3127">
         <v>192</v>
       </c>
-      <c r="E5" t="s" s="2381">
+      <c r="E5" t="s" s="3125">
         <v>191</v>
       </c>
-      <c r="G5" t="s" s="2383">
+      <c r="G5" t="s" s="3127">
         <v>140</v>
       </c>
-      <c r="H5" t="s" s="2381">
+      <c r="H5" t="s" s="3125">
         <v>141</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2383">
+      <c r="A6" t="s" s="3127">
         <v>138</v>
       </c>
-      <c r="B6" t="s" s="2381">
+      <c r="B6" t="s" s="3125">
         <v>139</v>
       </c>
-      <c r="D6" t="s" s="2383">
+      <c r="D6" t="s" s="3127">
         <v>143</v>
       </c>
-      <c r="E6" t="s" s="2381">
+      <c r="E6" t="s" s="3125">
         <v>43</v>
       </c>
-      <c r="G6" t="s" s="2383">
+      <c r="G6" t="s" s="3127">
         <v>144</v>
       </c>
-      <c r="H6" t="s" s="2378">
+      <c r="H6" t="s" s="3122">
         <v>193</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2375">
+      <c r="A8" t="s" s="3119">
         <v>146</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2383">
+      <c r="A9" t="s" s="3127">
         <v>147</v>
       </c>
-      <c r="B9" t="s" s="2382">
-        <v>343</v>
-      </c>
-      <c r="D9" t="s" s="2383">
+      <c r="B9" t="s" s="3126">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s" s="3127">
         <v>149</v>
       </c>
-      <c r="E9" t="s" s="2382">
-        <v>344</v>
-      </c>
-      <c r="G9" t="s" s="2383">
+      <c r="E9" t="s" s="3126">
+        <v>434</v>
+      </c>
+      <c r="G9" t="s" s="3127">
         <v>194</v>
       </c>
-      <c r="H9" t="s" s="2382">
+      <c r="H9" t="s" s="3126">
         <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2383">
+      <c r="A10" t="s" s="3127">
         <v>153</v>
       </c>
-      <c r="B10" t="s" s="2381">
-        <v>355</v>
-      </c>
-      <c r="D10" t="s" s="2383">
+      <c r="B10" t="s" s="3125">
+        <v>445</v>
+      </c>
+      <c r="D10" t="s" s="3127">
         <v>197</v>
       </c>
-      <c r="E10" t="s" s="2379">
+      <c r="E10" t="s" s="3123">
         <v>198</v>
       </c>
-      <c r="G10" t="s" s="2383">
+      <c r="G10" t="s" s="3127">
         <v>157</v>
       </c>
-      <c r="H10" t="s" s="2382">
+      <c r="H10" t="s" s="3126">
         <v>249</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2383">
+      <c r="A11" t="s" s="3127">
         <v>159</v>
       </c>
-      <c r="B11" t="s" s="2382">
+      <c r="B11" t="s" s="3126">
         <v>195</v>
       </c>
-      <c r="D11" t="s" s="2383">
+      <c r="D11" t="s" s="3127">
         <v>199</v>
       </c>
-      <c r="E11" t="s" s="2378">
+      <c r="E11" t="s" s="3122">
         <v>200</v>
       </c>
-      <c r="G11" t="s" s="2383">
+      <c r="G11" t="s" s="3127">
         <v>201</v>
       </c>
-      <c r="H11" t="s" s="2381">
+      <c r="H11" t="s" s="3125">
         <v>191</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2375">
+      <c r="A13" t="s" s="3119">
         <v>202</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2383">
+      <c r="A14" t="s" s="3127">
         <v>203</v>
       </c>
-      <c r="B14" t="s" s="2382">
+      <c r="B14" t="s" s="3126">
         <v>204</v>
       </c>
-      <c r="D14" t="s" s="2383">
+      <c r="D14" t="s" s="3127">
         <v>205</v>
       </c>
-      <c r="E14" t="s" s="2382">
+      <c r="E14" t="s" s="3126">
         <v>204</v>
       </c>
-      <c r="G14" t="s" s="2383">
+      <c r="G14" t="s" s="3127">
         <v>206</v>
       </c>
-      <c r="H14" t="s" s="2382">
+      <c r="H14" t="s" s="3126">
         <v>204</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2383">
+      <c r="A15" t="s" s="3127">
         <v>171</v>
       </c>
-      <c r="B15" t="s" s="2378">
+      <c r="B15" t="s" s="3122">
         <v>207</v>
       </c>
-      <c r="D15" t="s" s="2378">
+      <c r="D15" t="s" s="3122">
         <v>208</v>
       </c>
-      <c r="F15" t="s" s="2378">
+      <c r="F15" t="s" s="3122">
         <v>174</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2375">
+      <c r="A17" t="s" s="3119">
         <v>209</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2383">
+      <c r="A18" t="s" s="3127">
         <v>210</v>
       </c>
-      <c r="B18" t="s" s="2378">
+      <c r="B18" t="s" s="3122">
         <v>211</v>
       </c>
-      <c r="D18" t="s" s="2383">
+      <c r="D18" t="s" s="3127">
         <v>178</v>
       </c>
-      <c r="E18" t="s" s="2378">
+      <c r="E18" t="s" s="3122">
         <v>183</v>
       </c>
-      <c r="G18" t="s" s="2383">
+      <c r="G18" t="s" s="3127">
         <v>180</v>
       </c>
-      <c r="H18" t="s" s="2379">
+      <c r="H18" t="s" s="3123">
         <v>181</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2383">
+      <c r="A19" t="s" s="3127">
         <v>212</v>
       </c>
-      <c r="B19" t="s" s="2378">
+      <c r="B19" t="s" s="3122">
         <v>10</v>
       </c>
-      <c r="D19" t="s" s="2383">
+      <c r="D19" t="s" s="3127">
         <v>184</v>
       </c>
-      <c r="E19" t="s" s="2379">
+      <c r="E19" t="s" s="3123">
         <v>213</v>
       </c>
-      <c r="G19" t="s" s="2383">
+      <c r="G19" t="s" s="3127">
         <v>186</v>
       </c>
-      <c r="H19" t="s" s="2379">
+      <c r="H19" t="s" s="3123">
         <v>214</v>
       </c>
     </row>
@@ -21296,7 +27604,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21307,25 +27615,25 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="82.4609375"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7734375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7734375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="36.10546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.34375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="171.51953125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="441">
-        <v>392</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>219</v>
@@ -21334,7 +27642,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
@@ -21364,1238 +27672,1656 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2172">
+      <c r="A6" t="s" s="2852">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="2174">
+      <c r="B6" t="s" s="2854">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="2176">
+      <c r="C6" t="s" s="2856">
         <v>221</v>
       </c>
-      <c r="D6" t="s" s="2177">
+      <c r="D6" t="s" s="2857">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="2178">
+      <c r="E6" t="s" s="2858">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="2179">
+      <c r="F6" t="s" s="2859">
         <v>19</v>
       </c>
-      <c r="G6" t="s" s="2176">
+      <c r="G6" t="s" s="2856">
         <v>247</v>
       </c>
-      <c r="H6" t="s" s="2176">
+      <c r="H6" t="s" s="2856">
         <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2172">
+      <c r="A7" t="s" s="2852">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="2174">
+      <c r="B7" t="s" s="2854">
         <v>16</v>
       </c>
-      <c r="C7" t="s" s="2180">
+      <c r="C7" t="s" s="2860">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="2181">
+      <c r="D7" t="s" s="2861">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="2182">
+      <c r="E7" t="s" s="2862">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="2183">
+      <c r="F7" t="s" s="2863">
         <v>19</v>
       </c>
-      <c r="G7" t="s" s="2180">
+      <c r="G7" t="s" s="2860">
         <v>247</v>
       </c>
-      <c r="H7" t="s" s="2180">
+      <c r="H7" t="s" s="2860">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2172">
+      <c r="A8" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B8" t="s" s="2174">
+      <c r="B8" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C8" t="s" s="2184">
+      <c r="C8" t="s" s="2864">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="2185">
+      <c r="D8" t="s" s="2865">
         <v>18</v>
       </c>
-      <c r="E8" t="s" s="2186">
+      <c r="E8" t="s" s="2866">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="2187">
+      <c r="F8" t="s" s="2867">
         <v>19</v>
       </c>
-      <c r="G8" t="s" s="2184">
+      <c r="G8" t="s" s="2864">
         <v>266</v>
       </c>
-      <c r="H8" t="s" s="2184">
+      <c r="H8" t="s" s="2864">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2172">
+      <c r="A9" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B9" t="s" s="2174">
+      <c r="B9" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C9" t="s" s="2188">
+      <c r="C9" t="s" s="2868">
         <v>22</v>
       </c>
-      <c r="D9" t="s" s="2189">
+      <c r="D9" t="s" s="2869">
         <v>18</v>
       </c>
-      <c r="E9" t="s" s="2190">
+      <c r="E9" t="s" s="2870">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="2191">
+      <c r="F9" t="s" s="2871">
         <v>19</v>
       </c>
-      <c r="G9" t="s" s="2188">
+      <c r="G9" t="s" s="2868">
         <v>266</v>
       </c>
-      <c r="H9" t="s" s="2188">
+      <c r="H9" t="s" s="2868">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2172">
+      <c r="A10" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B10" t="s" s="2174">
+      <c r="B10" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C10" t="s" s="2192">
+      <c r="C10" t="s" s="2872">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="2193">
+      <c r="D10" t="s" s="2873">
         <v>18</v>
       </c>
-      <c r="E10" t="s" s="2194">
+      <c r="E10" t="s" s="2874">
         <v>19</v>
       </c>
-      <c r="F10" t="s" s="2195">
+      <c r="F10" t="s" s="2875">
         <v>19</v>
       </c>
-      <c r="G10" t="s" s="2192">
+      <c r="G10" t="s" s="2872">
         <v>266</v>
       </c>
-      <c r="H10" t="s" s="2192">
+      <c r="H10" t="s" s="2872">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2172">
+      <c r="A11" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B11" t="s" s="2174">
+      <c r="B11" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C11" t="s" s="2196">
+      <c r="C11" t="s" s="2876">
         <v>267</v>
       </c>
-      <c r="D11" t="s" s="2197">
+      <c r="D11" t="s" s="2877">
         <v>18</v>
       </c>
-      <c r="E11" t="s" s="2198">
+      <c r="E11" t="s" s="2878">
         <v>19</v>
       </c>
-      <c r="F11" t="s" s="2199">
+      <c r="F11" t="s" s="2879">
         <v>19</v>
       </c>
-      <c r="G11" t="s" s="2196">
+      <c r="G11" t="s" s="2876">
         <v>266</v>
       </c>
-      <c r="H11" t="s" s="2196">
+      <c r="H11" t="s" s="2876">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2172">
+      <c r="A12" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B12" t="s" s="2174">
+      <c r="B12" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C12" t="s" s="2200">
+      <c r="C12" t="s" s="2880">
         <v>268</v>
       </c>
-      <c r="D12" t="s" s="2201">
+      <c r="D12" t="s" s="2881">
         <v>18</v>
       </c>
-      <c r="E12" t="s" s="2202">
+      <c r="E12" t="s" s="2882">
         <v>19</v>
       </c>
-      <c r="F12" t="s" s="2203">
+      <c r="F12" t="s" s="2883">
         <v>19</v>
       </c>
-      <c r="G12" t="s" s="2200">
+      <c r="G12" t="s" s="2880">
         <v>266</v>
       </c>
-      <c r="H12" t="s" s="2200">
+      <c r="H12" t="s" s="2880">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2172">
+      <c r="A13" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B13" t="s" s="2174">
+      <c r="B13" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C13" t="s" s="2204">
+      <c r="C13" t="s" s="2884">
         <v>269</v>
       </c>
-      <c r="D13" t="s" s="2205">
+      <c r="D13" t="s" s="2885">
         <v>18</v>
       </c>
-      <c r="E13" t="s" s="2206">
+      <c r="E13" t="s" s="2886">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="2207">
+      <c r="F13" t="s" s="2887">
         <v>19</v>
       </c>
-      <c r="G13" t="s" s="2204">
+      <c r="G13" t="s" s="2884">
         <v>266</v>
       </c>
-      <c r="H13" t="s" s="2204">
+      <c r="H13" t="s" s="2884">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2172">
+      <c r="A14" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B14" t="s" s="2174">
+      <c r="B14" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C14" t="s" s="2208">
+      <c r="C14" t="s" s="2888">
         <v>270</v>
       </c>
-      <c r="D14" t="s" s="2209">
+      <c r="D14" t="s" s="2889">
         <v>18</v>
       </c>
-      <c r="E14" t="s" s="2210">
+      <c r="E14" t="s" s="2890">
         <v>19</v>
       </c>
-      <c r="F14" t="s" s="2211">
+      <c r="F14" t="s" s="2891">
         <v>19</v>
       </c>
-      <c r="G14" t="s" s="2208">
+      <c r="G14" t="s" s="2888">
         <v>266</v>
       </c>
-      <c r="H14" t="s" s="2208">
+      <c r="H14" t="s" s="2888">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2172">
+      <c r="A15" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B15" t="s" s="2174">
+      <c r="B15" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C15" t="s" s="2212">
+      <c r="C15" t="s" s="2892">
         <v>271</v>
       </c>
-      <c r="D15" t="s" s="2213">
+      <c r="D15" t="s" s="2893">
         <v>18</v>
       </c>
-      <c r="E15" t="s" s="2214">
+      <c r="E15" t="s" s="2894">
         <v>19</v>
       </c>
-      <c r="F15" t="s" s="2215">
+      <c r="F15" t="s" s="2895">
         <v>19</v>
       </c>
-      <c r="G15" t="s" s="2212">
+      <c r="G15" t="s" s="2892">
         <v>266</v>
       </c>
-      <c r="H15" t="s" s="2212">
+      <c r="H15" t="s" s="2892">
         <v>21</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2172">
+      <c r="A16" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B16" t="s" s="2174">
+      <c r="B16" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C16" t="s" s="2216">
+      <c r="C16" t="s" s="2896">
         <v>272</v>
       </c>
-      <c r="D16" t="s" s="2217">
+      <c r="D16" t="s" s="2897">
         <v>18</v>
       </c>
-      <c r="E16" t="s" s="2218">
+      <c r="E16" t="s" s="2898">
         <v>19</v>
       </c>
-      <c r="F16" t="s" s="2219">
+      <c r="F16" t="s" s="2899">
         <v>19</v>
       </c>
-      <c r="G16" t="s" s="2216">
+      <c r="G16" t="s" s="2896">
         <v>266</v>
       </c>
-      <c r="H16" t="s" s="2216">
+      <c r="H16" t="s" s="2896">
         <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2172">
+      <c r="A17" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B17" t="s" s="2174">
+      <c r="B17" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C17" t="s" s="2220">
+      <c r="C17" t="s" s="2900">
         <v>273</v>
       </c>
-      <c r="D17" t="s" s="2221">
+      <c r="D17" t="s" s="2901">
         <v>18</v>
       </c>
-      <c r="E17" t="s" s="2222">
+      <c r="E17" t="s" s="2902">
         <v>19</v>
       </c>
-      <c r="F17" t="s" s="2223">
+      <c r="F17" t="s" s="2903">
         <v>19</v>
       </c>
-      <c r="G17" t="s" s="2220">
+      <c r="G17" t="s" s="2900">
         <v>266</v>
       </c>
-      <c r="H17" t="s" s="2220">
+      <c r="H17" t="s" s="2900">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2172">
+      <c r="A18" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B18" t="s" s="2174">
+      <c r="B18" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C18" t="s" s="2224">
+      <c r="C18" t="s" s="2904">
         <v>274</v>
       </c>
-      <c r="D18" t="s" s="2225">
+      <c r="D18" t="s" s="2905">
         <v>18</v>
       </c>
-      <c r="E18" t="s" s="2226">
+      <c r="E18" t="s" s="2906">
         <v>19</v>
       </c>
-      <c r="F18" t="s" s="2227">
+      <c r="F18" t="s" s="2907">
         <v>19</v>
       </c>
-      <c r="G18" t="s" s="2224">
+      <c r="G18" t="s" s="2904">
         <v>266</v>
       </c>
-      <c r="H18" t="s" s="2224">
+      <c r="H18" t="s" s="2904">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2172">
+      <c r="A19" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B19" t="s" s="2174">
+      <c r="B19" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C19" t="s" s="2228">
+      <c r="C19" t="s" s="2908">
         <v>27</v>
       </c>
-      <c r="D19" t="s" s="2229">
+      <c r="D19" t="s" s="2909">
         <v>18</v>
       </c>
-      <c r="E19" t="s" s="2230">
+      <c r="E19" t="s" s="2910">
         <v>19</v>
       </c>
-      <c r="F19" t="s" s="2231">
+      <c r="F19" t="s" s="2911">
         <v>19</v>
       </c>
-      <c r="G19" t="s" s="2228">
+      <c r="G19" t="s" s="2908">
         <v>266</v>
       </c>
-      <c r="H19" t="s" s="2228">
+      <c r="H19" t="s" s="2908">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2172">
+      <c r="A20" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B20" t="s" s="2174">
+      <c r="B20" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C20" t="s" s="2232">
+      <c r="C20" t="s" s="2912">
         <v>28</v>
       </c>
-      <c r="D20" t="s" s="2233">
+      <c r="D20" t="s" s="2913">
         <v>18</v>
       </c>
-      <c r="E20" t="s" s="2234">
+      <c r="E20" t="s" s="2914">
         <v>19</v>
       </c>
-      <c r="F20" t="s" s="2235">
+      <c r="F20" t="s" s="2915">
         <v>19</v>
       </c>
-      <c r="G20" t="s" s="2232">
+      <c r="G20" t="s" s="2912">
         <v>266</v>
       </c>
-      <c r="H20" t="s" s="2232">
+      <c r="H20" t="s" s="2912">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2172">
+      <c r="A21" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B21" t="s" s="2174">
+      <c r="B21" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C21" t="s" s="2236">
+      <c r="C21" t="s" s="2916">
         <v>29</v>
       </c>
-      <c r="D21" t="s" s="2237">
+      <c r="D21" t="s" s="2917">
         <v>18</v>
       </c>
-      <c r="E21" t="s" s="2238">
+      <c r="E21" t="s" s="2918">
         <v>19</v>
       </c>
-      <c r="F21" t="s" s="2239">
+      <c r="F21" t="s" s="2919">
         <v>19</v>
       </c>
-      <c r="G21" t="s" s="2236">
+      <c r="G21" t="s" s="2916">
         <v>266</v>
       </c>
-      <c r="H21" t="s" s="2236">
+      <c r="H21" t="s" s="2916">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2172">
+      <c r="A22" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B22" t="s" s="2174">
+      <c r="B22" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C22" t="s" s="2240">
+      <c r="C22" t="s" s="2920">
         <v>30</v>
       </c>
-      <c r="D22" t="s" s="2241">
+      <c r="D22" t="s" s="2921">
         <v>18</v>
       </c>
-      <c r="E22" t="s" s="2242">
+      <c r="E22" t="s" s="2922">
         <v>19</v>
       </c>
-      <c r="F22" t="s" s="2243">
+      <c r="F22" t="s" s="2923">
         <v>19</v>
       </c>
-      <c r="G22" t="s" s="2240">
+      <c r="G22" t="s" s="2920">
         <v>266</v>
       </c>
-      <c r="H22" t="s" s="2240">
+      <c r="H22" t="s" s="2920">
         <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2172">
+      <c r="A23" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B23" t="s" s="2174">
+      <c r="B23" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C23" t="s" s="2244">
+      <c r="C23" t="s" s="2924">
         <v>275</v>
       </c>
-      <c r="D23" t="s" s="2245">
+      <c r="D23" t="s" s="2925">
         <v>18</v>
       </c>
-      <c r="E23" t="s" s="2246">
+      <c r="E23" t="s" s="2926">
         <v>19</v>
       </c>
-      <c r="F23" t="s" s="2247">
+      <c r="F23" t="s" s="2927">
         <v>19</v>
       </c>
-      <c r="G23" t="s" s="2244">
+      <c r="G23" t="s" s="2924">
         <v>266</v>
       </c>
-      <c r="H23" t="s" s="2244">
+      <c r="H23" t="s" s="2924">
         <v>21</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2172">
+      <c r="A24" t="s" s="2852">
         <v>264</v>
       </c>
-      <c r="B24" t="s" s="2174">
+      <c r="B24" t="s" s="2854">
         <v>265</v>
       </c>
-      <c r="C24" t="s" s="2248">
+      <c r="C24" t="s" s="2928">
         <v>276</v>
       </c>
-      <c r="D24" t="s" s="2249">
+      <c r="D24" t="s" s="2929">
         <v>18</v>
       </c>
-      <c r="E24" t="s" s="2250">
+      <c r="E24" t="s" s="2930">
         <v>19</v>
       </c>
-      <c r="F24" t="s" s="2251">
+      <c r="F24" t="s" s="2931">
         <v>19</v>
       </c>
-      <c r="G24" t="s" s="2248">
+      <c r="G24" t="s" s="2928">
         <v>266</v>
       </c>
-      <c r="H24" t="s" s="2248">
+      <c r="H24" t="s" s="2928">
         <v>21</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2172">
+      <c r="A25" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B25" t="s" s="2174">
+      <c r="B25" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C25" t="s" s="2252">
+      <c r="C25" t="s" s="2932">
         <v>17</v>
       </c>
-      <c r="D25" t="s" s="2253">
+      <c r="D25" t="s" s="2933">
         <v>18</v>
       </c>
-      <c r="E25" t="s" s="2254">
+      <c r="E25" t="s" s="2934">
         <v>19</v>
       </c>
-      <c r="F25" t="s" s="2255">
+      <c r="F25" t="s" s="2935">
         <v>19</v>
       </c>
-      <c r="G25" t="s" s="2252">
+      <c r="G25" t="s" s="2932">
         <v>298</v>
       </c>
-      <c r="H25" t="s" s="2252">
+      <c r="H25" t="s" s="2932">
         <v>21</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2172">
+      <c r="A26" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B26" t="s" s="2174">
+      <c r="B26" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C26" t="s" s="2256">
+      <c r="C26" t="s" s="2936">
         <v>22</v>
       </c>
-      <c r="D26" t="s" s="2257">
+      <c r="D26" t="s" s="2937">
         <v>18</v>
       </c>
-      <c r="E26" t="s" s="2258">
+      <c r="E26" t="s" s="2938">
         <v>19</v>
       </c>
-      <c r="F26" t="s" s="2259">
+      <c r="F26" t="s" s="2939">
         <v>19</v>
       </c>
-      <c r="G26" t="s" s="2256">
+      <c r="G26" t="s" s="2936">
         <v>298</v>
       </c>
-      <c r="H26" t="s" s="2256">
+      <c r="H26" t="s" s="2936">
         <v>21</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2172">
+      <c r="A27" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B27" t="s" s="2174">
+      <c r="B27" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C27" t="s" s="2260">
+      <c r="C27" t="s" s="2940">
         <v>26</v>
       </c>
-      <c r="D27" t="s" s="2261">
+      <c r="D27" t="s" s="2941">
         <v>18</v>
       </c>
-      <c r="E27" t="s" s="2262">
+      <c r="E27" t="s" s="2942">
         <v>19</v>
       </c>
-      <c r="F27" t="s" s="2263">
+      <c r="F27" t="s" s="2943">
         <v>19</v>
       </c>
-      <c r="G27" t="s" s="2260">
+      <c r="G27" t="s" s="2940">
         <v>298</v>
       </c>
-      <c r="H27" t="s" s="2260">
+      <c r="H27" t="s" s="2940">
         <v>21</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2172">
+      <c r="A28" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B28" t="s" s="2174">
+      <c r="B28" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C28" t="s" s="2264">
+      <c r="C28" t="s" s="2944">
         <v>267</v>
       </c>
-      <c r="D28" t="s" s="2265">
+      <c r="D28" t="s" s="2945">
         <v>18</v>
       </c>
-      <c r="E28" t="s" s="2266">
+      <c r="E28" t="s" s="2946">
         <v>19</v>
       </c>
-      <c r="F28" t="s" s="2267">
+      <c r="F28" t="s" s="2947">
         <v>19</v>
       </c>
-      <c r="G28" t="s" s="2264">
+      <c r="G28" t="s" s="2944">
         <v>298</v>
       </c>
-      <c r="H28" t="s" s="2264">
+      <c r="H28" t="s" s="2944">
         <v>21</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2172">
+      <c r="A29" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B29" t="s" s="2174">
+      <c r="B29" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C29" t="s" s="2268">
+      <c r="C29" t="s" s="2948">
         <v>268</v>
       </c>
-      <c r="D29" t="s" s="2269">
+      <c r="D29" t="s" s="2949">
         <v>18</v>
       </c>
-      <c r="E29" t="s" s="2270">
+      <c r="E29" t="s" s="2950">
         <v>19</v>
       </c>
-      <c r="F29" t="s" s="2271">
+      <c r="F29" t="s" s="2951">
         <v>19</v>
       </c>
-      <c r="G29" t="s" s="2268">
+      <c r="G29" t="s" s="2948">
         <v>298</v>
       </c>
-      <c r="H29" t="s" s="2268">
+      <c r="H29" t="s" s="2948">
         <v>21</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2172">
+      <c r="A30" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B30" t="s" s="2174">
+      <c r="B30" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C30" t="s" s="2272">
+      <c r="C30" t="s" s="2952">
         <v>269</v>
       </c>
-      <c r="D30" t="s" s="2273">
+      <c r="D30" t="s" s="2953">
         <v>18</v>
       </c>
-      <c r="E30" t="s" s="2274">
+      <c r="E30" t="s" s="2954">
         <v>19</v>
       </c>
-      <c r="F30" t="s" s="2275">
+      <c r="F30" t="s" s="2955">
         <v>19</v>
       </c>
-      <c r="G30" t="s" s="2272">
+      <c r="G30" t="s" s="2952">
         <v>298</v>
       </c>
-      <c r="H30" t="s" s="2272">
+      <c r="H30" t="s" s="2952">
         <v>21</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2172">
+      <c r="A31" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B31" t="s" s="2174">
+      <c r="B31" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C31" t="s" s="2276">
+      <c r="C31" t="s" s="2956">
         <v>270</v>
       </c>
-      <c r="D31" t="s" s="2277">
+      <c r="D31" t="s" s="2957">
         <v>18</v>
       </c>
-      <c r="E31" t="s" s="2278">
+      <c r="E31" t="s" s="2958">
         <v>19</v>
       </c>
-      <c r="F31" t="s" s="2279">
+      <c r="F31" t="s" s="2959">
         <v>19</v>
       </c>
-      <c r="G31" t="s" s="2276">
+      <c r="G31" t="s" s="2956">
         <v>298</v>
       </c>
-      <c r="H31" t="s" s="2276">
+      <c r="H31" t="s" s="2956">
         <v>21</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2172">
+      <c r="A32" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B32" t="s" s="2174">
+      <c r="B32" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C32" t="s" s="2280">
+      <c r="C32" t="s" s="2960">
         <v>271</v>
       </c>
-      <c r="D32" t="s" s="2281">
+      <c r="D32" t="s" s="2961">
         <v>18</v>
       </c>
-      <c r="E32" t="s" s="2282">
+      <c r="E32" t="s" s="2962">
         <v>19</v>
       </c>
-      <c r="F32" t="s" s="2283">
+      <c r="F32" t="s" s="2963">
         <v>19</v>
       </c>
-      <c r="G32" t="s" s="2280">
+      <c r="G32" t="s" s="2960">
         <v>298</v>
       </c>
-      <c r="H32" t="s" s="2280">
+      <c r="H32" t="s" s="2960">
         <v>21</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2172">
+      <c r="A33" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B33" t="s" s="2174">
+      <c r="B33" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C33" t="s" s="2284">
+      <c r="C33" t="s" s="2964">
         <v>272</v>
       </c>
-      <c r="D33" t="s" s="2285">
+      <c r="D33" t="s" s="2965">
         <v>18</v>
       </c>
-      <c r="E33" t="s" s="2286">
+      <c r="E33" t="s" s="2966">
         <v>19</v>
       </c>
-      <c r="F33" t="s" s="2287">
+      <c r="F33" t="s" s="2967">
         <v>19</v>
       </c>
-      <c r="G33" t="s" s="2284">
+      <c r="G33" t="s" s="2964">
         <v>298</v>
       </c>
-      <c r="H33" t="s" s="2284">
+      <c r="H33" t="s" s="2964">
         <v>21</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2172">
+      <c r="A34" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B34" t="s" s="2174">
+      <c r="B34" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C34" t="s" s="2288">
+      <c r="C34" t="s" s="2968">
         <v>273</v>
       </c>
-      <c r="D34" t="s" s="2289">
+      <c r="D34" t="s" s="2969">
         <v>18</v>
       </c>
-      <c r="E34" t="s" s="2290">
+      <c r="E34" t="s" s="2970">
         <v>19</v>
       </c>
-      <c r="F34" t="s" s="2291">
+      <c r="F34" t="s" s="2971">
         <v>19</v>
       </c>
-      <c r="G34" t="s" s="2288">
+      <c r="G34" t="s" s="2968">
         <v>298</v>
       </c>
-      <c r="H34" t="s" s="2288">
+      <c r="H34" t="s" s="2968">
         <v>21</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2172">
+      <c r="A35" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B35" t="s" s="2174">
+      <c r="B35" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C35" t="s" s="2292">
+      <c r="C35" t="s" s="2972">
         <v>274</v>
       </c>
-      <c r="D35" t="s" s="2293">
+      <c r="D35" t="s" s="2973">
         <v>18</v>
       </c>
-      <c r="E35" t="s" s="2294">
+      <c r="E35" t="s" s="2974">
         <v>19</v>
       </c>
-      <c r="F35" t="s" s="2295">
+      <c r="F35" t="s" s="2975">
         <v>19</v>
       </c>
-      <c r="G35" t="s" s="2292">
+      <c r="G35" t="s" s="2972">
         <v>298</v>
       </c>
-      <c r="H35" t="s" s="2292">
+      <c r="H35" t="s" s="2972">
         <v>21</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2172">
+      <c r="A36" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B36" t="s" s="2174">
+      <c r="B36" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C36" t="s" s="2296">
+      <c r="C36" t="s" s="2976">
         <v>27</v>
       </c>
-      <c r="D36" t="s" s="2297">
+      <c r="D36" t="s" s="2977">
         <v>18</v>
       </c>
-      <c r="E36" t="s" s="2298">
+      <c r="E36" t="s" s="2978">
         <v>19</v>
       </c>
-      <c r="F36" t="s" s="2299">
+      <c r="F36" t="s" s="2979">
         <v>19</v>
       </c>
-      <c r="G36" t="s" s="2296">
+      <c r="G36" t="s" s="2976">
         <v>298</v>
       </c>
-      <c r="H36" t="s" s="2296">
+      <c r="H36" t="s" s="2976">
         <v>21</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2172">
+      <c r="A37" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B37" t="s" s="2174">
+      <c r="B37" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C37" t="s" s="2300">
+      <c r="C37" t="s" s="2980">
         <v>28</v>
       </c>
-      <c r="D37" t="s" s="2301">
+      <c r="D37" t="s" s="2981">
         <v>18</v>
       </c>
-      <c r="E37" t="s" s="2302">
+      <c r="E37" t="s" s="2982">
         <v>19</v>
       </c>
-      <c r="F37" t="s" s="2303">
+      <c r="F37" t="s" s="2983">
         <v>19</v>
       </c>
-      <c r="G37" t="s" s="2300">
+      <c r="G37" t="s" s="2980">
         <v>298</v>
       </c>
-      <c r="H37" t="s" s="2300">
+      <c r="H37" t="s" s="2980">
         <v>21</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2172">
+      <c r="A38" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B38" t="s" s="2174">
+      <c r="B38" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C38" t="s" s="2304">
+      <c r="C38" t="s" s="2984">
         <v>29</v>
       </c>
-      <c r="D38" t="s" s="2305">
+      <c r="D38" t="s" s="2985">
         <v>18</v>
       </c>
-      <c r="E38" t="s" s="2306">
+      <c r="E38" t="s" s="2986">
         <v>19</v>
       </c>
-      <c r="F38" t="s" s="2307">
+      <c r="F38" t="s" s="2987">
         <v>19</v>
       </c>
-      <c r="G38" t="s" s="2304">
+      <c r="G38" t="s" s="2984">
         <v>298</v>
       </c>
-      <c r="H38" t="s" s="2304">
+      <c r="H38" t="s" s="2984">
         <v>21</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2172">
+      <c r="A39" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B39" t="s" s="2174">
+      <c r="B39" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C39" t="s" s="2308">
+      <c r="C39" t="s" s="2988">
         <v>30</v>
       </c>
-      <c r="D39" t="s" s="2309">
+      <c r="D39" t="s" s="2989">
         <v>18</v>
       </c>
-      <c r="E39" t="s" s="2310">
+      <c r="E39" t="s" s="2990">
         <v>19</v>
       </c>
-      <c r="F39" t="s" s="2311">
+      <c r="F39" t="s" s="2991">
         <v>19</v>
       </c>
-      <c r="G39" t="s" s="2308">
+      <c r="G39" t="s" s="2988">
         <v>298</v>
       </c>
-      <c r="H39" t="s" s="2308">
+      <c r="H39" t="s" s="2988">
         <v>21</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2172">
+      <c r="A40" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B40" t="s" s="2174">
+      <c r="B40" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C40" t="s" s="2312">
+      <c r="C40" t="s" s="2992">
         <v>275</v>
       </c>
-      <c r="D40" t="s" s="2313">
+      <c r="D40" t="s" s="2993">
         <v>18</v>
       </c>
-      <c r="E40" t="s" s="2314">
+      <c r="E40" t="s" s="2994">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="2315">
+      <c r="F40" t="s" s="2995">
         <v>19</v>
       </c>
-      <c r="G40" t="s" s="2312">
+      <c r="G40" t="s" s="2992">
         <v>298</v>
       </c>
-      <c r="H40" t="s" s="2312">
+      <c r="H40" t="s" s="2992">
         <v>21</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2172">
+      <c r="A41" t="s" s="2852">
         <v>296</v>
       </c>
-      <c r="B41" t="s" s="2174">
+      <c r="B41" t="s" s="2854">
         <v>297</v>
       </c>
-      <c r="C41" t="s" s="2316">
+      <c r="C41" t="s" s="2996">
         <v>276</v>
       </c>
-      <c r="D41" t="s" s="2317">
+      <c r="D41" t="s" s="2997">
         <v>18</v>
       </c>
-      <c r="E41" t="s" s="2318">
+      <c r="E41" t="s" s="2998">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="2319">
+      <c r="F41" t="s" s="2999">
         <v>19</v>
       </c>
-      <c r="G41" t="s" s="2316">
+      <c r="G41" t="s" s="2996">
         <v>298</v>
       </c>
-      <c r="H41" t="s" s="2316">
+      <c r="H41" t="s" s="2996">
         <v>21</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2172">
+      <c r="A42" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B42" t="s" s="2174">
+      <c r="B42" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C42" t="s" s="2320">
+      <c r="C42" t="s" s="3000">
         <v>17</v>
       </c>
-      <c r="D42" t="s" s="2321">
+      <c r="D42" t="s" s="3001">
         <v>18</v>
       </c>
-      <c r="E42" t="s" s="2322">
+      <c r="E42" t="s" s="3002">
         <v>19</v>
       </c>
-      <c r="F42" t="s" s="2323">
+      <c r="F42" t="s" s="3003">
         <v>19</v>
       </c>
-      <c r="G42" t="s" s="2320">
+      <c r="G42" t="s" s="3000">
         <v>394</v>
       </c>
-      <c r="H42" t="s" s="2320">
+      <c r="H42" t="s" s="3000">
         <v>21</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2172">
+      <c r="A43" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B43" t="s" s="2174">
+      <c r="B43" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C43" t="s" s="2324">
+      <c r="C43" t="s" s="3004">
         <v>22</v>
       </c>
-      <c r="D43" t="s" s="2325">
+      <c r="D43" t="s" s="3005">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="2326">
+      <c r="E43" t="s" s="3006">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="2327">
+      <c r="F43" t="s" s="3007">
         <v>19</v>
       </c>
-      <c r="G43" t="s" s="2324">
+      <c r="G43" t="s" s="3004">
         <v>394</v>
       </c>
-      <c r="H43" t="s" s="2324">
+      <c r="H43" t="s" s="3004">
         <v>21</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2172">
+      <c r="A44" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B44" t="s" s="2174">
+      <c r="B44" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C44" t="s" s="2328">
+      <c r="C44" t="s" s="3008">
         <v>26</v>
       </c>
-      <c r="D44" t="s" s="2329">
+      <c r="D44" t="s" s="3009">
         <v>18</v>
       </c>
-      <c r="E44" t="s" s="2330">
+      <c r="E44" t="s" s="3010">
         <v>19</v>
       </c>
-      <c r="F44" t="s" s="2331">
+      <c r="F44" t="s" s="3011">
         <v>19</v>
       </c>
-      <c r="G44" t="s" s="2328">
+      <c r="G44" t="s" s="3008">
         <v>394</v>
       </c>
-      <c r="H44" t="s" s="2328">
+      <c r="H44" t="s" s="3008">
         <v>21</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2172">
+      <c r="A45" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B45" t="s" s="2174">
+      <c r="B45" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C45" t="s" s="2332">
+      <c r="C45" t="s" s="3012">
         <v>323</v>
       </c>
-      <c r="D45" t="s" s="2333">
+      <c r="D45" t="s" s="3013">
         <v>18</v>
       </c>
-      <c r="E45" t="s" s="2334">
+      <c r="E45" t="s" s="3014">
         <v>19</v>
       </c>
-      <c r="F45" t="s" s="2335">
+      <c r="F45" t="s" s="3015">
         <v>19</v>
       </c>
-      <c r="G45" t="s" s="2332">
+      <c r="G45" t="s" s="3012">
         <v>394</v>
       </c>
-      <c r="H45" t="s" s="2332">
+      <c r="H45" t="s" s="3012">
         <v>21</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2172">
+      <c r="A46" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B46" t="s" s="2174">
+      <c r="B46" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C46" t="s" s="2336">
+      <c r="C46" t="s" s="3016">
         <v>324</v>
       </c>
-      <c r="D46" t="s" s="2337">
+      <c r="D46" t="s" s="3017">
         <v>18</v>
       </c>
-      <c r="E46" t="s" s="2338">
+      <c r="E46" t="s" s="3018">
         <v>19</v>
       </c>
-      <c r="F46" t="s" s="2339">
+      <c r="F46" t="s" s="3019">
         <v>19</v>
       </c>
-      <c r="G46" t="s" s="2336">
+      <c r="G46" t="s" s="3016">
         <v>394</v>
       </c>
-      <c r="H46" t="s" s="2336">
+      <c r="H46" t="s" s="3016">
         <v>21</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2172">
+      <c r="A47" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B47" t="s" s="2174">
+      <c r="B47" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C47" t="s" s="2340">
+      <c r="C47" t="s" s="3020">
         <v>325</v>
       </c>
-      <c r="D47" t="s" s="2341">
+      <c r="D47" t="s" s="3021">
         <v>18</v>
       </c>
-      <c r="E47" t="s" s="2342">
+      <c r="E47" t="s" s="3022">
         <v>19</v>
       </c>
-      <c r="F47" t="s" s="2343">
+      <c r="F47" t="s" s="3023">
         <v>19</v>
       </c>
-      <c r="G47" t="s" s="2340">
+      <c r="G47" t="s" s="3020">
         <v>394</v>
       </c>
-      <c r="H47" t="s" s="2340">
+      <c r="H47" t="s" s="3020">
         <v>21</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2172">
+      <c r="A48" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B48" t="s" s="2174">
+      <c r="B48" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C48" t="s" s="2344">
+      <c r="C48" t="s" s="3024">
         <v>328</v>
       </c>
-      <c r="D48" t="s" s="2345">
+      <c r="D48" t="s" s="3025">
         <v>18</v>
       </c>
-      <c r="E48" t="s" s="2346">
+      <c r="E48" t="s" s="3026">
         <v>19</v>
       </c>
-      <c r="F48" t="s" s="2347">
+      <c r="F48" t="s" s="3027">
         <v>19</v>
       </c>
-      <c r="G48" t="s" s="2344">
+      <c r="G48" t="s" s="3024">
         <v>394</v>
       </c>
-      <c r="H48" t="s" s="2344">
+      <c r="H48" t="s" s="3024">
         <v>21</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2172">
+      <c r="A49" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B49" t="s" s="2174">
+      <c r="B49" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C49" t="s" s="2348">
+      <c r="C49" t="s" s="3028">
         <v>330</v>
       </c>
-      <c r="D49" t="s" s="2349">
+      <c r="D49" t="s" s="3029">
         <v>18</v>
       </c>
-      <c r="E49" t="s" s="2350">
+      <c r="E49" t="s" s="3030">
         <v>19</v>
       </c>
-      <c r="F49" t="s" s="2351">
+      <c r="F49" t="s" s="3031">
         <v>19</v>
       </c>
-      <c r="G49" t="s" s="2348">
+      <c r="G49" t="s" s="3028">
         <v>394</v>
       </c>
-      <c r="H49" t="s" s="2348">
+      <c r="H49" t="s" s="3028">
         <v>21</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2172">
+      <c r="A50" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B50" t="s" s="2174">
+      <c r="B50" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C50" t="s" s="2352">
+      <c r="C50" t="s" s="3032">
         <v>331</v>
       </c>
-      <c r="D50" t="s" s="2353">
+      <c r="D50" t="s" s="3033">
         <v>18</v>
       </c>
-      <c r="E50" t="s" s="2354">
+      <c r="E50" t="s" s="3034">
         <v>19</v>
       </c>
-      <c r="F50" t="s" s="2355">
+      <c r="F50" t="s" s="3035">
         <v>19</v>
       </c>
-      <c r="G50" t="s" s="2352">
+      <c r="G50" t="s" s="3032">
         <v>394</v>
       </c>
-      <c r="H50" t="s" s="2352">
+      <c r="H50" t="s" s="3032">
         <v>21</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2172">
+      <c r="A51" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B51" t="s" s="2174">
+      <c r="B51" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C51" t="s" s="2356">
+      <c r="C51" t="s" s="3036">
         <v>332</v>
       </c>
-      <c r="D51" t="s" s="2357">
+      <c r="D51" t="s" s="3037">
         <v>18</v>
       </c>
-      <c r="E51" t="s" s="2358">
+      <c r="E51" t="s" s="3038">
         <v>19</v>
       </c>
-      <c r="F51" t="s" s="2359">
+      <c r="F51" t="s" s="3039">
         <v>19</v>
       </c>
-      <c r="G51" t="s" s="2356">
+      <c r="G51" t="s" s="3036">
         <v>394</v>
       </c>
-      <c r="H51" t="s" s="2356">
+      <c r="H51" t="s" s="3036">
         <v>21</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2172">
+      <c r="A52" t="s" s="2852">
         <v>320</v>
       </c>
-      <c r="B52" t="s" s="2174">
+      <c r="B52" t="s" s="2854">
         <v>321</v>
       </c>
-      <c r="C52" t="s" s="2360">
+      <c r="C52" t="s" s="3040">
         <v>334</v>
       </c>
-      <c r="D52" t="s" s="2361">
+      <c r="D52" t="s" s="3041">
         <v>18</v>
       </c>
-      <c r="E52" t="s" s="2362">
+      <c r="E52" t="s" s="3042">
         <v>19</v>
       </c>
-      <c r="F52" t="s" s="2363">
+      <c r="F52" t="s" s="3043">
         <v>19</v>
       </c>
-      <c r="G52" t="s" s="2360">
+      <c r="G52" t="s" s="3040">
         <v>394</v>
       </c>
-      <c r="H52" t="s" s="2360">
+      <c r="H52" t="s" s="3040">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B53" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C53" t="s" s="3044">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s" s="3045">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s" s="3046">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s" s="3047">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s" s="3044">
+        <v>448</v>
+      </c>
+      <c r="H53" t="s" s="3044">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B54" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C54" t="s" s="3048">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s" s="3049">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s" s="3050">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s" s="3051">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s" s="3048">
+        <v>448</v>
+      </c>
+      <c r="H54" t="s" s="3048">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B55" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C55" t="s" s="3052">
+        <v>410</v>
+      </c>
+      <c r="D55" t="s" s="3053">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s" s="3054">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s" s="3055">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s" s="3052">
+        <v>448</v>
+      </c>
+      <c r="H55" t="s" s="3052">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C56" t="s" s="3056">
+        <v>411</v>
+      </c>
+      <c r="D56" t="s" s="3057">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s" s="3058">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s" s="3059">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s" s="3056">
+        <v>448</v>
+      </c>
+      <c r="H56" t="s" s="3056">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B57" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C57" t="s" s="3060">
+        <v>413</v>
+      </c>
+      <c r="D57" t="s" s="3061">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s" s="3062">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s" s="3063">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s" s="3060">
+        <v>448</v>
+      </c>
+      <c r="H57" t="s" s="3060">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C58" t="s" s="3064">
+        <v>414</v>
+      </c>
+      <c r="D58" t="s" s="3065">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s" s="3066">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s" s="3067">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s" s="3064">
+        <v>448</v>
+      </c>
+      <c r="H58" t="s" s="3064">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B59" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C59" t="s" s="3068">
+        <v>415</v>
+      </c>
+      <c r="D59" t="s" s="3069">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s" s="3070">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s" s="3071">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s" s="3068">
+        <v>448</v>
+      </c>
+      <c r="H59" t="s" s="3068">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B60" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C60" t="s" s="3072">
+        <v>416</v>
+      </c>
+      <c r="D60" t="s" s="3073">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s" s="3074">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s" s="3075">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s" s="3072">
+        <v>448</v>
+      </c>
+      <c r="H60" t="s" s="3072">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B61" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C61" t="s" s="3076">
+        <v>417</v>
+      </c>
+      <c r="D61" t="s" s="3077">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s" s="3078">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s" s="3079">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s" s="3076">
+        <v>448</v>
+      </c>
+      <c r="H61" t="s" s="3076">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B62" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C62" t="s" s="3080">
+        <v>418</v>
+      </c>
+      <c r="D62" t="s" s="3081">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s" s="3082">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s" s="3083">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s" s="3080">
+        <v>448</v>
+      </c>
+      <c r="H62" t="s" s="3080">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B63" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C63" t="s" s="3084">
+        <v>419</v>
+      </c>
+      <c r="D63" t="s" s="3085">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s" s="3086">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s" s="3087">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s" s="3084">
+        <v>448</v>
+      </c>
+      <c r="H63" t="s" s="3084">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B64" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C64" t="s" s="3088">
+        <v>420</v>
+      </c>
+      <c r="D64" t="s" s="3089">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s" s="3090">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s" s="3091">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s" s="3088">
+        <v>448</v>
+      </c>
+      <c r="H64" t="s" s="3088">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B65" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C65" t="s" s="3092">
+        <v>421</v>
+      </c>
+      <c r="D65" t="s" s="3093">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s" s="3094">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s" s="3095">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s" s="3092">
+        <v>448</v>
+      </c>
+      <c r="H65" t="s" s="3092">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B66" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C66" t="s" s="3096">
+        <v>422</v>
+      </c>
+      <c r="D66" t="s" s="3097">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s" s="3098">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s" s="3099">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s" s="3096">
+        <v>448</v>
+      </c>
+      <c r="H66" t="s" s="3096">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B67" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C67" t="s" s="3100">
+        <v>424</v>
+      </c>
+      <c r="D67" t="s" s="3101">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s" s="3102">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s" s="3103">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s" s="3100">
+        <v>448</v>
+      </c>
+      <c r="H67" t="s" s="3100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2853">
+        <v>407</v>
+      </c>
+      <c r="B68" t="s" s="2855">
+        <v>408</v>
+      </c>
+      <c r="C68" t="s" s="3104">
+        <v>425</v>
+      </c>
+      <c r="D68" t="s" s="3105">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s" s="3106">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s" s="3107">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s" s="3104">
+        <v>448</v>
+      </c>
+      <c r="H68" t="s" s="3104">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="75">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A24"/>
     <mergeCell ref="A25:A41"/>
     <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A53:A68"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="B25:B41"/>
     <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B68"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
-    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="7"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId7" sheetId="8"/>
+    <sheet name="Test Results Summary" r:id="rId8" sheetId="9"/>
+    <sheet name="Automation QA Dashboard" r:id="rId9" sheetId="10"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId10" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="231">
   <si>
     <t>Test Results Summary - 2025-12-18 18:56:37</t>
   </si>
@@ -660,13 +660,98 @@
   <si>
     <t>Generated: 2025-12-18 19:54:16 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
   </si>
+  <si>
+    <t>Test Results Summary - 2025-12-19 09:30:41</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-19]: FAILED (1 run)</t>
+  </si>
+  <si>
+    <t>Total: 16</t>
+  </si>
+  <si>
+    <t>Passed: 15</t>
+  </si>
+  <si>
+    <t>Failed: 1</t>
+  </si>
+  <si>
+    <t>Duration: 13m 22s</t>
+  </si>
+  <si>
+    <t>Time: 09:30:41 | Total: 16 | Pass: 15 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: Publish Selected Profiles button should be disabled but is enabled
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO42_ClearProfileSelectionFunctionality.verify_action_button_is_disabled(PO42_ClearProfileSelectionFunctionality.java:547)</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>09:30:41</t>
+  </si>
+  <si>
+    <t>94.0%</t>
+  </si>
+  <si>
+    <t>13m 22s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 09:30:41 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>50.1s</t>
+  </si>
+  <si>
+    <t>1 of 44 (2.3%)</t>
+  </si>
+  <si>
+    <t>16 of 298 (5.4%)</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>16 scenarios</t>
+  </si>
+  <si>
+    <t>15 Passed</t>
+  </si>
+  <si>
+    <t>1 Failed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 09:30:41 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>0 of 44 (0.0%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="311">
+  <fonts count="428">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2108,6 +2193,542 @@
       <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -2388,7 +3009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -3354,634 +3975,848 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="310" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.86328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.80859375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="36.10546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="255.0"/>
+    <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.0" customHeight="true">
+      <c r="A1" t="s" s="427">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="18.0" customHeight="true">
+      <c r="A2" t="s" s="428">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" ht="18.0" customHeight="true">
+      <c r="A4" t="s" s="426">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="18.0" customHeight="true">
+      <c r="A5" t="s" s="434">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s" s="429">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s" s="434">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s" s="431">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s" s="434">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s" s="431">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" ht="18.0" customHeight="true">
+      <c r="A6" t="s" s="434">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s" s="429">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s" s="434">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s" s="432">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s" s="434">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s" s="433">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="18.0" customHeight="true">
+      <c r="A8" t="s" s="426">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="18.0" customHeight="true">
+      <c r="A9" t="s" s="434">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s" s="433">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s" s="434">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s" s="433">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s" s="434">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s" s="432">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" ht="18.0" customHeight="true">
+      <c r="A10" t="s" s="434">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s" s="432">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s" s="434">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s" s="432">
+        <v>223</v>
+      </c>
+      <c r="G10" t="s" s="434">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="433">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" ht="18.0" customHeight="true">
+      <c r="A11" t="s" s="434">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="433">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s" s="434">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s" s="432">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s" s="434">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="432">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" ht="18.0" customHeight="true">
+      <c r="A13" t="s" s="426">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="18.0" customHeight="true">
+      <c r="A14" t="s" s="434">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s" s="431">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s" s="434">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s" s="432">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="true">
+      <c r="A15" t="s" s="434">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="429">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s" s="434">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s" s="431">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" ht="18.0" customHeight="true">
+      <c r="A16" t="s" s="434">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s" s="429">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s" s="431">
+        <v>228</v>
+      </c>
+      <c r="F16" t="s" s="429">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" ht="18.0" customHeight="true">
+      <c r="A18" t="s" s="426">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="18.0" customHeight="true">
+      <c r="A19" t="s" s="434">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s" s="433">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s" s="434">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s" s="429">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s" s="434">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s" s="429">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" ht="18.0" customHeight="true">
+      <c r="A20" t="s" s="434">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s" s="429">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s" s="434">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s" s="429">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s" s="434">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s" s="430">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A18:H18"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>161</v>
+      <c r="A1" t="s" s="436">
+        <v>104</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>166</v>
+    <row r="2">
+      <c r="A2" t="s" s="437">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="435">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s" s="1">
-        <v>14</v>
+      <c r="A5" t="s" s="443">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="441">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s" s="443">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s" s="441">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s" s="443">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s" s="441">
+        <v>109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="218">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="219">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="220">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s" s="221">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s" s="222">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="219">
-        <v>138</v>
-      </c>
-      <c r="H6" t="s" s="219">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="218">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s" s="223">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s" s="224">
+      <c r="A6" t="s" s="443">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s" s="441">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s" s="443">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s" s="441">
         <v>111</v>
       </c>
-      <c r="E7" t="s" s="225">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="226">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s" s="223">
-        <v>138</v>
-      </c>
-      <c r="H7" t="s" s="223">
-        <v>140</v>
+      <c r="G6" t="s" s="443">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s" s="438">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="218">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="227">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s" s="228">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s" s="229">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="230">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s" s="227">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s" s="227">
-        <v>142</v>
+      <c r="A8" t="s" s="435">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="218">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s" s="231">
-        <v>143</v>
-      </c>
-      <c r="D9" t="s" s="232">
-        <v>111</v>
-      </c>
-      <c r="E9" t="s" s="233">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="234">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s" s="231">
-        <v>138</v>
-      </c>
-      <c r="H9" t="s" s="231">
-        <v>144</v>
+      <c r="A9" t="s" s="443">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s" s="442">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s" s="443">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s" s="442">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s" s="443">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s" s="442">
+        <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="216">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s" s="218">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="235">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s" s="236">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s" s="237">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s" s="238">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s" s="235">
-        <v>138</v>
-      </c>
-      <c r="H10" t="s" s="235">
-        <v>142</v>
+      <c r="A10" t="s" s="443">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s" s="441">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s" s="443">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s" s="439">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s" s="443">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="442">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C11" t="s" s="239">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s" s="240">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s" s="241">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="242">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s" s="239">
-        <v>169</v>
-      </c>
-      <c r="H11" t="s" s="239">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C12" t="s" s="243">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s" s="244">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s" s="245">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s" s="246">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s" s="243">
-        <v>169</v>
-      </c>
-      <c r="H12" t="s" s="243">
-        <v>21</v>
+      <c r="A11" t="s" s="443">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="442">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s" s="443">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s" s="438">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s" s="443">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s" s="441">
+        <v>107</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s" s="247">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s" s="248">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s" s="249">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s" s="250">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s" s="247">
-        <v>169</v>
-      </c>
-      <c r="H13" t="s" s="247">
-        <v>21</v>
+      <c r="A13" t="s" s="435">
+        <v>121</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B14" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s" s="251">
-        <v>171</v>
-      </c>
-      <c r="D14" t="s" s="252">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s" s="253">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s" s="254">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s" s="251">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s" s="251">
-        <v>172</v>
+      <c r="A14" t="s" s="443">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="442">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s" s="443">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s" s="442">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s" s="443">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s" s="442">
+        <v>123</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s" s="255">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s" s="256">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="257">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s" s="258">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s" s="255">
-        <v>169</v>
-      </c>
-      <c r="H15" t="s" s="255">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B16" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s" s="259">
-        <v>174</v>
-      </c>
-      <c r="D16" t="s" s="260">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="261">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s" s="262">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s" s="259">
-        <v>169</v>
-      </c>
-      <c r="H16" t="s" s="259">
-        <v>21</v>
+      <c r="A15" t="s" s="443">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="438">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s" s="438">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s" s="438">
+        <v>90</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B17" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C17" t="s" s="263">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s" s="264">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="265">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s" s="266">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s" s="263">
-        <v>169</v>
-      </c>
-      <c r="H17" t="s" s="263">
-        <v>21</v>
+      <c r="A17" t="s" s="435">
+        <v>127</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C18" t="s" s="267">
-        <v>176</v>
-      </c>
-      <c r="D18" t="s" s="268">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="269">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s" s="270">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s" s="267">
-        <v>169</v>
-      </c>
-      <c r="H18" t="s" s="267">
-        <v>21</v>
+      <c r="A18" t="s" s="443">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s" s="438">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s" s="443">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s" s="438">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s" s="443">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s" s="439">
+        <v>97</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B19" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C19" t="s" s="271">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s" s="273">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s" s="274">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s" s="271">
-        <v>169</v>
-      </c>
-      <c r="H19" t="s" s="271">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C20" t="s" s="275">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s" s="276">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s" s="277">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s" s="278">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s" s="275">
-        <v>169</v>
-      </c>
-      <c r="H20" t="s" s="275">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B21" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C21" t="s" s="279">
-        <v>179</v>
-      </c>
-      <c r="D21" t="s" s="280">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s" s="281">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s" s="282">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s" s="279">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s" s="279">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C22" t="s" s="283">
-        <v>180</v>
-      </c>
-      <c r="D22" t="s" s="284">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s" s="285">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s" s="286">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s" s="283">
-        <v>169</v>
-      </c>
-      <c r="H22" t="s" s="283">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C23" t="s" s="287">
-        <v>181</v>
-      </c>
-      <c r="D23" t="s" s="288">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s" s="289">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s" s="290">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s" s="287">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s" s="287">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B24" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C24" t="s" s="291">
-        <v>183</v>
-      </c>
-      <c r="D24" t="s" s="292">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s" s="293">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s" s="294">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s" s="291">
-        <v>169</v>
-      </c>
-      <c r="H24" t="s" s="291">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C25" t="s" s="295">
-        <v>184</v>
-      </c>
-      <c r="D25" t="s" s="296">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s" s="297">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s" s="298">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s" s="295">
-        <v>169</v>
-      </c>
-      <c r="H25" t="s" s="295">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="216">
-        <v>167</v>
-      </c>
-      <c r="B26" t="s" s="218">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s" s="299">
-        <v>185</v>
-      </c>
-      <c r="D26" t="s" s="300">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s" s="301">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s" s="302">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="299">
-        <v>169</v>
-      </c>
-      <c r="H26" t="s" s="299">
-        <v>21</v>
+      <c r="A19" t="s" s="443">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s" s="438">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="443">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s" s="439">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s" s="443">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s" s="439">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B26"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3989,7 +4824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4200,484 +5035,548 @@
         <v>111</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="424">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="424">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="424">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s" s="424">
+        <v>213</v>
+      </c>
+      <c r="E5" t="s" s="424">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s" s="424">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s" s="424">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="424">
+        <v>187</v>
+      </c>
+      <c r="I5" t="n" s="424">
+        <v>16.0</v>
+      </c>
+      <c r="J5" t="n" s="424">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="n" s="424">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n" s="424">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s" s="424">
+        <v>214</v>
+      </c>
+      <c r="N5" t="s" s="424">
+        <v>215</v>
+      </c>
+      <c r="O5" t="s" s="425">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.671875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="306">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="307">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="305">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="313">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s" s="310">
-        <v>191</v>
-      </c>
-      <c r="D5" t="s" s="313">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s" s="311">
-        <v>110</v>
-      </c>
-      <c r="G5" t="s" s="313">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s" s="310">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="313">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s" s="310">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s" s="313">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s" s="311">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s" s="313">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s" s="312">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="305">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="313">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s" s="312">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s" s="313">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s" s="312">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s" s="313">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s" s="311">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="313">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s" s="311">
-        <v>195</v>
-      </c>
-      <c r="D10" t="s" s="313">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s" s="311">
-        <v>196</v>
-      </c>
-      <c r="G10" t="s" s="313">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="312">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="313">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="312">
-        <v>197</v>
-      </c>
-      <c r="D11" t="s" s="313">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s" s="311">
-        <v>198</v>
-      </c>
-      <c r="G11" t="s" s="313">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="311">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="305">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="313">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s" s="310">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s" s="313">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s" s="311">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="313">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s" s="308">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s" s="313">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s" s="310">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="313">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s" s="308">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s" s="311">
-        <v>202</v>
-      </c>
-      <c r="F16" t="s" s="308">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="305">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="313">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s" s="312">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s" s="313">
-        <v>94</v>
-      </c>
-      <c r="E19" t="s" s="308">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s" s="313">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s" s="308">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="313">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s" s="308">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s" s="313">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s" s="308">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s" s="313">
-        <v>102</v>
-      </c>
-      <c r="H20" t="s" s="309">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A18:H18"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.71875" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="67.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.71875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="36.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="141.09765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="315">
-        <v>104</v>
+      <c r="A1" t="s" s="323">
+        <v>204</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="316">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="314">
-        <v>51</v>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="322">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s" s="320">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s" s="322">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s" s="320">
-        <v>107</v>
-      </c>
-      <c r="G5" t="s" s="322">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s" s="320">
-        <v>109</v>
+      <c r="A5" t="s" s="323">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="323">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="323">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="323">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="323">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="323">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="323">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="323">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="322">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s" s="320">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s" s="322">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s" s="320">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s" s="322">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s" s="317">
-        <v>112</v>
+      <c r="A6" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s" s="327">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="324">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="325">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="326">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="328">
+        <v>210</v>
+      </c>
+      <c r="H6" t="s" s="329">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s" s="333">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="330">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="331">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="332">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="334">
+        <v>210</v>
+      </c>
+      <c r="H7" t="s" s="335">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="314">
-        <v>62</v>
+      <c r="A8" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s" s="339">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s" s="336">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="337">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="338">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s" s="340">
+        <v>210</v>
+      </c>
+      <c r="H8" t="s" s="341">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="322">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s" s="321">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s" s="322">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s" s="321">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s" s="322">
-        <v>113</v>
-      </c>
-      <c r="H9" t="s" s="321">
-        <v>114</v>
+      <c r="A9" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s" s="345">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s" s="342">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="343">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="344">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="346">
+        <v>210</v>
+      </c>
+      <c r="H9" t="s" s="347">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="322">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s" s="320">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s" s="322">
-        <v>116</v>
-      </c>
-      <c r="E10" t="s" s="318">
-        <v>117</v>
-      </c>
-      <c r="G10" t="s" s="322">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="321">
-        <v>43</v>
+      <c r="A10" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s" s="351">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s" s="348">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s" s="349">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s" s="350">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s" s="352">
+        <v>210</v>
+      </c>
+      <c r="H10" t="s" s="353">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="322">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="321">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s" s="322">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s" s="317">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s" s="322">
-        <v>120</v>
-      </c>
-      <c r="H11" t="s" s="320">
-        <v>107</v>
+      <c r="A11" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s" s="357">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s" s="354">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s" s="355">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="356">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s" s="358">
+        <v>210</v>
+      </c>
+      <c r="H11" t="s" s="359">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s" s="363">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s" s="360">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s" s="361">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s" s="362">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s" s="364">
+        <v>210</v>
+      </c>
+      <c r="H12" t="s" s="365">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="314">
-        <v>121</v>
+      <c r="A13" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s" s="369">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s" s="366">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s" s="367">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="368">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s" s="370">
+        <v>210</v>
+      </c>
+      <c r="H13" t="s" s="371">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="322">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s" s="321">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s" s="322">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s" s="321">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s" s="322">
-        <v>125</v>
-      </c>
-      <c r="H14" t="s" s="321">
-        <v>123</v>
+      <c r="A14" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s" s="375">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s" s="372">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s" s="373">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s" s="374">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s" s="376">
+        <v>210</v>
+      </c>
+      <c r="H14" t="s" s="377">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="322">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s" s="317">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s" s="317">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s" s="317">
-        <v>90</v>
+      <c r="A15" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s" s="381">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s" s="378">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s" s="379">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s" s="380">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s" s="382">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s" s="383">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s" s="387">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s" s="384">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s" s="385">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s" s="386">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s" s="388">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s" s="389">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="314">
-        <v>127</v>
+      <c r="A17" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s" s="393">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s" s="390">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s" s="391">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s" s="392">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s" s="394">
+        <v>210</v>
+      </c>
+      <c r="H17" t="s" s="395">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="322">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s" s="317">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s" s="322">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s" s="317">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s" s="322">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s" s="318">
-        <v>97</v>
+      <c r="A18" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s" s="399">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s" s="396">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s" s="398">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s" s="400">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s" s="401">
+        <v>211</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="322">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s" s="317">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="322">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s" s="318">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s" s="322">
-        <v>102</v>
-      </c>
-      <c r="H19" t="s" s="318">
-        <v>132</v>
+      <c r="A19" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s" s="405">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s" s="402">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s" s="403">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s" s="404">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s" s="406">
+        <v>210</v>
+      </c>
+      <c r="H19" t="s" s="407">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s" s="411">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s" s="408">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s" s="409">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="410">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s" s="412">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s" s="413">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="421">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s" s="423">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s" s="417">
+        <v>185</v>
+      </c>
+      <c r="D21" t="s" s="414">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s" s="415">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="416">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s" s="418">
+        <v>210</v>
+      </c>
+      <c r="H21" t="s" s="419">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A17:H17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -8,14 +8,14 @@
   <sheets>
     <sheet name="Automation Execution History" r:id="rId4" sheetId="2"/>
     <sheet name="Test Results Summary" r:id="rId8" sheetId="9"/>
-    <sheet name="Automation QA Dashboard" r:id="rId9" sheetId="10"/>
-    <sheet name="Cross-Browser QA Dashboard" r:id="rId10" sheetId="11"/>
+    <sheet name="Automation QA Dashboard" r:id="rId6" sheetId="16"/>
+    <sheet name="Cross-Browser QA Dashboard" r:id="rId7" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="315">
   <si>
     <t>Test Results Summary - 2025-12-18 18:56:37</t>
   </si>
@@ -745,13 +745,272 @@
   <si>
     <t>0 of 44 (0.0%)</t>
   </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-19 09:52:33</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-19]: FAILED (1 runs)</t>
+  </si>
+  <si>
+    <t>Duration: 10m 21s</t>
+  </si>
+  <si>
+    <t>12_FilterPersistence.feature</t>
+  </si>
+  <si>
+    <t>Validate Filter Persistence in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 09:52:33 | Total: 13 | Pass: 11 | Fail: 1</t>
+  </si>
+  <si>
+    <t>Apply Grades filters in Job Mapping page</t>
+  </si>
+  <si>
+    <t>Verify Grades filters persist after page refresh</t>
+  </si>
+  <si>
+    <t>Verify Grades filters persist after navigating to Job Comparison page and back</t>
+  </si>
+  <si>
+    <t>Apply Mapping Status filters in Job Mapping page</t>
+  </si>
+  <si>
+    <t>Verify Mapping Status filters persist after navigating to Profile Manager and back</t>
+  </si>
+  <si>
+    <t>Apply Mapping Status filters for Manual Mapping navigation test</t>
+  </si>
+  <si>
+    <t>Exception: AssertionError
+Message: expected [true] but found [false]
+Key Stack Trace:
+  at org.testng.Assert.fail(Assert.java:111)
+  at org.testng.Assert.failNotEquals(Assert.java:1578)
+  at org.testng.Assert.assertTrue(Assert.java:57)
+  at org.testng.Assert.assertTrue(Assert.java:67)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO11_ValidateJobMappingFiltersFunctionality.select_one_option_in_mapping_status_filters_dropdown(PO11_ValidateJobMappingFiltersFunctionality.java:1072)</t>
+  </si>
+  <si>
+    <t>Verify Mapping Status filters persist after navigating to Manual Job Mapping screen and back</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>SKIPPED: No Manually Mapped profiles available in Job Mapping. This scenario requires at least one job with 'Search a Different Profile' button to execute.</t>
+  </si>
+  <si>
+    <t>Apply Grades filters in View Published screen</t>
+  </si>
+  <si>
+    <t>Verify View Published toggle and filters persist after page refresh</t>
+  </si>
+  <si>
+    <t>Verify View Published toggle and filters persist after Profile Manager navigation</t>
+  </si>
+  <si>
+    <t>09:52:33</t>
+  </si>
+  <si>
+    <t>Runner12_FilterPersistence</t>
+  </si>
+  <si>
+    <t>85.0%</t>
+  </si>
+  <si>
+    <t>10m 21s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 09:52:33 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>90.0%</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>49.1s</t>
+  </si>
+  <si>
+    <t>2 of 42 (4.8%)</t>
+  </si>
+  <si>
+    <t>29 of 296 (9.8%)</t>
+  </si>
+  <si>
+    <t>23m 43s</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>13 scenarios</t>
+  </si>
+  <si>
+    <t>26 Passed</t>
+  </si>
+  <si>
+    <t>2 Failed</t>
+  </si>
+  <si>
+    <t>1 Skipped</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 09:52:33 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>0 of 42 (0.0%)</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-19 10:08:58</t>
+  </si>
+  <si>
+    <t>Duration: 9m 58s</t>
+  </si>
+  <si>
+    <t>Time: 10:08:58 | Total: 13 | Pass: 13 | Fail: 0</t>
+  </si>
+  <si>
+    <t>10:08:58</t>
+  </si>
+  <si>
+    <t>9m 58s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 10:08:58 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>97.0%</t>
+  </si>
+  <si>
+    <t>48.3s</t>
+  </si>
+  <si>
+    <t>23m 20s</t>
+  </si>
+  <si>
+    <t>28 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 10:08:58 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-19 10:19:01</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-19]: FAILED (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 29</t>
+  </si>
+  <si>
+    <t>Passed: 28</t>
+  </si>
+  <si>
+    <t>Duration: 9m 47s</t>
+  </si>
+  <si>
+    <t>18_SortingPersistence.feature</t>
+  </si>
+  <si>
+    <t>Validate Sorting Persistence in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 10:19:01 | Total: 12 | Pass: 12 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Apply multi-level sorting by Organization Grade and Job Name</t>
+  </si>
+  <si>
+    <t>Verify multi-level sorting persists after page refresh</t>
+  </si>
+  <si>
+    <t>Verify sorting persists after navigating to Job Comparison page and back</t>
+  </si>
+  <si>
+    <t>Verify sorting persists after navigating to Profile Manager and back</t>
+  </si>
+  <si>
+    <t>Apply filters while sorting is active</t>
+  </si>
+  <si>
+    <t>Verify sorting persists after navigating to Manual Job Mapping screen and back</t>
+  </si>
+  <si>
+    <t>Apply sorting by Matched Success Profile Grade in View Published screen</t>
+  </si>
+  <si>
+    <t>Verify View Published toggle and sorting persist after page refresh</t>
+  </si>
+  <si>
+    <t>Verify View Published toggle and sorting persist after Profile Manager navigation</t>
+  </si>
+  <si>
+    <t>10:19:01</t>
+  </si>
+  <si>
+    <t>Runner18_SortingPersistence</t>
+  </si>
+  <si>
+    <t>9m 47s</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 10:19:01 | Environment: qa | Focus: Normal Single-Browser Execution</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>98.0%</t>
+  </si>
+  <si>
+    <t>48.5s</t>
+  </si>
+  <si>
+    <t>3 of 42 (7.1%)</t>
+  </si>
+  <si>
+    <t>41 of 296 (13.9%)</t>
+  </si>
+  <si>
+    <t>33m 7s</t>
+  </si>
+  <si>
+    <t>13.9%</t>
+  </si>
+  <si>
+    <t>7.1%</t>
+  </si>
+  <si>
+    <t>25 scenarios</t>
+  </si>
+  <si>
+    <t>40 Passed</t>
+  </si>
+  <si>
+    <t>Generated: 2025-12-19 10:19:01 | Environment: qa | Focus: Cross-Browser Multi-Platform Execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="428">
+  <fonts count="1112">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2844,8 +3103,3516 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2952,6 +6719,16 @@
         <fgColor indexed="44"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -3009,7 +6786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="1140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -4338,13 +8115,2101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="23" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="23" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="23" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="23" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="23" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="23" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="23" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="23" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="7" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="7" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="11" borderId="10" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="15" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="17" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="19" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="9" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="21" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -4355,7 +10220,7 @@
     <col min="1" max="1" width="21.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.1640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.546875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.84375" customWidth="true" bestFit="true"/>
@@ -4363,214 +10228,214 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="true">
-      <c r="A1" t="s" s="427">
+      <c r="A1" t="s" s="1123">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="true">
-      <c r="A2" t="s" s="428">
-        <v>216</v>
+      <c r="A2" t="s" s="1124">
+        <v>303</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="426">
+      <c r="A4" t="s" s="1122">
         <v>51</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="434">
+      <c r="A5" t="s" s="1130">
         <v>52</v>
       </c>
-      <c r="B5" t="s" s="429">
-        <v>217</v>
-      </c>
-      <c r="D5" t="s" s="434">
+      <c r="B5" t="s" s="1125">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s" s="1130">
         <v>54</v>
       </c>
-      <c r="E5" t="s" s="431">
-        <v>218</v>
-      </c>
-      <c r="G5" t="s" s="434">
+      <c r="E5" t="s" s="1125">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="1130">
         <v>56</v>
       </c>
-      <c r="H5" t="s" s="431">
+      <c r="H5" t="s" s="1127">
         <v>192</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="434">
+      <c r="A6" t="s" s="1130">
         <v>58</v>
       </c>
-      <c r="B6" t="s" s="429">
-        <v>214</v>
-      </c>
-      <c r="D6" t="s" s="434">
+      <c r="B6" t="s" s="1125">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s" s="1130">
         <v>59</v>
       </c>
-      <c r="E6" t="s" s="432">
+      <c r="E6" t="s" s="1128">
         <v>111</v>
       </c>
-      <c r="G6" t="s" s="434">
+      <c r="G6" t="s" s="1130">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="433">
+      <c r="H6" t="s" s="1129">
         <v>61</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="426">
+      <c r="A8" t="s" s="1122">
         <v>62</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="434">
+      <c r="A9" t="s" s="1130">
         <v>63</v>
       </c>
-      <c r="B9" t="s" s="433">
-        <v>219</v>
-      </c>
-      <c r="D9" t="s" s="434">
+      <c r="B9" t="s" s="1129">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s" s="1130">
         <v>65</v>
       </c>
-      <c r="E9" t="s" s="433">
-        <v>220</v>
-      </c>
-      <c r="G9" t="s" s="434">
+      <c r="E9" t="s" s="1129">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s" s="1130">
         <v>67</v>
       </c>
-      <c r="H9" t="s" s="432">
-        <v>221</v>
+      <c r="H9" t="s" s="1128">
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="434">
+      <c r="A10" t="s" s="1130">
         <v>69</v>
       </c>
-      <c r="B10" t="s" s="432">
-        <v>222</v>
-      </c>
-      <c r="D10" t="s" s="434">
+      <c r="B10" t="s" s="1128">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s" s="1130">
         <v>71</v>
       </c>
-      <c r="E10" t="s" s="432">
-        <v>223</v>
-      </c>
-      <c r="G10" t="s" s="434">
+      <c r="E10" t="s" s="1128">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s" s="1130">
         <v>73</v>
       </c>
-      <c r="H10" t="s" s="433">
+      <c r="H10" t="s" s="1129">
         <v>74</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="true">
-      <c r="A11" t="s" s="434">
+      <c r="A11" t="s" s="1130">
         <v>75</v>
       </c>
-      <c r="B11" t="s" s="433">
-        <v>215</v>
-      </c>
-      <c r="D11" t="s" s="434">
+      <c r="B11" t="s" s="1129">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s" s="1130">
         <v>76</v>
       </c>
-      <c r="E11" t="s" s="432">
-        <v>224</v>
-      </c>
-      <c r="G11" t="s" s="434">
+      <c r="E11" t="s" s="1128">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s" s="1130">
         <v>78</v>
       </c>
-      <c r="H11" t="s" s="432">
-        <v>225</v>
+      <c r="H11" t="s" s="1128">
+        <v>311</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="true">
-      <c r="A13" t="s" s="426">
+      <c r="A13" t="s" s="1122">
         <v>80</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="true">
-      <c r="A14" t="s" s="434">
+      <c r="A14" t="s" s="1130">
         <v>81</v>
       </c>
-      <c r="B14" t="s" s="431">
+      <c r="B14" t="s" s="1127">
         <v>82</v>
       </c>
-      <c r="D14" t="s" s="434">
+      <c r="D14" t="s" s="1130">
         <v>83</v>
       </c>
-      <c r="E14" t="s" s="432">
-        <v>82</v>
+      <c r="E14" t="s" s="1125">
+        <v>312</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="true">
-      <c r="A15" t="s" s="434">
+      <c r="A15" t="s" s="1130">
         <v>84</v>
       </c>
-      <c r="B15" t="s" s="429">
+      <c r="B15" t="s" s="1125">
         <v>226</v>
       </c>
-      <c r="D15" t="s" s="434">
+      <c r="D15" t="s" s="1130">
         <v>86</v>
       </c>
-      <c r="E15" t="s" s="431">
+      <c r="E15" t="s" s="1127">
         <v>82</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="true">
-      <c r="A16" t="s" s="434">
+      <c r="A16" t="s" s="1130">
         <v>87</v>
       </c>
-      <c r="B16" t="s" s="429">
-        <v>227</v>
-      </c>
-      <c r="D16" t="s" s="431">
+      <c r="B16" t="s" s="1125">
+        <v>313</v>
+      </c>
+      <c r="D16" t="s" s="1127">
         <v>228</v>
       </c>
-      <c r="F16" t="s" s="429">
+      <c r="F16" t="s" s="1125">
         <v>90</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="true">
-      <c r="A18" t="s" s="426">
+      <c r="A18" t="s" s="1122">
         <v>91</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="true">
-      <c r="A19" t="s" s="434">
+      <c r="A19" t="s" s="1130">
         <v>92</v>
       </c>
-      <c r="B19" t="s" s="433">
+      <c r="B19" t="s" s="1129">
         <v>93</v>
       </c>
-      <c r="D19" t="s" s="434">
+      <c r="D19" t="s" s="1130">
         <v>94</v>
       </c>
-      <c r="E19" t="s" s="429">
+      <c r="E19" t="s" s="1125">
         <v>95</v>
       </c>
-      <c r="G19" t="s" s="434">
+      <c r="G19" t="s" s="1130">
         <v>96</v>
       </c>
-      <c r="H19" t="s" s="429">
+      <c r="H19" t="s" s="1125">
         <v>97</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="true">
-      <c r="A20" t="s" s="434">
+      <c r="A20" t="s" s="1130">
         <v>98</v>
       </c>
-      <c r="B20" t="s" s="429">
+      <c r="B20" t="s" s="1125">
         <v>99</v>
       </c>
-      <c r="D20" t="s" s="434">
+      <c r="D20" t="s" s="1130">
         <v>100</v>
       </c>
-      <c r="E20" t="s" s="429">
+      <c r="E20" t="s" s="1125">
         <v>101</v>
       </c>
-      <c r="G20" t="s" s="434">
+      <c r="G20" t="s" s="1130">
         <v>102</v>
       </c>
-      <c r="H20" t="s" s="430">
+      <c r="H20" t="s" s="1126">
         <v>103</v>
       </c>
     </row>
@@ -4587,7 +10452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -4606,206 +10471,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="436">
+      <c r="A1" t="s" s="1132">
         <v>104</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="437">
-        <v>229</v>
+      <c r="A2" t="s" s="1133">
+        <v>314</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="435">
+      <c r="A4" t="s" s="1131">
         <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="443">
+      <c r="A5" t="s" s="1139">
         <v>106</v>
       </c>
-      <c r="B5" t="s" s="441">
+      <c r="B5" t="s" s="1137">
         <v>107</v>
       </c>
-      <c r="D5" t="s" s="443">
+      <c r="D5" t="s" s="1139">
         <v>108</v>
       </c>
-      <c r="E5" t="s" s="441">
+      <c r="E5" t="s" s="1137">
         <v>107</v>
       </c>
-      <c r="G5" t="s" s="443">
+      <c r="G5" t="s" s="1139">
         <v>56</v>
       </c>
-      <c r="H5" t="s" s="441">
+      <c r="H5" t="s" s="1137">
         <v>109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="443">
+      <c r="A6" t="s" s="1139">
         <v>54</v>
       </c>
-      <c r="B6" t="s" s="441">
+      <c r="B6" t="s" s="1137">
         <v>110</v>
       </c>
-      <c r="D6" t="s" s="443">
+      <c r="D6" t="s" s="1139">
         <v>59</v>
       </c>
-      <c r="E6" t="s" s="441">
+      <c r="E6" t="s" s="1137">
         <v>111</v>
       </c>
-      <c r="G6" t="s" s="443">
+      <c r="G6" t="s" s="1139">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="438">
+      <c r="H6" t="s" s="1134">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="435">
+      <c r="A8" t="s" s="1131">
         <v>62</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="443">
+      <c r="A9" t="s" s="1139">
         <v>63</v>
       </c>
-      <c r="B9" t="s" s="442">
-        <v>219</v>
-      </c>
-      <c r="D9" t="s" s="443">
+      <c r="B9" t="s" s="1138">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s" s="1139">
         <v>65</v>
       </c>
-      <c r="E9" t="s" s="442">
-        <v>220</v>
-      </c>
-      <c r="G9" t="s" s="443">
+      <c r="E9" t="s" s="1138">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s" s="1139">
         <v>113</v>
       </c>
-      <c r="H9" t="s" s="442">
+      <c r="H9" t="s" s="1138">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="443">
+      <c r="A10" t="s" s="1139">
         <v>69</v>
       </c>
-      <c r="B10" t="s" s="441">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s" s="443">
+      <c r="B10" t="s" s="1137">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s" s="1139">
         <v>116</v>
       </c>
-      <c r="E10" t="s" s="439">
+      <c r="E10" t="s" s="1135">
         <v>117</v>
       </c>
-      <c r="G10" t="s" s="443">
+      <c r="G10" t="s" s="1139">
         <v>73</v>
       </c>
-      <c r="H10" t="s" s="442">
+      <c r="H10" t="s" s="1138">
         <v>43</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="443">
+      <c r="A11" t="s" s="1139">
         <v>75</v>
       </c>
-      <c r="B11" t="s" s="442">
+      <c r="B11" t="s" s="1138">
         <v>114</v>
       </c>
-      <c r="D11" t="s" s="443">
+      <c r="D11" t="s" s="1139">
         <v>118</v>
       </c>
-      <c r="E11" t="s" s="438">
+      <c r="E11" t="s" s="1134">
         <v>119</v>
       </c>
-      <c r="G11" t="s" s="443">
+      <c r="G11" t="s" s="1139">
         <v>120</v>
       </c>
-      <c r="H11" t="s" s="441">
+      <c r="H11" t="s" s="1137">
         <v>107</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="435">
+      <c r="A13" t="s" s="1131">
         <v>121</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="443">
+      <c r="A14" t="s" s="1139">
         <v>122</v>
       </c>
-      <c r="B14" t="s" s="442">
+      <c r="B14" t="s" s="1138">
         <v>123</v>
       </c>
-      <c r="D14" t="s" s="443">
+      <c r="D14" t="s" s="1139">
         <v>124</v>
       </c>
-      <c r="E14" t="s" s="442">
+      <c r="E14" t="s" s="1138">
         <v>123</v>
       </c>
-      <c r="G14" t="s" s="443">
+      <c r="G14" t="s" s="1139">
         <v>125</v>
       </c>
-      <c r="H14" t="s" s="442">
+      <c r="H14" t="s" s="1138">
         <v>123</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="443">
+      <c r="A15" t="s" s="1139">
         <v>87</v>
       </c>
-      <c r="B15" t="s" s="438">
+      <c r="B15" t="s" s="1134">
         <v>126</v>
       </c>
-      <c r="D15" t="s" s="438">
+      <c r="D15" t="s" s="1134">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="438">
+      <c r="F15" t="s" s="1134">
         <v>90</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="435">
+      <c r="A17" t="s" s="1131">
         <v>127</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="443">
+      <c r="A18" t="s" s="1139">
         <v>128</v>
       </c>
-      <c r="B18" t="s" s="438">
+      <c r="B18" t="s" s="1134">
         <v>129</v>
       </c>
-      <c r="D18" t="s" s="443">
+      <c r="D18" t="s" s="1139">
         <v>94</v>
       </c>
-      <c r="E18" t="s" s="438">
+      <c r="E18" t="s" s="1134">
         <v>99</v>
       </c>
-      <c r="G18" t="s" s="443">
+      <c r="G18" t="s" s="1139">
         <v>96</v>
       </c>
-      <c r="H18" t="s" s="439">
+      <c r="H18" t="s" s="1135">
         <v>97</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="443">
+      <c r="A19" t="s" s="1139">
         <v>130</v>
       </c>
-      <c r="B19" t="s" s="438">
+      <c r="B19" t="s" s="1134">
         <v>10</v>
       </c>
-      <c r="D19" t="s" s="443">
+      <c r="D19" t="s" s="1139">
         <v>100</v>
       </c>
-      <c r="E19" t="s" s="439">
+      <c r="E19" t="s" s="1135">
         <v>131</v>
       </c>
-      <c r="G19" t="s" s="443">
+      <c r="G19" t="s" s="1139">
         <v>102</v>
       </c>
-      <c r="H19" t="s" s="439">
+      <c r="H19" t="s" s="1135">
         <v>132</v>
       </c>
     </row>
@@ -4824,7 +10689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5082,6 +10947,100 @@
         <v>111</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="860">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="860">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="860">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s" s="860">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s" s="860">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s" s="860">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s" s="860">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="860">
+        <v>251</v>
+      </c>
+      <c r="I6" t="n" s="860">
+        <v>13.0</v>
+      </c>
+      <c r="J6" t="n" s="860">
+        <v>13.0</v>
+      </c>
+      <c r="K6" t="n" s="860">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="860">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="s" s="860">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s" s="860">
+        <v>275</v>
+      </c>
+      <c r="O6" t="s" s="861">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1120">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="1120">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="1120">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s" s="1120">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s" s="1120">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s" s="1120">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s" s="1120">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="1120">
+        <v>301</v>
+      </c>
+      <c r="I7" t="n" s="1120">
+        <v>12.0</v>
+      </c>
+      <c r="J7" t="n" s="1120">
+        <v>12.0</v>
+      </c>
+      <c r="K7" t="n" s="1120">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="1120">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="s" s="1120">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s" s="1120">
+        <v>302</v>
+      </c>
+      <c r="O7" t="s" s="1121">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5089,36 +11048,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="67.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="36.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="141.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="74.58984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.10546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="141.09765625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="323">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>208</v>
@@ -5127,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -5157,426 +11116,1080 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="421">
+      <c r="A6" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B6" t="s" s="423">
+      <c r="B6" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C6" t="s" s="327">
+      <c r="C6" t="s" s="956">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="324">
+      <c r="D6" t="s" s="957">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="325">
+      <c r="E6" t="s" s="958">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="326">
+      <c r="F6" t="s" s="959">
         <v>19</v>
       </c>
-      <c r="G6" t="s" s="328">
+      <c r="G6" t="s" s="956">
         <v>210</v>
       </c>
-      <c r="H6" t="s" s="329">
+      <c r="H6" t="s" s="956">
         <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="421">
+      <c r="A7" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B7" t="s" s="423">
+      <c r="B7" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C7" t="s" s="333">
+      <c r="C7" t="s" s="960">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="330">
+      <c r="D7" t="s" s="961">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="331">
+      <c r="E7" t="s" s="962">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="332">
+      <c r="F7" t="s" s="963">
         <v>19</v>
       </c>
-      <c r="G7" t="s" s="334">
+      <c r="G7" t="s" s="960">
         <v>210</v>
       </c>
-      <c r="H7" t="s" s="335">
+      <c r="H7" t="s" s="960">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="421">
+      <c r="A8" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B8" t="s" s="423">
+      <c r="B8" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C8" t="s" s="339">
+      <c r="C8" t="s" s="964">
         <v>170</v>
       </c>
-      <c r="D8" t="s" s="336">
+      <c r="D8" t="s" s="965">
         <v>18</v>
       </c>
-      <c r="E8" t="s" s="337">
+      <c r="E8" t="s" s="966">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="338">
+      <c r="F8" t="s" s="967">
         <v>19</v>
       </c>
-      <c r="G8" t="s" s="340">
+      <c r="G8" t="s" s="964">
         <v>210</v>
       </c>
-      <c r="H8" t="s" s="341">
+      <c r="H8" t="s" s="964">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="421">
+      <c r="A9" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B9" t="s" s="423">
+      <c r="B9" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C9" t="s" s="345">
+      <c r="C9" t="s" s="968">
         <v>171</v>
       </c>
-      <c r="D9" t="s" s="342">
+      <c r="D9" t="s" s="969">
         <v>18</v>
       </c>
-      <c r="E9" t="s" s="343">
+      <c r="E9" t="s" s="970">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="344">
+      <c r="F9" t="s" s="971">
         <v>19</v>
       </c>
-      <c r="G9" t="s" s="346">
+      <c r="G9" t="s" s="968">
         <v>210</v>
       </c>
-      <c r="H9" t="s" s="347">
+      <c r="H9" t="s" s="968">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="421">
+      <c r="A10" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B10" t="s" s="423">
+      <c r="B10" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C10" t="s" s="351">
+      <c r="C10" t="s" s="972">
         <v>173</v>
       </c>
-      <c r="D10" t="s" s="348">
+      <c r="D10" t="s" s="973">
         <v>18</v>
       </c>
-      <c r="E10" t="s" s="349">
+      <c r="E10" t="s" s="974">
         <v>19</v>
       </c>
-      <c r="F10" t="s" s="350">
+      <c r="F10" t="s" s="975">
         <v>19</v>
       </c>
-      <c r="G10" t="s" s="352">
+      <c r="G10" t="s" s="972">
         <v>210</v>
       </c>
-      <c r="H10" t="s" s="353">
+      <c r="H10" t="s" s="972">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="421">
+      <c r="A11" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B11" t="s" s="423">
+      <c r="B11" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C11" t="s" s="357">
+      <c r="C11" t="s" s="976">
         <v>174</v>
       </c>
-      <c r="D11" t="s" s="354">
+      <c r="D11" t="s" s="977">
         <v>18</v>
       </c>
-      <c r="E11" t="s" s="355">
+      <c r="E11" t="s" s="978">
         <v>19</v>
       </c>
-      <c r="F11" t="s" s="356">
+      <c r="F11" t="s" s="979">
         <v>19</v>
       </c>
-      <c r="G11" t="s" s="358">
+      <c r="G11" t="s" s="976">
         <v>210</v>
       </c>
-      <c r="H11" t="s" s="359">
+      <c r="H11" t="s" s="976">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="421">
+      <c r="A12" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B12" t="s" s="423">
+      <c r="B12" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C12" t="s" s="363">
+      <c r="C12" t="s" s="980">
         <v>175</v>
       </c>
-      <c r="D12" t="s" s="360">
+      <c r="D12" t="s" s="981">
         <v>18</v>
       </c>
-      <c r="E12" t="s" s="361">
+      <c r="E12" t="s" s="982">
         <v>19</v>
       </c>
-      <c r="F12" t="s" s="362">
+      <c r="F12" t="s" s="983">
         <v>19</v>
       </c>
-      <c r="G12" t="s" s="364">
+      <c r="G12" t="s" s="980">
         <v>210</v>
       </c>
-      <c r="H12" t="s" s="365">
+      <c r="H12" t="s" s="980">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="421">
+      <c r="A13" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B13" t="s" s="423">
+      <c r="B13" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C13" t="s" s="369">
+      <c r="C13" t="s" s="984">
         <v>176</v>
       </c>
-      <c r="D13" t="s" s="366">
+      <c r="D13" t="s" s="985">
         <v>18</v>
       </c>
-      <c r="E13" t="s" s="367">
+      <c r="E13" t="s" s="986">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="368">
+      <c r="F13" t="s" s="987">
         <v>19</v>
       </c>
-      <c r="G13" t="s" s="370">
+      <c r="G13" t="s" s="984">
         <v>210</v>
       </c>
-      <c r="H13" t="s" s="371">
+      <c r="H13" t="s" s="984">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="421">
+      <c r="A14" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B14" t="s" s="423">
+      <c r="B14" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C14" t="s" s="375">
+      <c r="C14" t="s" s="988">
         <v>177</v>
       </c>
-      <c r="D14" t="s" s="372">
+      <c r="D14" t="s" s="989">
         <v>18</v>
       </c>
-      <c r="E14" t="s" s="373">
+      <c r="E14" t="s" s="990">
         <v>19</v>
       </c>
-      <c r="F14" t="s" s="374">
+      <c r="F14" t="s" s="991">
         <v>19</v>
       </c>
-      <c r="G14" t="s" s="376">
+      <c r="G14" t="s" s="988">
         <v>210</v>
       </c>
-      <c r="H14" t="s" s="377">
+      <c r="H14" t="s" s="988">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="421">
+      <c r="A15" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B15" t="s" s="423">
+      <c r="B15" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C15" t="s" s="381">
+      <c r="C15" t="s" s="992">
         <v>178</v>
       </c>
-      <c r="D15" t="s" s="378">
+      <c r="D15" t="s" s="993">
         <v>18</v>
       </c>
-      <c r="E15" t="s" s="379">
+      <c r="E15" t="s" s="994">
         <v>19</v>
       </c>
-      <c r="F15" t="s" s="380">
+      <c r="F15" t="s" s="995">
         <v>19</v>
       </c>
-      <c r="G15" t="s" s="382">
+      <c r="G15" t="s" s="992">
         <v>210</v>
       </c>
-      <c r="H15" t="s" s="383">
+      <c r="H15" t="s" s="992">
         <v>21</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="421">
+      <c r="A16" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B16" t="s" s="423">
+      <c r="B16" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C16" t="s" s="387">
+      <c r="C16" t="s" s="996">
         <v>179</v>
       </c>
-      <c r="D16" t="s" s="384">
+      <c r="D16" t="s" s="997">
         <v>18</v>
       </c>
-      <c r="E16" t="s" s="385">
+      <c r="E16" t="s" s="998">
         <v>19</v>
       </c>
-      <c r="F16" t="s" s="386">
+      <c r="F16" t="s" s="999">
         <v>19</v>
       </c>
-      <c r="G16" t="s" s="388">
+      <c r="G16" t="s" s="996">
         <v>210</v>
       </c>
-      <c r="H16" t="s" s="389">
+      <c r="H16" t="s" s="996">
         <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="421">
+      <c r="A17" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B17" t="s" s="423">
+      <c r="B17" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C17" t="s" s="393">
+      <c r="C17" t="s" s="1000">
         <v>180</v>
       </c>
-      <c r="D17" t="s" s="390">
+      <c r="D17" t="s" s="1001">
         <v>18</v>
       </c>
-      <c r="E17" t="s" s="391">
+      <c r="E17" t="s" s="1002">
         <v>19</v>
       </c>
-      <c r="F17" t="s" s="392">
+      <c r="F17" t="s" s="1003">
         <v>19</v>
       </c>
-      <c r="G17" t="s" s="394">
+      <c r="G17" t="s" s="1000">
         <v>210</v>
       </c>
-      <c r="H17" t="s" s="395">
+      <c r="H17" t="s" s="1000">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="421">
+      <c r="A18" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B18" t="s" s="423">
+      <c r="B18" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C18" t="s" s="399">
+      <c r="C18" t="s" s="1004">
         <v>181</v>
       </c>
-      <c r="D18" t="s" s="396">
+      <c r="D18" t="s" s="1005">
         <v>111</v>
       </c>
-      <c r="E18" t="s" s="397">
+      <c r="E18" t="s" s="1006">
         <v>19</v>
       </c>
-      <c r="F18" t="s" s="398">
+      <c r="F18" t="s" s="1007">
         <v>19</v>
       </c>
-      <c r="G18" t="s" s="400">
+      <c r="G18" t="s" s="1004">
         <v>210</v>
       </c>
-      <c r="H18" t="s" s="401">
+      <c r="H18" t="s" s="1004">
         <v>211</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="421">
+      <c r="A19" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B19" t="s" s="423">
+      <c r="B19" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C19" t="s" s="405">
+      <c r="C19" t="s" s="1008">
         <v>183</v>
       </c>
-      <c r="D19" t="s" s="402">
+      <c r="D19" t="s" s="1009">
         <v>18</v>
       </c>
-      <c r="E19" t="s" s="403">
+      <c r="E19" t="s" s="1010">
         <v>19</v>
       </c>
-      <c r="F19" t="s" s="404">
+      <c r="F19" t="s" s="1011">
         <v>19</v>
       </c>
-      <c r="G19" t="s" s="406">
+      <c r="G19" t="s" s="1008">
         <v>210</v>
       </c>
-      <c r="H19" t="s" s="407">
+      <c r="H19" t="s" s="1008">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="421">
+      <c r="A20" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B20" t="s" s="423">
+      <c r="B20" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C20" t="s" s="411">
+      <c r="C20" t="s" s="1012">
         <v>184</v>
       </c>
-      <c r="D20" t="s" s="408">
+      <c r="D20" t="s" s="1013">
         <v>18</v>
       </c>
-      <c r="E20" t="s" s="409">
+      <c r="E20" t="s" s="1014">
         <v>19</v>
       </c>
-      <c r="F20" t="s" s="410">
+      <c r="F20" t="s" s="1015">
         <v>19</v>
       </c>
-      <c r="G20" t="s" s="412">
+      <c r="G20" t="s" s="1012">
         <v>210</v>
       </c>
-      <c r="H20" t="s" s="413">
+      <c r="H20" t="s" s="1012">
         <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="421">
+      <c r="A21" t="s" s="953">
         <v>167</v>
       </c>
-      <c r="B21" t="s" s="423">
+      <c r="B21" t="s" s="955">
         <v>168</v>
       </c>
-      <c r="C21" t="s" s="417">
+      <c r="C21" t="s" s="1016">
         <v>185</v>
       </c>
-      <c r="D21" t="s" s="414">
+      <c r="D21" t="s" s="1017">
         <v>18</v>
       </c>
-      <c r="E21" t="s" s="415">
+      <c r="E21" t="s" s="1018">
         <v>19</v>
       </c>
-      <c r="F21" t="s" s="416">
+      <c r="F21" t="s" s="1019">
         <v>19</v>
       </c>
-      <c r="G21" t="s" s="418">
+      <c r="G21" t="s" s="1016">
         <v>210</v>
       </c>
-      <c r="H21" t="s" s="419">
+      <c r="H21" t="s" s="1016">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B22" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s" s="1020">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s" s="1021">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s" s="1022">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s" s="1023">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s" s="1020">
+        <v>273</v>
+      </c>
+      <c r="H22" t="s" s="1020">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C23" t="s" s="1024">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="1025">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s" s="1026">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s" s="1027">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s" s="1024">
+        <v>273</v>
+      </c>
+      <c r="H23" t="s" s="1024">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s" s="1028">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s" s="1029">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s" s="1030">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s" s="1031">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s" s="1028">
+        <v>273</v>
+      </c>
+      <c r="H24" t="s" s="1028">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s" s="1032">
+        <v>237</v>
+      </c>
+      <c r="D25" t="s" s="1033">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s" s="1034">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s" s="1035">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s" s="1032">
+        <v>273</v>
+      </c>
+      <c r="H25" t="s" s="1032">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s" s="1036">
+        <v>238</v>
+      </c>
+      <c r="D26" t="s" s="1037">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s" s="1038">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s" s="1039">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s" s="1036">
+        <v>273</v>
+      </c>
+      <c r="H26" t="s" s="1036">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B27" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s" s="1040">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s" s="1041">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s" s="1042">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="1043">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s" s="1040">
+        <v>273</v>
+      </c>
+      <c r="H27" t="s" s="1040">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s" s="1044">
+        <v>240</v>
+      </c>
+      <c r="D28" t="s" s="1045">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s" s="1046">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s" s="1047">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s" s="1044">
+        <v>273</v>
+      </c>
+      <c r="H28" t="s" s="1044">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s" s="1048">
+        <v>241</v>
+      </c>
+      <c r="D29" t="s" s="1049">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s" s="1050">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s" s="1051">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s" s="1048">
+        <v>273</v>
+      </c>
+      <c r="H29" t="s" s="1048">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s" s="1052">
+        <v>242</v>
+      </c>
+      <c r="D30" t="s" s="1053">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s" s="1054">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s" s="1055">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s" s="1052">
+        <v>273</v>
+      </c>
+      <c r="H30" t="s" s="1052">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s" s="1056">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s" s="1057">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s" s="1058">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s" s="1059">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s" s="1056">
+        <v>273</v>
+      </c>
+      <c r="H31" t="s" s="1056">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s" s="1060">
+        <v>247</v>
+      </c>
+      <c r="D32" t="s" s="1061">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s" s="1062">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s" s="1063">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s" s="1060">
+        <v>273</v>
+      </c>
+      <c r="H32" t="s" s="1060">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s" s="1064">
+        <v>248</v>
+      </c>
+      <c r="D33" t="s" s="1065">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s" s="1066">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s" s="1067">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s" s="1064">
+        <v>273</v>
+      </c>
+      <c r="H33" t="s" s="1064">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="952">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s" s="954">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s" s="1068">
+        <v>249</v>
+      </c>
+      <c r="D34" t="s" s="1069">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="1070">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="1071">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s" s="1068">
+        <v>273</v>
+      </c>
+      <c r="H34" t="s" s="1068">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C35" t="s" s="1072">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s" s="1073">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s" s="1074">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s" s="1075">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s" s="1072">
+        <v>290</v>
+      </c>
+      <c r="H35" t="s" s="1072">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C36" t="s" s="1076">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="1077">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="1078">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="1079">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s" s="1076">
+        <v>290</v>
+      </c>
+      <c r="H36" t="s" s="1076">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B37" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s" s="1080">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s" s="1081">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="1082">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s" s="1083">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s" s="1080">
+        <v>290</v>
+      </c>
+      <c r="H37" t="s" s="1080">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C38" t="s" s="1084">
+        <v>291</v>
+      </c>
+      <c r="D38" t="s" s="1085">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="1086">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="1087">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s" s="1084">
+        <v>290</v>
+      </c>
+      <c r="H38" t="s" s="1084">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B39" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C39" t="s" s="1088">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s" s="1089">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="1090">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="1091">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s" s="1088">
+        <v>290</v>
+      </c>
+      <c r="H39" t="s" s="1088">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C40" t="s" s="1092">
+        <v>293</v>
+      </c>
+      <c r="D40" t="s" s="1093">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="1094">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="1095">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s" s="1092">
+        <v>290</v>
+      </c>
+      <c r="H40" t="s" s="1092">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B41" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s" s="1096">
+        <v>294</v>
+      </c>
+      <c r="D41" t="s" s="1097">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="1098">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="1099">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s" s="1096">
+        <v>290</v>
+      </c>
+      <c r="H41" t="s" s="1096">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B42" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C42" t="s" s="1100">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s" s="1101">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="1102">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="1103">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s" s="1100">
+        <v>290</v>
+      </c>
+      <c r="H42" t="s" s="1100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B43" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C43" t="s" s="1104">
+        <v>296</v>
+      </c>
+      <c r="D43" t="s" s="1105">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s" s="1106">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="1107">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s" s="1104">
+        <v>290</v>
+      </c>
+      <c r="H43" t="s" s="1104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C44" t="s" s="1108">
+        <v>297</v>
+      </c>
+      <c r="D44" t="s" s="1109">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s" s="1110">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s" s="1111">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s" s="1108">
+        <v>290</v>
+      </c>
+      <c r="H44" t="s" s="1108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B45" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C45" t="s" s="1112">
+        <v>298</v>
+      </c>
+      <c r="D45" t="s" s="1113">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s" s="1114">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s" s="1115">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s" s="1112">
+        <v>290</v>
+      </c>
+      <c r="H45" t="s" s="1112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="952">
+        <v>288</v>
+      </c>
+      <c r="B46" t="s" s="954">
+        <v>289</v>
+      </c>
+      <c r="C46" t="s" s="1116">
+        <v>299</v>
+      </c>
+      <c r="D46" t="s" s="1117">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s" s="1118">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s" s="1119">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s" s="1116">
+        <v>290</v>
+      </c>
+      <c r="H46" t="s" s="1116">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="A35:A46"/>
     <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="B35:B46"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>User Name</t>
   </si>
@@ -157,6 +157,96 @@
   </si>
   <si>
     <t>Find client with access to Profile Manager Application</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>18:22:37</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>3m 39s</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Time: 18:22:37 | Total: 2 | Pass: 0 | Fail: 2</t>
+  </si>
+  <si>
+    <t>Exception: RuntimeException
+Message: Expected condition failed: waiting for element to be clickable: By.xpath: //input[@type='email'] (tried for 90 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Users\navee\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56769}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56769/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1cbcd4c7e541fcf4553d1d0f45033cd0
+Key Stack Trace:
+  at com.kfonetalentsuite.utils.JobMapping.PageObjectHelper.handleError(PageObjectHelper.java:20)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.provide_sso_login_username_and_click_sign_in_button_in_kfone_login_page(PO01_KFoneLogin.java:113)</t>
+  </si>
+  <si>
+    <t>Exception: RuntimeException
+Message: Expected condition failed: waiting for visibility of element located by By.xpath: //table[@id='iam-clients-list-table-content'] (tried for 90 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Users\navee\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56769}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56769/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1cbcd4c7e541fcf4553d1d0f45033cd0
+Key Stack Trace:
+  at com.kfonetalentsuite.utils.JobMapping.PageObjectHelper.handleError(PageObjectHelper.java:20)
+  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.user_is_in_kfone_clients_page(PO01_KFoneLogin.java:228)</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-31 18:22:37</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-31]: FAILED (1 runs)</t>
+  </si>
+  <si>
+    <t>Passed: 0</t>
+  </si>
+  <si>
+    <t>Failed: 2</t>
+  </si>
+  <si>
+    <t>Duration: 3m 39s</t>
+  </si>
+  <si>
+    <t>19:22:39</t>
+  </si>
+  <si>
+    <t>35s</t>
+  </si>
+  <si>
+    <t>Time: 19:22:39 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-31 19:22:39</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-31]: ALL_PASSED (1 runs)</t>
+  </si>
+  <si>
+    <t>Duration: 35s</t>
+  </si>
+  <si>
+    <t>19:39:30</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>Time: 19:39:30 | Total: 2 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-31 19:39:30</t>
+  </si>
+  <si>
+    <t>Duration: 44s</t>
   </si>
 </sst>
 </file>
@@ -164,7 +254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="83">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -244,6 +334,324 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
   </fonts>
   <fills count="10">
@@ -332,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +801,240 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -406,21 +1048,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.24609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.99609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.4375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.0078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.08984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.3125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0078125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.24609375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.99609375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.91015625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.96484375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,49 +1113,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="73">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="73">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="73">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s" s="2">
+      <c r="D2" t="s" s="73">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s" s="73">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" t="s" s="73">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" t="s" s="73">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" t="s" s="73">
         <v>22</v>
       </c>
-      <c r="I2" t="n" s="2">
+      <c r="I2" t="n" s="73">
         <v>2.0</v>
       </c>
-      <c r="J2" t="n" s="2">
+      <c r="J2" t="n" s="73">
         <v>2.0</v>
       </c>
-      <c r="K2" t="n" s="2">
+      <c r="K2" t="n" s="73">
         <v>0.0</v>
       </c>
-      <c r="L2" t="n" s="2">
+      <c r="L2" t="n" s="73">
         <v>0.0</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" t="s" s="73">
         <v>23</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s" s="3">
+      <c r="N2" t="s" s="73">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s" s="74">
         <v>25</v>
       </c>
     </row>
@@ -530,24 +1172,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="69.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.75" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="34.109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="22.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.60546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="43.28125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.75"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="34.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.34375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>28</v>
@@ -562,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -592,59 +1234,59 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="17">
+      <c r="A6" t="s" s="87">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="19">
+      <c r="B6" t="s" s="89">
         <v>42</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" t="s" s="91">
         <v>43</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" t="s" s="92">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" t="s" s="93">
         <v>44</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" t="s" s="94">
         <v>44</v>
       </c>
-      <c r="G6" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s" s="10">
+      <c r="G6" t="s" s="91">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s" s="91">
         <v>46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="17">
+      <c r="A7" t="s" s="87">
         <v>41</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="B7" t="s" s="89">
         <v>42</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" t="s" s="95">
         <v>47</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" t="s" s="96">
         <v>25</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="E7" t="s" s="97">
         <v>44</v>
       </c>
-      <c r="F7" t="s" s="13">
+      <c r="F7" t="s" s="98">
         <v>44</v>
       </c>
-      <c r="G7" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s" s="16">
+      <c r="G7" t="s" s="95">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="95">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>User Name</t>
   </si>
@@ -69,7 +69,7 @@
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>15:06:35</t>
+    <t>19:58:13</t>
   </si>
   <si>
     <t>qa</t>
@@ -87,13 +87,13 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>34s</t>
+    <t>28s</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Test Results Summary - 2025-12-31 15:06:35</t>
+    <t>Test Results Summary - 2025-12-31 19:58:13</t>
   </si>
   <si>
     <t>Daily Status [2025-12-31]: PASSED (1 run)</t>
@@ -111,7 +111,7 @@
     <t>Skipped: 0</t>
   </si>
   <si>
-    <t>Duration: 34s</t>
+    <t>Duration: 28s</t>
   </si>
   <si>
     <t>Feature File</t>
@@ -150,7 +150,7 @@
     <t/>
   </si>
   <si>
-    <t>Time: 15:06:35 | Total: 2 | Pass: 2 | Fail: 0</t>
+    <t>Time: 19:58:13 | Total: 2 | Pass: 2 | Fail: 0</t>
   </si>
   <si>
     <t>Test executed successfully</t>
@@ -159,94 +159,97 @@
     <t>Find client with access to Profile Manager Application</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>18:22:37</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>3m 39s</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Time: 18:22:37 | Total: 2 | Pass: 0 | Fail: 2</t>
-  </si>
-  <si>
-    <t>Exception: RuntimeException
-Message: Expected condition failed: waiting for element to be clickable: By.xpath: //input[@type='email'] (tried for 90 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Users\navee\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56769}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56769/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1cbcd4c7e541fcf4553d1d0f45033cd0
-Key Stack Trace:
-  at com.kfonetalentsuite.utils.JobMapping.PageObjectHelper.handleError(PageObjectHelper.java:20)
-  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.provide_sso_login_username_and_click_sign_in_button_in_kfone_login_page(PO01_KFoneLogin.java:113)</t>
-  </si>
-  <si>
-    <t>Exception: RuntimeException
-Message: Expected condition failed: waiting for visibility of element located by By.xpath: //table[@id='iam-clients-list-table-content'] (tried for 90 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.16'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 133.0.6943.127, chrome: {chromedriverVersion: 133.0.6943.141 (2a5d6da0d61..., userDataDir: C:\Users\navee\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56769}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56769/devtoo..., se:cdpVersion: 133.0.6943.127, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1cbcd4c7e541fcf4553d1d0f45033cd0
-Key Stack Trace:
-  at com.kfonetalentsuite.utils.JobMapping.PageObjectHelper.handleError(PageObjectHelper.java:20)
-  at com.kfonetalentsuite.pageobjects.JobMapping.PO01_KFoneLogin.user_is_in_kfone_clients_page(PO01_KFoneLogin.java:228)</t>
-  </si>
-  <si>
-    <t>Test Results Summary - Last Updated: 2025-12-31 18:22:37</t>
-  </si>
-  <si>
-    <t>Daily Status [2025-12-31]: FAILED (1 runs)</t>
-  </si>
-  <si>
-    <t>Passed: 0</t>
-  </si>
-  <si>
-    <t>Failed: 2</t>
-  </si>
-  <si>
-    <t>Duration: 3m 39s</t>
-  </si>
-  <si>
-    <t>19:22:39</t>
-  </si>
-  <si>
-    <t>35s</t>
-  </si>
-  <si>
-    <t>Time: 19:22:39 | Total: 2 | Pass: 2 | Fail: 0</t>
-  </si>
-  <si>
-    <t>Test Results Summary - Last Updated: 2025-12-31 19:22:39</t>
-  </si>
-  <si>
-    <t>Daily Status [2025-12-31]: ALL_PASSED (1 runs)</t>
-  </si>
-  <si>
-    <t>Duration: 35s</t>
-  </si>
-  <si>
-    <t>19:39:30</t>
-  </si>
-  <si>
-    <t>44s</t>
-  </si>
-  <si>
-    <t>Time: 19:39:30 | Total: 2 | Pass: 2 | Fail: 0</t>
-  </si>
-  <si>
-    <t>Test Results Summary - Last Updated: 2025-12-31 19:39:30</t>
-  </si>
-  <si>
-    <t>Duration: 44s</t>
+    <t>19:59:52</t>
+  </si>
+  <si>
+    <t>Runner13_PCRestrictedTipMessage</t>
+  </si>
+  <si>
+    <t>11.0%</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>13_PCRestrictedTipMessage.feature</t>
+  </si>
+  <si>
+    <t>Validate Profile Collections Restricted Tip Message in Job Mapping UI</t>
+  </si>
+  <si>
+    <t>Time: 19:59:52 | Total: 18 | Pass: 2 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Navigate to User Admin Module Dashboard</t>
+  </si>
+  <si>
+    <t>SCENARIO SKIPPED: Only users with role 'KF Super User' can validate this feature. Current user role: 'Client Admin User'</t>
+  </si>
+  <si>
+    <t>Navigate to Teams page in User Admin Module</t>
+  </si>
+  <si>
+    <t>Enter team name and description in Create Team page</t>
+  </si>
+  <si>
+    <t>Add team members to the new team</t>
+  </si>
+  <si>
+    <t>Save team and verify successful creation</t>
+  </si>
+  <si>
+    <t>Navigate to Manage Success Profiles page in User Admin Module</t>
+  </si>
+  <si>
+    <t>Enter Profile Collection name and description</t>
+  </si>
+  <si>
+    <t>Assign teams to the Profile Collection</t>
+  </si>
+  <si>
+    <t>Add Success Profiles to the Profile Collection</t>
+  </si>
+  <si>
+    <t>Save Profile Collection and verify successful creation</t>
+  </si>
+  <si>
+    <t>Navigate to Job Mapping page</t>
+  </si>
+  <si>
+    <t>Verify PC Restricted Tip Message on Job Mapping page</t>
+  </si>
+  <si>
+    <t>Navigate to Profile Collections page for cleanup</t>
+  </si>
+  <si>
+    <t>Delete Profile Collection</t>
+  </si>
+  <si>
+    <t>Navigate to Teams page for cleanup</t>
+  </si>
+  <si>
+    <t>Delete Team</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2025-12-31 19:59:52</t>
+  </si>
+  <si>
+    <t>Daily Status [2025-12-31]: PASSED_WITH_SKIPS (2 runs)</t>
+  </si>
+  <si>
+    <t>Total: 20</t>
+  </si>
+  <si>
+    <t>Passed: 4</t>
+  </si>
+  <si>
+    <t>Skipped: 16</t>
+  </si>
+  <si>
+    <t>Duration: 30s</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="83">
+  <fonts count="207">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -343,107 +346,7 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
+      <color indexed="19"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -454,6 +357,26 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
@@ -481,35 +404,431 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
       <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
@@ -522,16 +841,16 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
@@ -544,16 +863,16 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
@@ -570,52 +889,12 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="58"/>
     </font>
@@ -628,33 +907,357 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="19"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +1304,16 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -740,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -802,13 +1415,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
@@ -817,16 +1430,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
@@ -835,13 +1448,301 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
@@ -856,184 +1757,244 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="127" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="11" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="11" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1055,7 +2016,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.24609375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.99609375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="23.4375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.12109375"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="18.91015625"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="11.71875"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="14.96484375"/>
@@ -1113,50 +2074,97 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="73">
+      <c r="A2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="73">
+      <c r="B2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="73">
+      <c r="C2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="73">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s" s="73">
+      <c r="D2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="73">
+      <c r="F2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="73">
+      <c r="G2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="73">
+      <c r="H2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I2" t="n" s="73">
+      <c r="I2" t="n" s="2">
         <v>2.0</v>
       </c>
-      <c r="J2" t="n" s="73">
+      <c r="J2" t="n" s="2">
         <v>2.0</v>
       </c>
-      <c r="K2" t="n" s="73">
+      <c r="K2" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="L2" t="n" s="73">
+      <c r="L2" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="M2" t="s" s="73">
+      <c r="M2" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="N2" t="s" s="73">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s" s="74">
+      <c r="N2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s" s="3">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="I3" t="n" s="21">
+        <v>18.0</v>
+      </c>
+      <c r="J3" t="n" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="K3" t="n" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="M3" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s" s="22">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1166,45 +2174,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="69.60546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="43.28125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.69140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="56.5390625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="53.3515625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.71875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.71875"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.75"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="34.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.34375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="98.37890625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1234,62 +2242,532 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="87">
+      <c r="A6" t="s" s="131">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="89">
+      <c r="B6" t="s" s="133">
         <v>42</v>
       </c>
-      <c r="C6" t="s" s="91">
+      <c r="C6" t="s" s="135">
         <v>43</v>
       </c>
-      <c r="D6" t="s" s="92">
+      <c r="D6" t="s" s="136">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="93">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s" s="94">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s" s="91">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s" s="91">
+      <c r="E6" t="s" s="137">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s" s="138">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s" s="135">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="135">
         <v>46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="87">
+      <c r="A7" t="s" s="131">
         <v>41</v>
       </c>
-      <c r="B7" t="s" s="89">
+      <c r="B7" t="s" s="133">
         <v>42</v>
       </c>
-      <c r="C7" t="s" s="95">
+      <c r="C7" t="s" s="139">
         <v>47</v>
       </c>
-      <c r="D7" t="s" s="96">
+      <c r="D7" t="s" s="140">
         <v>25</v>
       </c>
-      <c r="E7" t="s" s="97">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s" s="98">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s" s="95">
+      <c r="E7" t="s" s="141">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s" s="142">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s" s="139">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="139">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="143">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="144">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s" s="145">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s" s="146">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s" s="143">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s" s="143">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s" s="147">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="148">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="149">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="150">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="147">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s" s="147">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="151">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s" s="152">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s" s="153">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="154">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s" s="151">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s" s="151">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="155">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="156">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="157">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s" s="158">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s" s="155">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s" s="155">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="159">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s" s="160">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s" s="161">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s" s="162">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s" s="159">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s" s="159">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="163">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s" s="164">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s" s="165">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s" s="166">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s" s="163">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s" s="163">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="167">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s" s="168">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s" s="169">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s" s="170">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s" s="167">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s" s="167">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="171">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s" s="172">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s" s="173">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="174">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s" s="171">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s" s="171">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="175">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s" s="176">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s" s="177">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s" s="178">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s" s="175">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s" s="175">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s" s="179">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s" s="180">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s" s="181">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s" s="182">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s" s="179">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s" s="179">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="183">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s" s="184">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s" s="185">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s" s="186">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s" s="183">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s" s="183">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s" s="187">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s" s="188">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s" s="189">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s" s="190">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s" s="187">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s" s="187">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s" s="191">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s" s="192">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s" s="193">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="194">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="191">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s" s="191">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="195">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s" s="196">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s" s="197">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="198">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s" s="195">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s" s="195">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s" s="199">
         <v>69</v>
       </c>
-      <c r="H7" t="s" s="95">
-        <v>46</v>
+      <c r="D22" t="s" s="200">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s" s="201">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s" s="202">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s" s="199">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s" s="199">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s" s="203">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s" s="204">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s" s="205">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s" s="206">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s" s="203">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s" s="203">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s" s="207">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s" s="208">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s" s="209">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s" s="210">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s" s="207">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s" s="207">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="133">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s" s="211">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s" s="212">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s" s="213">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s" s="214">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s" s="211">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s" s="211">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A25"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B25"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
+++ b/e2e-automation/ExcelReports/JobMappingAutomationTestResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="226">
   <si>
     <t>User Name</t>
   </si>
@@ -721,13 +721,28 @@
   <si>
     <t>Duration: 9m 11s</t>
   </si>
+  <si>
+    <t>12:37:00</t>
+  </si>
+  <si>
+    <t>8m 16s</t>
+  </si>
+  <si>
+    <t>Time: 12:37:00 | Total: 20 | Pass: 20 | Fail: 0</t>
+  </si>
+  <si>
+    <t>Test Results Summary - Last Updated: 2026-01-02 12:37:00</t>
+  </si>
+  <si>
+    <t>Duration: 8m 16s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1908">
+  <fonts count="2234">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -7535,6 +7550,1658 @@
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -10385,7 +12052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1956">
+  <cellXfs count="2286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -16250,6 +17917,996 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1907" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1908" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1909" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1910" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1911" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1912" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1913" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1914" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1915" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1916" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1917" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1918" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1919" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1920" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1921" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1922" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1923" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1924" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1925" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1926" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1927" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1928" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1929" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1930" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1931" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1932" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1933" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1934" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1935" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1936" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1937" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1938" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1939" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1940" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1941" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1942" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1943" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1944" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1945" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1946" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1947" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1948" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1949" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1950" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1951" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1952" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1953" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1954" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1955" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1956" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1957" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1958" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1959" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1960" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1961" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1962" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1963" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1964" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1965" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1966" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1967" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1968" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1969" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1970" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1971" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1972" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1973" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1974" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1975" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1976" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1977" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1978" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1979" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1980" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1981" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1982" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1983" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1984" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1985" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1986" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1987" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1988" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1989" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1990" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1991" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1992" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1993" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1994" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1995" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1996" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1997" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1998" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1999" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2000" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2001" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2002" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2003" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2004" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2005" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2006" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2007" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2008" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2009" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2010" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2011" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2012" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2013" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2014" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2015" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2016" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2017" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2018" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2019" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2020" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2021" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2022" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2023" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2024" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2025" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2026" fillId="0" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2027" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2028" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2029" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2030" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2031" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2032" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2033" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2034" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2035" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2036" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2037" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2038" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2039" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2040" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2041" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2042" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2043" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2044" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2045" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2046" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2047" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2048" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2049" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2050" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2051" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2052" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2053" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2054" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2055" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2056" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2057" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2058" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2059" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2060" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2061" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2062" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2063" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2064" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2065" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2066" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2067" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2068" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2069" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2070" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2071" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2072" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2073" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2074" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2075" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2076" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2077" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2078" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2079" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2080" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2081" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2082" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2083" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2084" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2085" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2086" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2087" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2088" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2089" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2090" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2091" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2092" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2093" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2094" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2095" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2096" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2097" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2098" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2099" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2100" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2101" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2102" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2103" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2104" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2105" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2106" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2107" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2108" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2109" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2110" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2111" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2112" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2113" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2114" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2115" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2116" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2117" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2118" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2119" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2120" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2121" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2122" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2123" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2124" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2125" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2126" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2127" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2128" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2129" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2130" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2131" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2132" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2133" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2134" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2135" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2136" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2137" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2138" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2139" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2140" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2141" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2142" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2143" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2144" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2145" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2146" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2147" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2148" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2149" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2150" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2151" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2152" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2153" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2154" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2155" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2156" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2157" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2158" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2159" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2160" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2161" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2162" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2163" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2164" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2165" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2166" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2167" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2168" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2169" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2170" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2171" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2172" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2173" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2174" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2175" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2176" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2177" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2178" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2179" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2180" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2181" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2182" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2183" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2184" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2185" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2186" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2187" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2188" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2189" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2190" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2191" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2192" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2193" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2194" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2195" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2196" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2197" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2198" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2199" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2200" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2201" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2202" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2203" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2204" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2205" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2206" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2207" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2208" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2209" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2210" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2211" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2212" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2213" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2214" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2215" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2216" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2217" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2218" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2219" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2220" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2221" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2222" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2223" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2224" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2225" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2226" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2227" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2228" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2229" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2230" fillId="5" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2231" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2232" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2233" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16658,49 +19315,49 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1626">
+      <c r="A9" t="s" s="1956">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="1626">
+      <c r="B9" t="s" s="1956">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="1626">
+      <c r="C9" t="s" s="1956">
         <v>98</v>
       </c>
-      <c r="D9" t="s" s="1626">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s" s="1626">
+      <c r="D9" t="s" s="1956">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s" s="1956">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="1626">
+      <c r="F9" t="s" s="1956">
         <v>20</v>
       </c>
-      <c r="G9" t="s" s="1626">
+      <c r="G9" t="s" s="1956">
         <v>21</v>
       </c>
-      <c r="H9" t="s" s="1626">
+      <c r="H9" t="s" s="1956">
         <v>173</v>
       </c>
-      <c r="I9" t="n" s="1626">
+      <c r="I9" t="n" s="1956">
         <v>20.0</v>
       </c>
-      <c r="J9" t="n" s="1626">
+      <c r="J9" t="n" s="1956">
         <v>20.0</v>
       </c>
-      <c r="K9" t="n" s="1626">
+      <c r="K9" t="n" s="1956">
         <v>0.0</v>
       </c>
-      <c r="L9" t="n" s="1626">
+      <c r="L9" t="n" s="1956">
         <v>0.0</v>
       </c>
-      <c r="M9" t="s" s="1626">
+      <c r="M9" t="s" s="1956">
         <v>23</v>
       </c>
-      <c r="N9" t="s" s="1626">
-        <v>214</v>
-      </c>
-      <c r="O9" t="s" s="1627">
+      <c r="N9" t="s" s="1956">
+        <v>222</v>
+      </c>
+      <c r="O9" t="s" s="1957">
         <v>25</v>
       </c>
     </row>
@@ -16729,7 +19386,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="413">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
@@ -16749,7 +19406,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -16779,1333 +19436,1333 @@
       </c>
     </row>
   